--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5132F-626D-448B-BB5B-DF21BDCABA7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7500279C-6539-4B22-9D67-07551AC49FEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -1444,7 +1444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6A38B-9221-46B4-8760-38B60FB5A75C}">
   <dimension ref="A1:Z90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1515,8 +1517,8 @@
         <v>DEV</v>
       </c>
       <c r="X1" s="2" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, '", Q1, "', '", R1, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L1, " , ", IF(C1="", "NULL", CONCATENATE("'", B1,"/", C1, "'")),", ", K1, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B1,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 85295, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q1, "', '", R1, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L1, " , ", IF(C1="", "NULL", CONCATENATE("'", B1,"/", C1, "'")),", ", K1, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B1,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 68341, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z1" s="2" t="str">
         <f t="shared" ref="Z1" si="6">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q1, "' AND [P].[LastName] = '", R1, "' AND [PR].[Code] = '", V1, "'")</f>
@@ -1573,11 +1575,11 @@
         <v>DEV</v>
       </c>
       <c r="X2" s="2" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 32000, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ref="X2:X65" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 4798, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z2" s="2" t="str">
-        <f t="shared" ref="Z2:Z65" si="13">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q2, "' AND [P].[LastName] = '", R2, "' AND [PR].[Code] = '", V2, "'")</f>
+        <f t="shared" ref="Z2:Z65" si="14">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q2, "' AND [P].[LastName] = '", R2, "' AND [PR].[Code] = '", V2, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Lopez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -1596,11 +1598,11 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F66" si="14">LEFT(A3, E3-1)</f>
+        <f t="shared" ref="F3:F66" si="15">LEFT(A3, E3-1)</f>
         <v>Alberto</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G66" si="15">RIGHT(A3,LEN(A3) - E3)</f>
+        <f t="shared" ref="G3:G66" si="16">RIGHT(A3,LEN(A3) - E3)</f>
         <v>Da Cunha</v>
       </c>
       <c r="K3" s="2">
@@ -1610,11 +1612,11 @@
         <v>0</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="16">IF(C3="", F3, C3)</f>
+        <f t="shared" ref="N3:N66" si="17">IF(C3="", F3, C3)</f>
         <v>Alberto_Dacunha.JPG</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="17">IF(J3="", G3, J3)</f>
+        <f t="shared" ref="O3:O66" si="18">IF(J3="", G3, J3)</f>
         <v>Da Cunha</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1631,11 +1633,11 @@
         <v>DEV</v>
       </c>
       <c r="X3" s="2" t="str">
-        <f t="shared" ref="X3:X66" ca="1" si="18">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, '", Q3, "', '", R3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", K3, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 57801, 0 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 56340, 0 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z3" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alberto' AND [P].[LastName] = 'Da Cunha' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -1654,11 +1656,11 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Alberto</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Hernández</v>
       </c>
       <c r="K4" s="2">
@@ -1668,11 +1670,11 @@
         <v>0</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Alberto_Hernandez.jpg</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Hernández</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1686,11 +1688,11 @@
         <v>TST</v>
       </c>
       <c r="X4" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 11778, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 52437, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z4" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alberto' AND [P].[LastName] = 'Hernández' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -1709,11 +1711,11 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Alejandro</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Capece</v>
       </c>
       <c r="K5" s="2">
@@ -1723,11 +1725,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Alejandro Capece.JPG</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Capece</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -1744,11 +1746,11 @@
         <v>DEV</v>
       </c>
       <c r="X5" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 42035, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 95086, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z5" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alejandro' AND [P].[LastName] = 'Capece' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -1767,11 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Alejandro</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Latchinian</v>
       </c>
       <c r="K6" s="2">
@@ -1781,11 +1783,11 @@
         <v>0</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Alejandro_Latchinian.JPG</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Latchinian</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -1802,11 +1804,11 @@
         <v>DEV</v>
       </c>
       <c r="X6" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 603, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 97788, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z6" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alejandro' AND [P].[LastName] = 'Latchinian' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -1825,11 +1827,11 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Alfonso</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Rodriguez</v>
       </c>
       <c r="K7" s="2">
@@ -1839,11 +1841,11 @@
         <v>0</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Alfonso_Rodriguez.jpg</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Rodriguez</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -1860,11 +1862,11 @@
         <v>DEV</v>
       </c>
       <c r="X7" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 85991, 0 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 42423, 0 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z7" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alfonso' AND [P].[LastName] = 'Rodriguez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -1883,11 +1885,11 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Alvaro</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Restuccia</v>
       </c>
       <c r="K8" s="2">
@@ -1897,11 +1899,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Alvaro_Restuccia.jpeg</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Restuccia</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -1918,11 +1920,11 @@
         <v>PM</v>
       </c>
       <c r="X8" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 49091, 0 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 89751, 0 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z8" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alvaro' AND [P].[LastName] = 'Restuccia' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -1941,11 +1943,11 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bores</v>
       </c>
       <c r="K9" s="2">
@@ -1955,11 +1957,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Andres_Bores.JPG</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Bores</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -1976,11 +1978,11 @@
         <v>DEV</v>
       </c>
       <c r="X9" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 18430, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 17827, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z9" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Bores' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -1999,11 +2001,11 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Maedo</v>
       </c>
       <c r="K10" s="2">
@@ -2013,11 +2015,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Andres_Maedo.JPG</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Maedo</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -2034,11 +2036,11 @@
         <v>TST</v>
       </c>
       <c r="X10" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 69962, 0 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 56939, 0 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z10" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Maedo' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -2057,11 +2059,11 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nieves</v>
       </c>
       <c r="K11" s="2">
@@ -2071,11 +2073,11 @@
         <v>0</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Andres_Nieves.JPG</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Nieves</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -2092,11 +2094,11 @@
         <v>DEV</v>
       </c>
       <c r="X11" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 96119, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 71870, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z11" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Nieves' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2115,11 +2117,11 @@
         <v>7</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Aniela</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Amy</v>
       </c>
       <c r="K12" s="2">
@@ -2129,11 +2131,11 @@
         <v>0</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Aniela_Amy.JPG</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Amy</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -2150,11 +2152,11 @@
         <v>DEV</v>
       </c>
       <c r="X12" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 59897, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 84118, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z12" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Aniela' AND [P].[LastName] = 'Amy' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2173,11 +2175,11 @@
         <v>6</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ariel</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Sisro</v>
       </c>
       <c r="K13" s="2">
@@ -2187,11 +2189,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Ariel_Sisro.JPG</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Sisro</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -2208,11 +2210,11 @@
         <v>DEV</v>
       </c>
       <c r="X13" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 39590, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 98616, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z13" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ariel' AND [P].[LastName] = 'Sisro' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2231,11 +2233,11 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Beerbal</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Abdulkhader</v>
       </c>
       <c r="K14" s="2">
@@ -2245,11 +2247,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Beerbal_Abdulkhader.JPG</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Abdulkhader</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -2266,11 +2268,11 @@
         <v>TST</v>
       </c>
       <c r="X14" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 378, 0 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 41726, 0 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z14" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Beerbal' AND [P].[LastName] = 'Abdulkhader' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -2289,11 +2291,11 @@
         <v>6</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bruno</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Candia</v>
       </c>
       <c r="K15" s="2">
@@ -2303,11 +2305,11 @@
         <v>1</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bruno_Candia.JPG</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Candia</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -2324,11 +2326,11 @@
         <v>DEV</v>
       </c>
       <c r="X15" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 73359, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 46324, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z15" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Bruno' AND [P].[LastName] = 'Candia' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2347,11 +2349,11 @@
         <v>7</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Camila</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Roji</v>
       </c>
       <c r="K16" s="2">
@@ -2361,11 +2363,11 @@
         <v>0</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Camila_Roji.jpg</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Roji</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -2382,11 +2384,11 @@
         <v>DEV</v>
       </c>
       <c r="X16" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 18933, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 77764, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z16" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camila' AND [P].[LastName] = 'Roji' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2405,11 +2407,11 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Camila</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Sorio</v>
       </c>
       <c r="K17" s="2">
@@ -2419,11 +2421,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Camila_Sorio.jpg</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Sorio</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -2440,11 +2442,11 @@
         <v>ADMIN</v>
       </c>
       <c r="X17" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 91638, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 8515, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z17" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camila' AND [P].[LastName] = 'Sorio' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
@@ -2463,11 +2465,11 @@
         <v>7</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Camilo</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Gomez</v>
       </c>
       <c r="K18" s="2">
@@ -2477,11 +2479,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Camilo_Gomez.jpeg</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Gomez</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -2498,11 +2500,11 @@
         <v>DEV</v>
       </c>
       <c r="X18" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 40661, 0 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 14247, 0 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z18" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camilo' AND [P].[LastName] = 'Gomez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2521,11 +2523,11 @@
         <v>7</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Damián</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Pereira</v>
       </c>
       <c r="K19" s="2">
@@ -2535,11 +2537,11 @@
         <v>0</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Damian_Pereira.JPG</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Pereira</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -2556,11 +2558,11 @@
         <v>TST</v>
       </c>
       <c r="X19" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 24035, 0 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 43126, 0 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z19" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Damián' AND [P].[LastName] = 'Pereira' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -2579,11 +2581,11 @@
         <v>7</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Daniel</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Cabrera</v>
       </c>
       <c r="K20" s="2">
@@ -2593,11 +2595,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Daniel_Cabrera.JPG</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Cabrera</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -2614,11 +2616,11 @@
         <v>PM</v>
       </c>
       <c r="X20" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 86961, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 24229, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z20" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Daniel' AND [P].[LastName] = 'Cabrera' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -2637,11 +2639,11 @@
         <v>6</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Delia</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Alvarez</v>
       </c>
       <c r="K21" s="2">
@@ -2651,11 +2653,11 @@
         <v>0</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Delia_Alvarez.jpg</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Alvarez</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -2672,11 +2674,11 @@
         <v>DEV</v>
       </c>
       <c r="X21" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 51706, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 36789, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z21" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Delia' AND [P].[LastName] = 'Alvarez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2695,11 +2697,11 @@
         <v>8</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Eduardo</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Ducer</v>
       </c>
       <c r="K22" s="2">
@@ -2709,11 +2711,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Eduardo_Ducer.JPG</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Ducer</v>
       </c>
       <c r="Q22" s="2" t="s">
@@ -2730,11 +2732,11 @@
         <v>DEV</v>
       </c>
       <c r="X22" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 7857, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 4166, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z22" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Eduardo' AND [P].[LastName] = 'Ducer' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2753,11 +2755,11 @@
         <v>8</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Eugenia</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Pais</v>
       </c>
       <c r="K23" s="2">
@@ -2767,11 +2769,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Maria_Pais.jpg</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Pais</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -2788,11 +2790,11 @@
         <v>DEV</v>
       </c>
       <c r="X23" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 23029, 0 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 96046, 0 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z23" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Eugenia' AND [P].[LastName] = 'Pais' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2811,11 +2813,11 @@
         <v>9</v>
       </c>
       <c r="F24" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Canet</v>
       </c>
       <c r="K24" s="2">
@@ -2825,11 +2827,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Federico_Canet.JPG</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Canet</v>
       </c>
       <c r="Q24" s="2" t="s">
@@ -2846,11 +2848,11 @@
         <v>DEV</v>
       </c>
       <c r="X24" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 71827, 0 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 51494, 0 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z24" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'Canet' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2869,11 +2871,11 @@
         <v>9</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>García</v>
       </c>
       <c r="K25" s="2">
@@ -2883,11 +2885,11 @@
         <v>0</v>
       </c>
       <c r="N25" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Federico_Garcia.JPG</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>García</v>
       </c>
       <c r="Q25" s="2" t="s">
@@ -2904,11 +2906,11 @@
         <v>DEV</v>
       </c>
       <c r="X25" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 89213, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 32289, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z25" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'García' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2927,11 +2929,11 @@
         <v>9</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Trujillo</v>
       </c>
       <c r="K26" s="2">
@@ -2941,11 +2943,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Federico_Trujillo.JPG</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Trujillo</v>
       </c>
       <c r="Q26" s="2" t="s">
@@ -2962,11 +2964,11 @@
         <v>DEV</v>
       </c>
       <c r="X26" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 25846, 0 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 11737, 0 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z26" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'Trujillo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -2985,11 +2987,11 @@
         <v>8</v>
       </c>
       <c r="F27" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Fernado</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Olmos</v>
       </c>
       <c r="K27" s="2">
@@ -2999,11 +3001,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Fernando_Olmos.JPG</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Olmos</v>
       </c>
       <c r="Q27" s="2" t="s">
@@ -3020,11 +3022,11 @@
         <v>DEV</v>
       </c>
       <c r="X27" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Fernado', 'Olmos', NULL, NULL, 55605, 0 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernado', 'Olmos', NULL, NULL, 16744, 0 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z27" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernado' AND [P].[LastName] = 'Olmos' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3043,11 +3045,11 @@
         <v>9</v>
       </c>
       <c r="F28" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Cañas</v>
       </c>
       <c r="K28" s="2">
@@ -3057,11 +3059,11 @@
         <v>0</v>
       </c>
       <c r="N28" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Fernando_Canas.JPG</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Cañas</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -3078,11 +3080,11 @@
         <v>ADMIN</v>
       </c>
       <c r="X28" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 50962, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 75459, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z28" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Cañas' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
@@ -3101,11 +3103,11 @@
         <v>9</v>
       </c>
       <c r="F29" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Stromillo</v>
       </c>
       <c r="K29" s="2">
@@ -3115,11 +3117,11 @@
         <v>0</v>
       </c>
       <c r="N29" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Fernando_Stromillo.jpg</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Stromillo</v>
       </c>
       <c r="Q29" s="2" t="s">
@@ -3136,11 +3138,11 @@
         <v>DEV</v>
       </c>
       <c r="X29" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 20114, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 88603, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z29" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Stromillo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3159,11 +3161,11 @@
         <v>7</v>
       </c>
       <c r="F30" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Gastón</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Aroztegui</v>
       </c>
       <c r="K30" s="2">
@@ -3173,11 +3175,11 @@
         <v>0</v>
       </c>
       <c r="N30" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Gaston_Aroztegui.JPG</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Aroztegui</v>
       </c>
       <c r="Q30" s="2" t="s">
@@ -3194,11 +3196,11 @@
         <v>TST</v>
       </c>
       <c r="X30" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 24409, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 34941, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z30" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Gastón' AND [P].[LastName] = 'Aroztegui' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -3217,11 +3219,11 @@
         <v>8</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Gerardo</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Barbitta</v>
       </c>
       <c r="K31" s="2">
@@ -3231,11 +3233,11 @@
         <v>0</v>
       </c>
       <c r="N31" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Gerardo_Barbitta.jpg</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Barbitta</v>
       </c>
       <c r="Q31" s="2" t="s">
@@ -3252,11 +3254,11 @@
         <v>DEV</v>
       </c>
       <c r="X31" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 66714, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 81648, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z31" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Gerardo' AND [P].[LastName] = 'Barbitta' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3275,11 +3277,11 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Giovanina</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Chirione</v>
       </c>
       <c r="K32" s="2">
@@ -3289,11 +3291,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Giovanina_Chirione.JPG</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Chirione</v>
       </c>
       <c r="Q32" s="2" t="s">
@@ -3310,11 +3312,11 @@
         <v>DEV</v>
       </c>
       <c r="X32" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 36794, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 20662, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z32" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Giovanina' AND [P].[LastName] = 'Chirione' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3333,11 +3335,11 @@
         <v>7</v>
       </c>
       <c r="F33" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hernán</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Rumbo</v>
       </c>
       <c r="K33" s="2">
@@ -3347,11 +3349,11 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Hernan_Rumbo.JPG</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Rumbo</v>
       </c>
       <c r="Q33" s="2" t="s">
@@ -3368,11 +3370,11 @@
         <v>TST</v>
       </c>
       <c r="X33" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 98098, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 82701, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z33" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Hernán' AND [P].[LastName] = 'Rumbo' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -3391,11 +3393,11 @@
         <v>8</v>
       </c>
       <c r="F34" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Horacio</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Blanco</v>
       </c>
       <c r="K34" s="2">
@@ -3405,11 +3407,11 @@
         <v>0</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Horacio_Blanco.JPG</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Blanco</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -3426,11 +3428,11 @@
         <v>DEV</v>
       </c>
       <c r="X34" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 51341, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 4683, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Horacio' AND [P].[LastName] = 'Blanco' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3449,11 +3451,11 @@
         <v>5</v>
       </c>
       <c r="F35" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hugo</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Ocampo</v>
       </c>
       <c r="K35" s="2">
@@ -3463,11 +3465,11 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Hugo_Ocampo.JPG</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Ocampo</v>
       </c>
       <c r="Q35" s="2" t="s">
@@ -3484,11 +3486,11 @@
         <v>DEV</v>
       </c>
       <c r="X35" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 25934, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 34939, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z35" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Hugo' AND [P].[LastName] = 'Ocampo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3507,11 +3509,11 @@
         <v>8</v>
       </c>
       <c r="F36" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Assandri</v>
       </c>
       <c r="K36" s="2">
@@ -3521,11 +3523,11 @@
         <v>0</v>
       </c>
       <c r="N36" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Ignacio_Assandri.JPG</v>
       </c>
       <c r="O36" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Assandri</v>
       </c>
       <c r="Q36" s="2" t="s">
@@ -3542,11 +3544,11 @@
         <v>DEV</v>
       </c>
       <c r="X36" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 77090, 0 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 82147, 0 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z36" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Assandri' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3565,11 +3567,11 @@
         <v>8</v>
       </c>
       <c r="F37" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Loureiro</v>
       </c>
       <c r="K37" s="2">
@@ -3579,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="N37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Ignacio_Loureiro.JPG</v>
       </c>
       <c r="O37" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Loureiro</v>
       </c>
       <c r="Q37" s="2" t="s">
@@ -3600,11 +3602,11 @@
         <v>TST</v>
       </c>
       <c r="X37" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 1696, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 50347, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z37" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Loureiro' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -3623,11 +3625,11 @@
         <v>8</v>
       </c>
       <c r="F38" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Secco</v>
       </c>
       <c r="K38" s="2">
@@ -3637,11 +3639,11 @@
         <v>0</v>
       </c>
       <c r="N38" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Ignacio_Secco.jpeg</v>
       </c>
       <c r="O38" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Secco</v>
       </c>
       <c r="Q38" s="2" t="s">
@@ -3658,11 +3660,11 @@
         <v>TST</v>
       </c>
       <c r="X38" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 25747, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 75644, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z38" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Secco' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -3681,11 +3683,11 @@
         <v>7</v>
       </c>
       <c r="F39" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Javier</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Barrios</v>
       </c>
       <c r="K39" s="2">
@@ -3695,11 +3697,11 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Javier_Barrios.JPG</v>
       </c>
       <c r="O39" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Barrios</v>
       </c>
       <c r="Q39" s="2" t="s">
@@ -3716,11 +3718,11 @@
         <v>DEV</v>
       </c>
       <c r="X39" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 239, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 15876, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z39" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Javier' AND [P].[LastName] = 'Barrios' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3739,11 +3741,11 @@
         <v>7</v>
       </c>
       <c r="F40" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Javier</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Calero</v>
       </c>
       <c r="K40" s="2">
@@ -3753,11 +3755,11 @@
         <v>0</v>
       </c>
       <c r="N40" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Javier_Calero.JPG</v>
       </c>
       <c r="O40" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Calero</v>
       </c>
       <c r="Q40" s="2" t="s">
@@ -3774,11 +3776,11 @@
         <v>DEV</v>
       </c>
       <c r="X40" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 77898, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 42141, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z40" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Javier' AND [P].[LastName] = 'Calero' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3797,11 +3799,11 @@
         <v>7</v>
       </c>
       <c r="F41" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Jimena</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Irigaray</v>
       </c>
       <c r="K41" s="2">
@@ -3811,11 +3813,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Jimena_Irigaray.JPG</v>
       </c>
       <c r="O41" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Irigaray</v>
       </c>
       <c r="Q41" s="2" t="s">
@@ -3832,11 +3834,11 @@
         <v>ADMIN</v>
       </c>
       <c r="X41" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 49876, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 72799, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z41" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Jimena' AND [P].[LastName] = 'Irigaray' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
@@ -3852,11 +3854,11 @@
         <v>6</v>
       </c>
       <c r="F42" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Jorge</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Jova</v>
       </c>
       <c r="K42" s="2">
@@ -3866,11 +3868,11 @@
         <v>0</v>
       </c>
       <c r="N42" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Jorge</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Jova</v>
       </c>
       <c r="Q42" s="2" t="s">
@@ -3887,11 +3889,11 @@
         <v>DEV</v>
       </c>
       <c r="X42" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 69202, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 39948, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z42" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Jorge' AND [P].[LastName] = 'Jova' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -3910,11 +3912,11 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Aguerre</v>
       </c>
       <c r="K43" s="2">
@@ -3924,11 +3926,11 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Juan_Aguerre.JPG</v>
       </c>
       <c r="O43" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Aguerre</v>
       </c>
       <c r="Q43" s="2" t="s">
@@ -3945,11 +3947,11 @@
         <v>TST</v>
       </c>
       <c r="X43" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 87066, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 75544, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z43" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan' AND [P].[LastName] = 'Aguerre' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -3968,11 +3970,11 @@
         <v>5</v>
       </c>
       <c r="F44" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Estrada</v>
       </c>
       <c r="K44" s="2">
@@ -3982,11 +3984,11 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Juan_Estrada.JPG</v>
       </c>
       <c r="O44" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Estrada</v>
       </c>
       <c r="Q44" s="2" t="s">
@@ -4003,11 +4005,11 @@
         <v>PM</v>
       </c>
       <c r="X44" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 81543, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 37454, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z44" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan' AND [P].[LastName] = 'Estrada' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -4023,11 +4025,11 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Manuel Fagundez</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -4040,11 +4042,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Juan</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Fagundez</v>
       </c>
       <c r="Q45" s="2" t="s">
@@ -4061,11 +4063,11 @@
         <v>SRV</v>
       </c>
       <c r="X45" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 73551, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 91214, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z45" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan Manuel' AND [P].[LastName] = 'Fagundez' AND [PR].[Code] = 'SRV'</v>
       </c>
     </row>
@@ -4084,11 +4086,11 @@
         <v>9</v>
       </c>
       <c r="F46" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Leonardo</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Mendizabal</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -4104,11 +4106,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Leonardo_Mendizabal.jpg</v>
       </c>
       <c r="O46" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Mendizabal</v>
       </c>
       <c r="Q46" s="2" t="s">
@@ -4125,11 +4127,11 @@
         <v>DEV</v>
       </c>
       <c r="X46" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 84765, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 52318, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z46" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Leonardo' AND [P].[LastName] = 'Mendizabal' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -4148,11 +4150,11 @@
         <v>8</v>
       </c>
       <c r="F47" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Luciano</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Deluca</v>
       </c>
       <c r="K47" s="2">
@@ -4162,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Luciano_Deluca.JPG</v>
       </c>
       <c r="O47" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Deluca</v>
       </c>
       <c r="Q47" s="2" t="s">
@@ -4183,11 +4185,11 @@
         <v>PM</v>
       </c>
       <c r="X47" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 92021, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 15298, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z47" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Luciano' AND [P].[LastName] = 'Deluca' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -4206,11 +4208,11 @@
         <v>8</v>
       </c>
       <c r="F48" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Malvina</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Jaume</v>
       </c>
       <c r="K48" s="2">
@@ -4220,11 +4222,11 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Malvina_Jaume.JPG</v>
       </c>
       <c r="O48" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Jaume</v>
       </c>
       <c r="Q48" s="2" t="s">
@@ -4241,11 +4243,11 @@
         <v>TST</v>
       </c>
       <c r="X48" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 72359, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 28450, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z48" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Malvina' AND [P].[LastName] = 'Jaume' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -4264,11 +4266,11 @@
         <v>8</v>
       </c>
       <c r="F49" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Marcelo</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Zepedeo</v>
       </c>
       <c r="K49" s="2">
@@ -4278,11 +4280,11 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Marcelo_Zepedeo.JPG</v>
       </c>
       <c r="O49" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Zepedeo</v>
       </c>
       <c r="Q49" s="2" t="s">
@@ -4299,11 +4301,11 @@
         <v>DEV</v>
       </c>
       <c r="X49" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 23845, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 7653, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z49" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marcelo' AND [P].[LastName] = 'Zepedeo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -4322,11 +4324,11 @@
         <v>7</v>
       </c>
       <c r="F50" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Marcos</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Guimaraes</v>
       </c>
       <c r="K50" s="2">
@@ -4336,11 +4338,11 @@
         <v>0</v>
       </c>
       <c r="N50" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Marcos_Guimaraes.JPG</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Guimaraes</v>
       </c>
       <c r="Q50" s="2" t="s">
@@ -4357,11 +4359,11 @@
         <v>DEV</v>
       </c>
       <c r="X50" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 37237, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 78503, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z50" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marcos' AND [P].[LastName] = 'Guimaraes' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -4380,11 +4382,11 @@
         <v>6</v>
       </c>
       <c r="F51" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>María</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Julia Etcheverry</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -4397,11 +4399,11 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Maria_Etcheverry.jpg</v>
       </c>
       <c r="O51" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Etcheverry</v>
       </c>
       <c r="Q51" s="2" t="s">
@@ -4418,11 +4420,11 @@
         <v>ADMIN</v>
       </c>
       <c r="X51" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 92180, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 47514, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z51" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'María Julia' AND [P].[LastName] = 'Etcheverry' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
@@ -4441,11 +4443,11 @@
         <v>6</v>
       </c>
       <c r="F52" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>María</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Noel Mosqueira</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -4464,11 +4466,11 @@
         <v>0</v>
       </c>
       <c r="N52" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Maria_Mosqueira.JPG</v>
       </c>
       <c r="O52" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Mosqueira</v>
       </c>
       <c r="Q52" s="2" t="s">
@@ -4485,11 +4487,11 @@
         <v>ADMIN</v>
       </c>
       <c r="X52" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 9938, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 15332, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z52" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'María Noel' AND [P].[LastName] = 'Mosqueira' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
@@ -4508,11 +4510,11 @@
         <v>7</v>
       </c>
       <c r="F53" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Marlon</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>González</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -4528,11 +4530,11 @@
         <v>0</v>
       </c>
       <c r="N53" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Marlon_Gonzalez.jpg</v>
       </c>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>González</v>
       </c>
       <c r="Q53" s="2" t="s">
@@ -4549,11 +4551,11 @@
         <v>DEV</v>
       </c>
       <c r="X53" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 60318, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 73766, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z53" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marlon' AND [P].[LastName] = 'González' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -4572,11 +4574,11 @@
         <v>7</v>
       </c>
       <c r="F54" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Martín</v>
       </c>
       <c r="G54" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Acosta</v>
       </c>
       <c r="K54" s="2">
@@ -4586,11 +4588,11 @@
         <v>0</v>
       </c>
       <c r="N54" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Martin_Acosta.jpg</v>
       </c>
       <c r="O54" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Acosta</v>
       </c>
       <c r="Q54" s="2" t="s">
@@ -4607,11 +4609,11 @@
         <v>PM</v>
       </c>
       <c r="X54" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 76671, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 35624, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z54" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Martín' AND [P].[LastName] = 'Acosta' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -4630,11 +4632,11 @@
         <v>7</v>
       </c>
       <c r="F55" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Martin</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Caetano</v>
       </c>
       <c r="K55" s="2">
@@ -4644,11 +4646,11 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Martin_Caetano.JPG</v>
       </c>
       <c r="O55" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Caetano</v>
       </c>
       <c r="Q55" s="2" t="s">
@@ -4665,11 +4667,11 @@
         <v>DEV</v>
       </c>
       <c r="X55" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 49533, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 48483, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z55" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Martin' AND [P].[LastName] = 'Caetano' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -4688,11 +4690,11 @@
         <v>8</v>
       </c>
       <c r="F56" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Mathías</v>
       </c>
       <c r="G56" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Rodríguez</v>
       </c>
       <c r="K56" s="2">
@@ -4702,11 +4704,11 @@
         <v>0</v>
       </c>
       <c r="N56" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Mathias_Rodriguez.JPG</v>
       </c>
       <c r="O56" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Rodríguez</v>
       </c>
       <c r="Q56" s="2" t="s">
@@ -4723,11 +4725,11 @@
         <v>DEV</v>
       </c>
       <c r="X56" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 85700, 0 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 384, 0 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z56" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Mathías' AND [P].[LastName] = 'Rodríguez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -4746,11 +4748,11 @@
         <v>9</v>
       </c>
       <c r="F57" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Mauricio</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Mora</v>
       </c>
       <c r="K57" s="2">
@@ -4760,11 +4762,11 @@
         <v>0</v>
       </c>
       <c r="N57" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Mauricio_Mora.JPG</v>
       </c>
       <c r="O57" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Mora</v>
       </c>
       <c r="Q57" s="2" t="s">
@@ -4781,11 +4783,11 @@
         <v>DEV</v>
       </c>
       <c r="X57" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 70723, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 58785, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z57" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Mauricio' AND [P].[LastName] = 'Mora' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -4804,11 +4806,11 @@
         <v>8</v>
       </c>
       <c r="F58" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Nicolás</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Gómez</v>
       </c>
       <c r="K58" s="2">
@@ -4818,11 +4820,11 @@
         <v>1</v>
       </c>
       <c r="N58" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Nicolas_Gomez.jpg</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Gómez</v>
       </c>
       <c r="Q58" s="2" t="s">
@@ -4839,11 +4841,11 @@
         <v>TST</v>
       </c>
       <c r="X58" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 48164, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 39932, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z58" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolás' AND [P].[LastName] = 'Gómez' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -4862,11 +4864,11 @@
         <v>8</v>
       </c>
       <c r="F59" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Nicolás</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Lasarte</v>
       </c>
       <c r="K59" s="2">
@@ -4876,11 +4878,11 @@
         <v>0</v>
       </c>
       <c r="N59" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Nicolas_Lasarte.JPG</v>
       </c>
       <c r="O59" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Lasarte</v>
       </c>
       <c r="Q59" s="2" t="s">
@@ -4897,11 +4899,11 @@
         <v>DEV</v>
       </c>
       <c r="X59" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 65235, 0 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 36868, 0 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z59" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolás' AND [P].[LastName] = 'Lasarte' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -4920,11 +4922,11 @@
         <v>8</v>
       </c>
       <c r="F60" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Nicolas</v>
       </c>
       <c r="G60" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Mañay</v>
       </c>
       <c r="K60" s="2">
@@ -4934,11 +4936,11 @@
         <v>0</v>
       </c>
       <c r="N60" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Nicolas_Ma¤ay.jpg</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Mañay</v>
       </c>
       <c r="Q60" s="2" t="s">
@@ -4952,11 +4954,11 @@
         <v>TST</v>
       </c>
       <c r="X60" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 41801, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 2219, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z60" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolas' AND [P].[LastName] = 'Mañay' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -4975,11 +4977,11 @@
         <v>8</v>
       </c>
       <c r="F61" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Octavio</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Garbarino</v>
       </c>
       <c r="K61" s="2">
@@ -4989,11 +4991,11 @@
         <v>1</v>
       </c>
       <c r="N61" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Octavio_Garbarino.jpg</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Garbarino</v>
       </c>
       <c r="Q61" s="2" t="s">
@@ -5010,11 +5012,11 @@
         <v>DEV</v>
       </c>
       <c r="X61" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 49372, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 75945, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z61" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Octavio' AND [P].[LastName] = 'Garbarino' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5033,11 +5035,11 @@
         <v>6</v>
       </c>
       <c r="F62" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Cawen</v>
       </c>
       <c r="K62" s="2">
@@ -5047,11 +5049,11 @@
         <v>0</v>
       </c>
       <c r="N62" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Pablo_Cawen.JPG</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Cawen</v>
       </c>
       <c r="Q62" s="2" t="s">
@@ -5068,11 +5070,11 @@
         <v>DEV</v>
       </c>
       <c r="X62" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 10398, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 59721, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z62" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Cawen' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5091,11 +5093,11 @@
         <v>6</v>
       </c>
       <c r="F63" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Da Silva</v>
       </c>
       <c r="K63" s="2">
@@ -5105,11 +5107,11 @@
         <v>0</v>
       </c>
       <c r="N63" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Pablo_DaSilva.JPG</v>
       </c>
       <c r="O63" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Da Silva</v>
       </c>
       <c r="Q63" s="2" t="s">
@@ -5126,11 +5128,11 @@
         <v>TST</v>
       </c>
       <c r="X63" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 89404, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 25476, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z63" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Da Silva' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
@@ -5149,11 +5151,11 @@
         <v>6</v>
       </c>
       <c r="F64" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
       <c r="G64" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>García</v>
       </c>
       <c r="K64" s="2">
@@ -5163,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="N64" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Pablo_Garcia.JPG</v>
       </c>
       <c r="O64" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>García</v>
       </c>
       <c r="Q64" s="2" t="s">
@@ -5184,11 +5186,11 @@
         <v>DEV</v>
       </c>
       <c r="X64" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 69721, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 85095, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z64" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'García' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5204,11 +5206,11 @@
         <v>6</v>
       </c>
       <c r="F65" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
       <c r="G65" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Gus</v>
       </c>
       <c r="K65" s="2">
@@ -5218,11 +5220,11 @@
         <v>0</v>
       </c>
       <c r="N65" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Pablo</v>
       </c>
       <c r="O65" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Gus</v>
       </c>
       <c r="Q65" s="2" t="s">
@@ -5239,11 +5241,11 @@
         <v>SRV</v>
       </c>
       <c r="X65" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 8466, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 38479, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z65" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Gus' AND [PR].[Code] = 'SRV'</v>
       </c>
     </row>
@@ -5262,11 +5264,11 @@
         <v>6</v>
       </c>
       <c r="F66" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Queirolo</v>
       </c>
       <c r="K66" s="2">
@@ -5276,11 +5278,11 @@
         <v>0</v>
       </c>
       <c r="N66" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Pablo_Queirolo.jpg</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Queirolo</v>
       </c>
       <c r="Q66" s="2" t="s">
@@ -5297,11 +5299,11 @@
         <v>DEV</v>
       </c>
       <c r="X66" s="2" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 52498, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ref="X66:X90" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q66, "', '", R66, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L66, " , ", IF(C66="", "NULL", CONCATENATE("'", B66,"/", C66, "'")),", ", K66, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B66,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 15121, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z66" s="2" t="str">
-        <f t="shared" ref="Z66:Z85" si="23">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q66, "' AND [P].[LastName] = '", R66, "' AND [PR].[Code] = '", V66, "'")</f>
+        <f t="shared" ref="Z66:Z85" si="24">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q66, "' AND [P].[LastName] = '", R66, "' AND [PR].[Code] = '", V66, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Queirolo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5320,11 +5322,11 @@
         <v>6</v>
       </c>
       <c r="F67" s="2" t="str">
-        <f t="shared" ref="F67:F85" si="24">LEFT(A67, E67-1)</f>
+        <f t="shared" ref="F67:F85" si="25">LEFT(A67, E67-1)</f>
         <v>Pablo</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f t="shared" ref="G67:G85" si="25">RIGHT(A67,LEN(A67) - E67)</f>
+        <f t="shared" ref="G67:G85" si="26">RIGHT(A67,LEN(A67) - E67)</f>
         <v>Uriarte</v>
       </c>
       <c r="K67" s="2">
@@ -5334,11 +5336,11 @@
         <v>0</v>
       </c>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N85" si="26">IF(C67="", F67, C67)</f>
+        <f t="shared" ref="N67:N85" si="27">IF(C67="", F67, C67)</f>
         <v>Pablo_Uriarte.jpg</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O85" si="27">IF(J67="", G67, J67)</f>
+        <f t="shared" ref="O67:O85" si="28">IF(J67="", G67, J67)</f>
         <v>Uriarte</v>
       </c>
       <c r="Q67" s="2" t="s">
@@ -5355,11 +5357,11 @@
         <v>DEV</v>
       </c>
       <c r="X67" s="2" t="str">
-        <f t="shared" ref="X67:X90" ca="1" si="28">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, '", Q67, "', '", R67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", K67, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 98396, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 70906, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z67" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Uriarte' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5378,11 +5380,11 @@
         <v>6</v>
       </c>
       <c r="F68" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Pedro</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Minetti</v>
       </c>
       <c r="K68" s="2">
@@ -5392,11 +5394,11 @@
         <v>0</v>
       </c>
       <c r="N68" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Pedro_Minetti.jpg</v>
       </c>
       <c r="O68" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Minetti</v>
       </c>
       <c r="Q68" s="2" t="s">
@@ -5413,11 +5415,11 @@
         <v>ADMIN</v>
       </c>
       <c r="X68" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 93008, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 14454, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z68" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pedro' AND [P].[LastName] = 'Minetti' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
@@ -5436,11 +5438,11 @@
         <v>6</v>
       </c>
       <c r="F69" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Pedro</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Tournier</v>
       </c>
       <c r="K69" s="2">
@@ -5450,11 +5452,11 @@
         <v>0</v>
       </c>
       <c r="N69" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Pedro_Tournier.JPG</v>
       </c>
       <c r="O69" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Tournier</v>
       </c>
       <c r="Q69" s="2" t="s">
@@ -5471,11 +5473,11 @@
         <v>DEV</v>
       </c>
       <c r="X69" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 44265, 0 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 77784, 0 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z69" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pedro' AND [P].[LastName] = 'Tournier' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5494,11 +5496,11 @@
         <v>7</v>
       </c>
       <c r="F70" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Raidel</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Gonzalez</v>
       </c>
       <c r="K70" s="2">
@@ -5508,11 +5510,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Raidel_Gonzalez.jpeg</v>
       </c>
       <c r="O70" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Gonzalez</v>
       </c>
       <c r="Q70" s="2" t="s">
@@ -5529,11 +5531,11 @@
         <v>DEV</v>
       </c>
       <c r="X70" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 94318, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 53300, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z70" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Raidel' AND [P].[LastName] = 'Gonzalez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5552,11 +5554,11 @@
         <v>5</v>
       </c>
       <c r="F71" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Raúl</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Fossemale</v>
       </c>
       <c r="K71" s="2">
@@ -5566,11 +5568,11 @@
         <v>0</v>
       </c>
       <c r="N71" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Raul_Fossemale.JPG</v>
       </c>
       <c r="O71" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Fossemale</v>
       </c>
       <c r="Q71" s="2" t="s">
@@ -5587,11 +5589,11 @@
         <v>DEV</v>
       </c>
       <c r="X71" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 60340, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 47820, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z71" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Raúl' AND [P].[LastName] = 'Fossemale' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5610,11 +5612,11 @@
         <v>8</v>
       </c>
       <c r="F72" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Roberto</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Assandri</v>
       </c>
       <c r="K72" s="2">
@@ -5624,11 +5626,11 @@
         <v>0</v>
       </c>
       <c r="N72" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Roberto_Assandri.JPG</v>
       </c>
       <c r="O72" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Assandri</v>
       </c>
       <c r="Q72" s="2" t="s">
@@ -5645,11 +5647,11 @@
         <v>DEV</v>
       </c>
       <c r="X72" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 85302, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 50147, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z72" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Roberto' AND [P].[LastName] = 'Assandri' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5668,11 +5670,11 @@
         <v>8</v>
       </c>
       <c r="F73" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Rodrigo</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Alvarez</v>
       </c>
       <c r="K73" s="2">
@@ -5682,11 +5684,11 @@
         <v>0</v>
       </c>
       <c r="N73" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Rodrigo_Alvarez.JPG</v>
       </c>
       <c r="O73" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Alvarez</v>
       </c>
       <c r="Q73" s="2" t="s">
@@ -5703,11 +5705,11 @@
         <v>DEV</v>
       </c>
       <c r="X73" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 518, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 2672, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z73" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Rodrigo' AND [P].[LastName] = 'Alvarez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5726,11 +5728,11 @@
         <v>8</v>
       </c>
       <c r="F74" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Rodrigo</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Valdez</v>
       </c>
       <c r="K74" s="2">
@@ -5740,11 +5742,11 @@
         <v>0</v>
       </c>
       <c r="N74" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Rodrigo_Valdez.JPG</v>
       </c>
       <c r="O74" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Valdez</v>
       </c>
       <c r="Q74" s="2" t="s">
@@ -5761,11 +5763,11 @@
         <v>DEV</v>
       </c>
       <c r="X74" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 76887, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 43460, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z74" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Rodrigo' AND [P].[LastName] = 'Valdez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -5784,11 +5786,11 @@
         <v>6</v>
       </c>
       <c r="F75" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Ruben</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Bracco</v>
       </c>
       <c r="K75" s="2">
@@ -5798,11 +5800,11 @@
         <v>0</v>
       </c>
       <c r="N75" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Ruben_Bracco.JPG</v>
       </c>
       <c r="O75" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Bracco</v>
       </c>
       <c r="Q75" s="2" t="s">
@@ -5819,11 +5821,11 @@
         <v>PM</v>
       </c>
       <c r="X75" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 23881, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 90280, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z75" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ruben' AND [P].[LastName] = 'Bracco' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -5842,11 +5844,11 @@
         <v>9</v>
       </c>
       <c r="F76" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Santiago</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Ferreiro</v>
       </c>
       <c r="K76" s="2">
@@ -5856,11 +5858,11 @@
         <v>0</v>
       </c>
       <c r="N76" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Santiago_Ferreiro.jpg</v>
       </c>
       <c r="O76" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Ferreiro</v>
       </c>
       <c r="Q76" s="2" t="s">
@@ -5877,11 +5879,11 @@
         <v>PM</v>
       </c>
       <c r="X76" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 35442, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 33755, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z76" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Santiago' AND [P].[LastName] = 'Ferreiro' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -5900,11 +5902,11 @@
         <v>10</v>
       </c>
       <c r="F77" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Sebastian</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Queirolo</v>
       </c>
       <c r="K77" s="2">
@@ -5914,11 +5916,11 @@
         <v>0</v>
       </c>
       <c r="N77" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Sebastian_Queirolo.JPG</v>
       </c>
       <c r="O77" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Queirolo</v>
       </c>
       <c r="Q77" s="2" t="s">
@@ -5935,11 +5937,11 @@
         <v>PM</v>
       </c>
       <c r="X77" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 52601, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 4031, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z77" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Sebastian' AND [P].[LastName] = 'Queirolo' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -5958,11 +5960,11 @@
         <v>7</v>
       </c>
       <c r="F78" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Silvia</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Derkoyorikian</v>
       </c>
       <c r="K78" s="2">
@@ -5972,11 +5974,11 @@
         <v>0</v>
       </c>
       <c r="N78" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Silvia_Derkoyorikian.JPG</v>
       </c>
       <c r="O78" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Derkoyorikian</v>
       </c>
       <c r="Q78" s="2" t="s">
@@ -5993,11 +5995,11 @@
         <v>DBA</v>
       </c>
       <c r="X78" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 72460, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 80487, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z78" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Silvia' AND [P].[LastName] = 'Derkoyorikian' AND [PR].[Code] = 'DBA'</v>
       </c>
     </row>
@@ -6016,11 +6018,11 @@
         <v>9</v>
       </c>
       <c r="F79" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Valentín</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Gadola</v>
       </c>
       <c r="K79" s="2">
@@ -6030,11 +6032,11 @@
         <v>0</v>
       </c>
       <c r="N79" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Valentin_Gadola.jpg</v>
       </c>
       <c r="O79" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Gadola</v>
       </c>
       <c r="Q79" s="2" t="s">
@@ -6051,11 +6053,11 @@
         <v>PM</v>
       </c>
       <c r="X79" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 48236, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 64619, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z79" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Valentín' AND [P].[LastName] = 'Gadola' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
@@ -6074,11 +6076,11 @@
         <v>8</v>
       </c>
       <c r="F80" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Valeria</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Rotunno</v>
       </c>
       <c r="K80" s="2">
@@ -6088,11 +6090,11 @@
         <v>0</v>
       </c>
       <c r="N80" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Valeria_Rotunno.JPG</v>
       </c>
       <c r="O80" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Rotunno</v>
       </c>
       <c r="Q80" s="2" t="s">
@@ -6109,11 +6111,11 @@
         <v>ADMIN</v>
       </c>
       <c r="X80" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 78000, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 40505, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z80" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Valeria' AND [P].[LastName] = 'Rotunno' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
@@ -6132,11 +6134,11 @@
         <v>9</v>
       </c>
       <c r="F81" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Victoria</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Andrada</v>
       </c>
       <c r="K81" s="2">
@@ -6146,11 +6148,11 @@
         <v>0</v>
       </c>
       <c r="N81" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Victoria_Andrada.JPG</v>
       </c>
       <c r="O81" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Andrada</v>
       </c>
       <c r="Q81" s="2" t="s">
@@ -6167,11 +6169,11 @@
         <v>DEV</v>
       </c>
       <c r="X81" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 70036, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 77064, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z81" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Victoria' AND [P].[LastName] = 'Andrada' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -6190,11 +6192,11 @@
         <v>8</v>
       </c>
       <c r="F82" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>William</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Claro</v>
       </c>
       <c r="K82" s="2">
@@ -6204,11 +6206,11 @@
         <v>0</v>
       </c>
       <c r="N82" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>William_Claro.JPG</v>
       </c>
       <c r="O82" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Claro</v>
       </c>
       <c r="Q82" s="2" t="s">
@@ -6225,11 +6227,11 @@
         <v>DEV</v>
       </c>
       <c r="X82" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 30656, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 90216, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z82" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'William' AND [P].[LastName] = 'Claro' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -6248,11 +6250,11 @@
         <v>5</v>
       </c>
       <c r="F83" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Yago</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Auza</v>
       </c>
       <c r="K83" s="2">
@@ -6262,11 +6264,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Yago_Auza.jpg</v>
       </c>
       <c r="O83" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Auza</v>
       </c>
       <c r="Q83" s="2" t="s">
@@ -6283,11 +6285,11 @@
         <v>DEV</v>
       </c>
       <c r="X83" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 18563, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 77351, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z83" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yago' AND [P].[LastName] = 'Auza' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -6306,11 +6308,11 @@
         <v>7</v>
       </c>
       <c r="F84" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Yanara</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Valdes</v>
       </c>
       <c r="K84" s="2">
@@ -6320,11 +6322,11 @@
         <v>0</v>
       </c>
       <c r="N84" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Yanara_Valdes.jpg</v>
       </c>
       <c r="O84" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Valdes</v>
       </c>
       <c r="Q84" s="2" t="s">
@@ -6341,11 +6343,11 @@
         <v>DEV</v>
       </c>
       <c r="X84" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 7028, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 40631, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z84" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yanara' AND [P].[LastName] = 'Valdes' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
@@ -6364,11 +6366,11 @@
         <v>5</v>
       </c>
       <c r="F85" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Yony</v>
       </c>
       <c r="G85" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Gómez</v>
       </c>
       <c r="K85" s="2">
@@ -6378,11 +6380,11 @@
         <v>0</v>
       </c>
       <c r="N85" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Yony_Gomez.JPG</v>
       </c>
       <c r="O85" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Gómez</v>
       </c>
       <c r="Q85" s="2" t="s">
@@ -6399,11 +6401,11 @@
         <v>UX</v>
       </c>
       <c r="X85" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 51406, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 1532, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Z85" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yony' AND [P].[LastName] = 'Gómez' AND [PR].[Code] = 'UX'</v>
       </c>
     </row>
@@ -6455,8 +6457,8 @@
         <v>PM</v>
       </c>
       <c r="X86" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 98852, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 47984, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Z86" s="2" t="str">
         <f t="shared" ref="Z86:Z90" si="36">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q86, "' AND [P].[LastName] = '", R86, "' AND [PR].[Code] = '", V86, "'")</f>
@@ -6511,8 +6513,8 @@
         <v>DEV</v>
       </c>
       <c r="X87" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 51300, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 63992, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Z87" s="2" t="str">
         <f t="shared" si="36"/>
@@ -6567,8 +6569,8 @@
         <v>TST</v>
       </c>
       <c r="X88" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 2390, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 98104, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Z88" s="2" t="str">
         <f t="shared" si="36"/>
@@ -6623,8 +6625,8 @@
         <v>DEV</v>
       </c>
       <c r="X89" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 63203, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 59887, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Z89" s="2" t="str">
         <f t="shared" si="36"/>
@@ -6679,8 +6681,8 @@
         <v>DEV</v>
       </c>
       <c r="X90" s="2" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActve]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 9909, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 46319, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Z90" s="2" t="str">
         <f t="shared" si="36"/>
@@ -6706,12 +6708,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -6920,6 +6916,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -6929,23 +6931,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6962,4 +6947,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7500279C-6539-4B22-9D67-07551AC49FEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944A5B7-B958-405E-A578-499D64CA513C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Z$91</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="336">
   <si>
     <t>Pedro Minetti</t>
   </si>
@@ -1021,13 +1024,31 @@
   </si>
   <si>
     <t>Belen</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Delivery Unit</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>InBench</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1071,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1060,12 +1089,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1073,59 +1102,45 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1442,5256 +1457,6204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6A38B-9221-46B4-8760-38B60FB5A75C}">
-  <dimension ref="A1:Z90"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="10.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.42578125" style="2"/>
-    <col min="17" max="17" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="10"/>
+    <col min="5" max="5" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1"/>
+    <col min="24" max="24" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1"/>
+    <col min="26" max="26" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="2">
-        <f t="shared" ref="E1" si="0">FIND(" ",A1)</f>
+      <c r="D2" s="8"/>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2" si="0">FIND(" ",A2)</f>
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="str">
-        <f t="shared" ref="F1" si="1">LEFT(A1, E1-1)</f>
+      <c r="F2" s="4" t="str">
+        <f t="shared" ref="F2" si="1">LEFT(A2, E2-1)</f>
         <v>Adrián</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <f t="shared" ref="G1" si="2">RIGHT(A1,LEN(A1) - E1)</f>
+      <c r="G2" s="4" t="str">
+        <f t="shared" ref="G2" si="2">RIGHT(A2,LEN(A2) - E2)</f>
         <v>Belen</v>
       </c>
-      <c r="K1" s="2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="N1" s="2" t="str">
-        <f t="shared" ref="N1" si="3">IF(C1="", F1, C1)</f>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="str">
+        <f t="shared" ref="N2" si="3">IF(C2="", F2, C2)</f>
         <v>Adrian_Belen.JPG</v>
       </c>
-      <c r="O1" s="2" t="str">
-        <f t="shared" ref="O1" si="4">IF(J1="", G1, J1)</f>
+      <c r="O2" s="4" t="str">
+        <f t="shared" ref="O2" si="4">IF(J2="", G2, J2)</f>
         <v>Belen</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="2" t="str">
-        <f t="shared" ref="V1" si="5">IF(T1="", "TST", T1)</f>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="str">
+        <f t="shared" ref="V2" si="5">IF(T2="", "TST", T2)</f>
         <v>DEV</v>
       </c>
-      <c r="X1" s="2" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q1, "', '", R1, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L1, " , ", IF(C1="", "NULL", CONCATENATE("'", B1,"/", C1, "'")),", ", K1, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B1,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 68341, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z1" s="2" t="str">
-        <f t="shared" ref="Z1" si="6">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q1, "' AND [P].[LastName] = '", R1, "' AND [PR].[Code] = '", V1, "'")</f>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="str">
+        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 74754, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="str">
+        <f t="shared" ref="Z2" si="6">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q2, "' AND [P].[LastName] = '", R2, "' AND [PR].[Code] = '", V2, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Belen' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E33" si="7">FIND(" ",A2)</f>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E34" si="7">FIND(" ",A3)</f>
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2" si="8">LEFT(A2, E2-1)</f>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3" si="8">LEFT(A3, E3-1)</f>
         <v>Adrián</v>
       </c>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2" si="9">RIGHT(A2,LEN(A2) - E2)</f>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3" si="9">RIGHT(A3,LEN(A3) - E3)</f>
         <v>Lopez</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="str">
-        <f t="shared" ref="N2" si="10">IF(C2="", F2, C2)</f>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3" si="10">IF(C3="", F3, C3)</f>
         <v>Adrian_Lopez.JPG</v>
       </c>
-      <c r="O2" s="2" t="str">
-        <f t="shared" ref="O2" si="11">IF(J2="", G2, J2)</f>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3" si="11">IF(J3="", G3, J3)</f>
         <v>Lopez</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V2" s="2" t="str">
-        <f t="shared" ref="V2:V33" si="12">IF(T2="", "TST", T2)</f>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V34" si="12">IF(T3="", "TST", T3)</f>
         <v>DEV</v>
       </c>
-      <c r="X2" s="2" t="str">
-        <f t="shared" ref="X2:X65" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 4798, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z2" s="2" t="str">
-        <f t="shared" ref="Z2:Z65" si="14">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q2, "' AND [P].[LastName] = '", R2, "' AND [PR].[Code] = '", V2, "'")</f>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="str">
+        <f t="shared" ref="X3:X66" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q3, "', '", R3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", K3, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 85217, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4" t="str">
+        <f t="shared" ref="Z3:Z66" si="14">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q3, "' AND [P].[LastName] = '", R3, "' AND [PR].[Code] = '", V3, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Lopez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D4" s="8"/>
+      <c r="E4" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F66" si="15">LEFT(A3, E3-1)</f>
+      <c r="F4" s="4" t="str">
+        <f t="shared" ref="F4:F67" si="15">LEFT(A4, E4-1)</f>
         <v>Alberto</v>
       </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G66" si="16">RIGHT(A3,LEN(A3) - E3)</f>
+      <c r="G4" s="4" t="str">
+        <f t="shared" ref="G4:G67" si="16">RIGHT(A4,LEN(A4) - E4)</f>
         <v>Da Cunha</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="17">IF(C3="", F3, C3)</f>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="str">
+        <f t="shared" ref="N4:N67" si="17">IF(C4="", F4, C4)</f>
         <v>Alberto_Dacunha.JPG</v>
       </c>
-      <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="18">IF(J3="", G3, J3)</f>
+      <c r="O4" s="4" t="str">
+        <f t="shared" ref="O4:O67" si="18">IF(J4="", G4, J4)</f>
         <v>Da Cunha</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V3" s="2" t="str">
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X3" s="2" t="str">
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 56340, 0 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z3" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 53034, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alberto' AND [P].[LastName] = 'Da Cunha' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D5" s="8"/>
+      <c r="E5" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F5" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alberto</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G5" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Hernández</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alberto_Hernandez.jpg</v>
       </c>
-      <c r="O4" s="2" t="str">
+      <c r="O5" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Hernández</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="V4" s="2" t="str">
+      <c r="S5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="X4" s="2" t="str">
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 52437, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z4" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 88182, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alberto' AND [P].[LastName] = 'Hernández' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="2">
+      <c r="D6" s="8"/>
+      <c r="E6" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F6" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alejandro</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G6" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Capece</v>
       </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alejandro Capece.JPG</v>
       </c>
-      <c r="O5" s="2" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Capece</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V5" s="2" t="str">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X5" s="2" t="str">
+      <c r="W6" s="4"/>
+      <c r="X6" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 95086, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z5" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 75600, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alejandro' AND [P].[LastName] = 'Capece' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D7" s="8"/>
+      <c r="E7" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F7" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alejandro</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G7" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Latchinian</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="str">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alejandro_Latchinian.JPG</v>
       </c>
-      <c r="O6" s="2" t="str">
+      <c r="O7" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Latchinian</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V6" s="2" t="str">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X6" s="2" t="str">
+      <c r="W7" s="4"/>
+      <c r="X7" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 97788, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z6" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 86203, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alejandro' AND [P].[LastName] = 'Latchinian' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D8" s="8"/>
+      <c r="E8" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F8" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alfonso</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G8" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Rodriguez</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="str">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alfonso_Rodriguez.jpg</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O8" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Rodriguez</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="W8" s="4"/>
+      <c r="X8" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 42423, 0 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z7" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 15204, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alfonso' AND [P].[LastName] = 'Rodriguez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D9" s="8"/>
+      <c r="E9" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F9" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alvaro</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G9" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Restuccia</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="str">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alvaro_Restuccia.jpeg</v>
       </c>
-      <c r="O8" s="2" t="str">
+      <c r="O9" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Restuccia</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V8" s="2" t="str">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4" t="str">
         <f t="shared" si="12"/>
         <v>PM</v>
       </c>
-      <c r="X8" s="2" t="str">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 89751, 0 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z8" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 90306, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alvaro' AND [P].[LastName] = 'Restuccia' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D10" s="8"/>
+      <c r="E10" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F10" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G10" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Bores</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="2" t="str">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Andres_Bores.JPG</v>
       </c>
-      <c r="O9" s="2" t="str">
+      <c r="O10" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Bores</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X9" s="2" t="str">
+      <c r="W10" s="4"/>
+      <c r="X10" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 17827, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z9" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 65731, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Bores' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D11" s="8"/>
+      <c r="E11" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F11" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G11" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Maedo</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="str">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Andres_Maedo.JPG</v>
       </c>
-      <c r="O10" s="2" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Maedo</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="S11" s="4"/>
+      <c r="T11" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="X10" s="2" t="str">
+      <c r="W11" s="4"/>
+      <c r="X11" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 56939, 0 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z10" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 93359, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Maedo' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D12" s="8"/>
+      <c r="E12" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F12" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G12" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Nieves</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="2" t="str">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Andres_Nieves.JPG</v>
       </c>
-      <c r="O11" s="2" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Nieves</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X11" s="2" t="str">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 71870, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z11" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 61053, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Nieves' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D13" s="8"/>
+      <c r="E13" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F13" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Aniela</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G13" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Amy</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="2" t="str">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Aniela_Amy.JPG</v>
       </c>
-      <c r="O12" s="2" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Amy</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X12" s="2" t="str">
+      <c r="W13" s="4"/>
+      <c r="X13" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 84118, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z12" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 21548, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Aniela' AND [P].[LastName] = 'Amy' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E13" s="2">
+      <c r="D14" s="8"/>
+      <c r="E14" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F14" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ariel</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G14" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Sisro</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="2" t="str">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Ariel_Sisro.JPG</v>
       </c>
-      <c r="O13" s="2" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Sisro</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="S14" s="4"/>
+      <c r="T14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V13" s="2" t="str">
+      <c r="U14" s="4"/>
+      <c r="V14" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X13" s="2" t="str">
+      <c r="W14" s="4"/>
+      <c r="X14" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 98616, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z13" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 63792, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ariel' AND [P].[LastName] = 'Sisro' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="2">
+      <c r="D15" s="8"/>
+      <c r="E15" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F15" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Beerbal</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G15" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Abdulkhader</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="str">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Beerbal_Abdulkhader.JPG</v>
       </c>
-      <c r="O14" s="2" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Abdulkhader</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V14" s="2" t="str">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="X14" s="2" t="str">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 41726, 0 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z14" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 99781, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Beerbal' AND [P].[LastName] = 'Abdulkhader' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="2">
+      <c r="D16" s="8"/>
+      <c r="E16" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F16" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Bruno</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G16" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Candia</v>
       </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2" t="str">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Bruno_Candia.JPG</v>
       </c>
-      <c r="O15" s="2" t="str">
+      <c r="O16" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Candia</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X15" s="2" t="str">
+      <c r="W16" s="4"/>
+      <c r="X16" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 46324, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z15" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 30382, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Bruno' AND [P].[LastName] = 'Candia' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D17" s="8"/>
+      <c r="E17" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F17" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Camila</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="G17" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Roji</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="N16" s="2" t="str">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Camila_Roji.jpg</v>
       </c>
-      <c r="O16" s="2" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Roji</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R17" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V16" s="2" t="str">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X16" s="2" t="str">
+      <c r="W17" s="4"/>
+      <c r="X17" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 77764, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z16" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 29333, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camila' AND [P].[LastName] = 'Roji' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="2">
+      <c r="D18" s="8"/>
+      <c r="E18" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F17" s="2" t="str">
+      <c r="F18" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Camila</v>
       </c>
-      <c r="G17" s="2" t="str">
+      <c r="G18" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Sorio</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="2" t="str">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Camila_Sorio.jpg</v>
       </c>
-      <c r="O17" s="2" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Sorio</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V17" s="2" t="str">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4" t="str">
         <f t="shared" si="12"/>
         <v>ADMIN</v>
       </c>
-      <c r="X17" s="2" t="str">
+      <c r="W18" s="4"/>
+      <c r="X18" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 8515, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z17" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 38813, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camila' AND [P].[LastName] = 'Sorio' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="2">
+      <c r="D19" s="8"/>
+      <c r="E19" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="str">
+      <c r="F19" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Camilo</v>
       </c>
-      <c r="G18" s="2" t="str">
+      <c r="G19" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Gomez</v>
       </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="str">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Camilo_Gomez.jpeg</v>
       </c>
-      <c r="O18" s="2" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Gomez</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="S19" s="4"/>
+      <c r="T19" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V18" s="2" t="str">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X18" s="2" t="str">
+      <c r="W19" s="4"/>
+      <c r="X19" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 14247, 0 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z18" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 46084, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camilo' AND [P].[LastName] = 'Gomez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="2">
+      <c r="D20" s="8"/>
+      <c r="E20" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F19" s="2" t="str">
+      <c r="F20" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Damián</v>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="G20" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Pereira</v>
       </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="str">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Damian_Pereira.JPG</v>
       </c>
-      <c r="O19" s="2" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Pereira</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="S20" s="4"/>
+      <c r="T20" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V19" s="2" t="str">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="X19" s="2" t="str">
+      <c r="W20" s="4"/>
+      <c r="X20" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 43126, 0 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z19" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 40741, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Damián' AND [P].[LastName] = 'Pereira' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="2">
+      <c r="D21" s="8"/>
+      <c r="E21" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F20" s="2" t="str">
+      <c r="F21" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Daniel</v>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="G21" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Cabrera</v>
       </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="2" t="str">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Daniel_Cabrera.JPG</v>
       </c>
-      <c r="O20" s="2" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Cabrera</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V20" s="2" t="str">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4" t="str">
         <f t="shared" si="12"/>
         <v>PM</v>
       </c>
-      <c r="X20" s="2" t="str">
+      <c r="W21" s="4"/>
+      <c r="X21" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 24229, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z20" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 17434, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Daniel' AND [P].[LastName] = 'Cabrera' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E21" s="2">
+      <c r="D22" s="8"/>
+      <c r="E22" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F21" s="2" t="str">
+      <c r="F22" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Delia</v>
       </c>
-      <c r="G21" s="2" t="str">
+      <c r="G22" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Alvarez</v>
       </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="2" t="str">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Delia_Alvarez.jpg</v>
       </c>
-      <c r="O21" s="2" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Alvarez</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R22" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="T21" t="s">
+      <c r="S22" s="4"/>
+      <c r="T22" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V21" s="2" t="str">
+      <c r="U22" s="4"/>
+      <c r="V22" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X21" s="2" t="str">
+      <c r="W22" s="4"/>
+      <c r="X22" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 36789, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z21" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 84749, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Delia' AND [P].[LastName] = 'Alvarez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="2">
+      <c r="D23" s="8"/>
+      <c r="E23" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F22" s="2" t="str">
+      <c r="F23" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Eduardo</v>
       </c>
-      <c r="G22" s="2" t="str">
+      <c r="G23" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Ducer</v>
       </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="2" t="str">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Eduardo_Ducer.JPG</v>
       </c>
-      <c r="O22" s="2" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Ducer</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="S23" s="4"/>
+      <c r="T23" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V22" s="2" t="str">
+      <c r="U23" s="4"/>
+      <c r="V23" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X22" s="2" t="str">
+      <c r="W23" s="4"/>
+      <c r="X23" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 4166, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z22" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 56382, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Eduardo' AND [P].[LastName] = 'Ducer' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E23" s="2">
+      <c r="D24" s="8"/>
+      <c r="E24" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F23" s="2" t="str">
+      <c r="F24" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Eugenia</v>
       </c>
-      <c r="G23" s="2" t="str">
+      <c r="G24" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Pais</v>
       </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="str">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Maria_Pais.jpg</v>
       </c>
-      <c r="O23" s="2" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Pais</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="S24" s="4"/>
+      <c r="T24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V23" s="2" t="str">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X23" s="2" t="str">
+      <c r="W24" s="4"/>
+      <c r="X24" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 96046, 0 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z23" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 3261, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Eugenia' AND [P].[LastName] = 'Pais' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E24" s="2">
+      <c r="D25" s="8"/>
+      <c r="E25" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F24" s="2" t="str">
+      <c r="F25" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
-      <c r="G24" s="2" t="str">
+      <c r="G25" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Canet</v>
       </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2" t="str">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Federico_Canet.JPG</v>
       </c>
-      <c r="O24" s="2" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Canet</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="S25" s="4"/>
+      <c r="T25" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V24" s="2" t="str">
+      <c r="U25" s="4"/>
+      <c r="V25" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X24" s="2" t="str">
+      <c r="W25" s="4"/>
+      <c r="X25" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 51494, 0 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z24" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 32694, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'Canet' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B26" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E25" s="2">
+      <c r="D26" s="8"/>
+      <c r="E26" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F25" s="2" t="str">
+      <c r="F26" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="G26" s="4" t="str">
         <f t="shared" si="16"/>
         <v>García</v>
       </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="2" t="str">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Federico_Garcia.JPG</v>
       </c>
-      <c r="O25" s="2" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="18"/>
         <v>García</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="S26" s="4"/>
+      <c r="T26" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V25" s="2" t="str">
+      <c r="U26" s="4"/>
+      <c r="V26" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X25" s="2" t="str">
+      <c r="W26" s="4"/>
+      <c r="X26" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 32289, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z25" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 51357, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'García' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E26" s="2">
+      <c r="D27" s="8"/>
+      <c r="E27" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F26" s="2" t="str">
+      <c r="F27" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="G27" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Trujillo</v>
       </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="str">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Federico_Trujillo.JPG</v>
       </c>
-      <c r="O26" s="2" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Trujillo</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V26" s="2" t="str">
+      <c r="U27" s="4"/>
+      <c r="V27" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X26" s="2" t="str">
+      <c r="W27" s="4"/>
+      <c r="X27" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 11737, 0 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z26" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 613, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'Trujillo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E27" s="2">
+      <c r="D28" s="8"/>
+      <c r="E28" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F27" s="2" t="str">
+      <c r="F28" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Fernado</v>
       </c>
-      <c r="G27" s="2" t="str">
+      <c r="G28" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Olmos</v>
       </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2" t="str">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Fernando_Olmos.JPG</v>
       </c>
-      <c r="O27" s="2" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Olmos</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V27" s="2" t="str">
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X27" s="2" t="str">
+      <c r="W28" s="4"/>
+      <c r="X28" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernado', 'Olmos', NULL, NULL, 16744, 0 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z27" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernado', 'Olmos', NULL, NULL, 9841, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernado' AND [P].[LastName] = 'Olmos' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E28" s="2">
+      <c r="D29" s="8"/>
+      <c r="E29" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F28" s="2" t="str">
+      <c r="F29" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
-      <c r="G28" s="2" t="str">
+      <c r="G29" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Cañas</v>
       </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="2" t="str">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Fernando_Canas.JPG</v>
       </c>
-      <c r="O28" s="2" t="str">
+      <c r="O29" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Cañas</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R29" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="S29" s="4"/>
+      <c r="T29" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V28" s="2" t="str">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4" t="str">
         <f t="shared" si="12"/>
         <v>ADMIN</v>
       </c>
-      <c r="X28" s="2" t="str">
+      <c r="W29" s="4"/>
+      <c r="X29" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 75459, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z28" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 66754, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Cañas' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E29" s="2">
+      <c r="D30" s="8"/>
+      <c r="E30" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F29" s="2" t="str">
+      <c r="F30" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="G30" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Stromillo</v>
       </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="2" t="str">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Fernando_Stromillo.jpg</v>
       </c>
-      <c r="O29" s="2" t="str">
+      <c r="O30" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Stromillo</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="S30" s="4"/>
+      <c r="T30" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V29" s="2" t="str">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X29" s="2" t="str">
+      <c r="W30" s="4"/>
+      <c r="X30" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 88603, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z29" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 16847, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Stromillo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E30" s="2">
+      <c r="D31" s="8"/>
+      <c r="E31" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F30" s="2" t="str">
+      <c r="F31" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Gastón</v>
       </c>
-      <c r="G30" s="2" t="str">
+      <c r="G31" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Aroztegui</v>
       </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="2" t="str">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Gaston_Aroztegui.JPG</v>
       </c>
-      <c r="O30" s="2" t="str">
+      <c r="O31" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Aroztegui</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="S31" s="4"/>
+      <c r="T31" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V30" s="2" t="str">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="X30" s="2" t="str">
+      <c r="W31" s="4"/>
+      <c r="X31" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 34941, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z30" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 623, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Gastón' AND [P].[LastName] = 'Aroztegui' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B32" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E31" s="2">
+      <c r="D32" s="8"/>
+      <c r="E32" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F31" s="2" t="str">
+      <c r="F32" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Gerardo</v>
       </c>
-      <c r="G31" s="2" t="str">
+      <c r="G32" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Barbitta</v>
       </c>
-      <c r="K31" s="2">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="2" t="str">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Gerardo_Barbitta.jpg</v>
       </c>
-      <c r="O31" s="2" t="str">
+      <c r="O32" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Barbitta</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R32" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="S32" s="4"/>
+      <c r="T32" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V31" s="2" t="str">
+      <c r="U32" s="4"/>
+      <c r="V32" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X31" s="2" t="str">
+      <c r="W32" s="4"/>
+      <c r="X32" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 81648, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z31" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 43996, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Gerardo' AND [P].[LastName] = 'Barbitta' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E32" s="2">
+      <c r="D33" s="8"/>
+      <c r="E33" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F32" s="2" t="str">
+      <c r="F33" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Giovanina</v>
       </c>
-      <c r="G32" s="2" t="str">
+      <c r="G33" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Chirione</v>
       </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="2" t="str">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Giovanina_Chirione.JPG</v>
       </c>
-      <c r="O32" s="2" t="str">
+      <c r="O33" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Chirione</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="S33" s="4"/>
+      <c r="T33" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V32" s="2" t="str">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="X32" s="2" t="str">
+      <c r="W33" s="4"/>
+      <c r="X33" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 20662, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z32" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 72142, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Giovanina' AND [P].[LastName] = 'Chirione' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E33" s="2">
+      <c r="D34" s="8"/>
+      <c r="E34" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F33" s="2" t="str">
+      <c r="F34" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Hernán</v>
       </c>
-      <c r="G33" s="2" t="str">
+      <c r="G34" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Rumbo</v>
       </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="2" t="str">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Hernan_Rumbo.JPG</v>
       </c>
-      <c r="O33" s="2" t="str">
+      <c r="O34" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Rumbo</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R34" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="S34" s="4"/>
+      <c r="T34" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V33" s="2" t="str">
+      <c r="U34" s="4"/>
+      <c r="V34" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="X33" s="2" t="str">
+      <c r="W34" s="4"/>
+      <c r="X34" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 82701, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z33" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 63833, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Hernán' AND [P].[LastName] = 'Rumbo' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:E65" si="19">FIND(" ",A34)</f>
+      <c r="D35" s="8"/>
+      <c r="E35" s="4">
+        <f t="shared" ref="E35:E66" si="19">FIND(" ",A35)</f>
         <v>8</v>
       </c>
-      <c r="F34" s="2" t="str">
+      <c r="F35" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Horacio</v>
       </c>
-      <c r="G34" s="2" t="str">
+      <c r="G35" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Blanco</v>
       </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="2" t="str">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Horacio_Blanco.JPG</v>
       </c>
-      <c r="O34" s="2" t="str">
+      <c r="O35" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Blanco</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="R35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="S35" s="4"/>
+      <c r="T35" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V34" s="2" t="str">
-        <f t="shared" ref="V34:V65" si="20">IF(T34="", "TST", T34)</f>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4" t="str">
+        <f t="shared" ref="V35:V66" si="20">IF(T35="", "TST", T35)</f>
         <v>DEV</v>
       </c>
-      <c r="X34" s="2" t="str">
+      <c r="W35" s="4"/>
+      <c r="X35" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 4683, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z34" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 62383, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Horacio' AND [P].[LastName] = 'Blanco' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B36" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E35" s="2">
+      <c r="D36" s="8"/>
+      <c r="E36" s="4">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="F35" s="2" t="str">
+      <c r="F36" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Hugo</v>
       </c>
-      <c r="G35" s="2" t="str">
+      <c r="G36" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Ocampo</v>
       </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="2" t="str">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Hugo_Ocampo.JPG</v>
       </c>
-      <c r="O35" s="2" t="str">
+      <c r="O36" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Ocampo</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R36" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="S36" s="4"/>
+      <c r="T36" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V35" s="2" t="str">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X35" s="2" t="str">
+      <c r="W36" s="4"/>
+      <c r="X36" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 34939, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z35" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 12136, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Hugo' AND [P].[LastName] = 'Ocampo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B37" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E36" s="2">
+      <c r="D37" s="8"/>
+      <c r="E37" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F36" s="2" t="str">
+      <c r="F37" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
-      <c r="G36" s="2" t="str">
+      <c r="G37" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Assandri</v>
       </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2" t="str">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Ignacio_Assandri.JPG</v>
       </c>
-      <c r="O36" s="2" t="str">
+      <c r="O37" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Assandri</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V36" s="2" t="str">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X36" s="2" t="str">
+      <c r="W37" s="4"/>
+      <c r="X37" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 82147, 0 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z36" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 61083, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Assandri' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B38" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="2">
+      <c r="D38" s="8"/>
+      <c r="E38" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F37" s="2" t="str">
+      <c r="F38" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
-      <c r="G37" s="2" t="str">
+      <c r="G38" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Loureiro</v>
       </c>
-      <c r="K37" s="2">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
         <v>0</v>
       </c>
-      <c r="N37" s="2" t="str">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Ignacio_Loureiro.JPG</v>
       </c>
-      <c r="O37" s="2" t="str">
+      <c r="O38" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Loureiro</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R38" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="S38" s="4"/>
+      <c r="T38" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V37" s="2" t="str">
+      <c r="U38" s="4"/>
+      <c r="V38" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="X37" s="2" t="str">
+      <c r="W38" s="4"/>
+      <c r="X38" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 50347, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z37" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 42696, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Loureiro' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B39" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E38" s="2">
+      <c r="D39" s="8"/>
+      <c r="E39" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F38" s="2" t="str">
+      <c r="F39" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
-      <c r="G38" s="2" t="str">
+      <c r="G39" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Secco</v>
       </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
         <v>0</v>
       </c>
-      <c r="N38" s="2" t="str">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Ignacio_Secco.jpeg</v>
       </c>
-      <c r="O38" s="2" t="str">
+      <c r="O39" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Secco</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="S39" s="4"/>
+      <c r="T39" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V38" s="2" t="str">
+      <c r="U39" s="4"/>
+      <c r="V39" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="X38" s="2" t="str">
+      <c r="W39" s="4"/>
+      <c r="X39" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 75644, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z38" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 24551, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Secco' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B40" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="2">
+      <c r="D40" s="8"/>
+      <c r="E40" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F39" s="2" t="str">
+      <c r="F40" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Javier</v>
       </c>
-      <c r="G39" s="2" t="str">
+      <c r="G40" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Barrios</v>
       </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
         <v>0</v>
       </c>
-      <c r="N39" s="2" t="str">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Javier_Barrios.JPG</v>
       </c>
-      <c r="O39" s="2" t="str">
+      <c r="O40" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Barrios</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R40" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="S40" s="4"/>
+      <c r="T40" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V39" s="2" t="str">
+      <c r="U40" s="4"/>
+      <c r="V40" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X39" s="2" t="str">
+      <c r="W40" s="4"/>
+      <c r="X40" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 15876, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z39" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 5574, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Javier' AND [P].[LastName] = 'Barrios' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B41" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="2">
+      <c r="D41" s="8"/>
+      <c r="E41" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F40" s="2" t="str">
+      <c r="F41" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Javier</v>
       </c>
-      <c r="G40" s="2" t="str">
+      <c r="G41" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Calero</v>
       </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="N40" s="2" t="str">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Javier_Calero.JPG</v>
       </c>
-      <c r="O40" s="2" t="str">
+      <c r="O41" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Calero</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="R41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="S41" s="4"/>
+      <c r="T41" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V40" s="2" t="str">
+      <c r="U41" s="4"/>
+      <c r="V41" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X40" s="2" t="str">
+      <c r="W41" s="4"/>
+      <c r="X41" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 42141, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z40" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 97137, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Javier' AND [P].[LastName] = 'Calero' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B42" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E41" s="2">
+      <c r="D42" s="8"/>
+      <c r="E42" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F41" s="2" t="str">
+      <c r="F42" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Jimena</v>
       </c>
-      <c r="G41" s="2" t="str">
+      <c r="G42" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Irigaray</v>
       </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="2" t="str">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Jimena_Irigaray.JPG</v>
       </c>
-      <c r="O41" s="2" t="str">
+      <c r="O42" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Irigaray</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="S42" s="4"/>
+      <c r="T42" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V41" s="2" t="str">
+      <c r="U42" s="4"/>
+      <c r="V42" s="4" t="str">
         <f t="shared" si="20"/>
         <v>ADMIN</v>
       </c>
-      <c r="X41" s="2" t="str">
+      <c r="W42" s="4"/>
+      <c r="X42" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 72799, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z41" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 38472, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Jimena' AND [P].[LastName] = 'Irigaray' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="B43" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F42" s="2" t="str">
+      <c r="F43" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Jorge</v>
       </c>
-      <c r="G42" s="2" t="str">
+      <c r="G43" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Jova</v>
       </c>
-      <c r="K42" s="2">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2" t="str">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Jorge</v>
       </c>
-      <c r="O42" s="2" t="str">
+      <c r="O43" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Jova</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R43" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="S43" s="4"/>
+      <c r="T43" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V42" s="2" t="str">
+      <c r="U43" s="4"/>
+      <c r="V43" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X42" s="2" t="str">
+      <c r="W43" s="4"/>
+      <c r="X43" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 39948, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z42" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 42136, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Jorge' AND [P].[LastName] = 'Jova' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B44" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E43" s="2">
+      <c r="D44" s="8"/>
+      <c r="E44" s="4">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="F43" s="2" t="str">
+      <c r="F44" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
-      <c r="G43" s="2" t="str">
+      <c r="G44" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Aguerre</v>
       </c>
-      <c r="K43" s="2">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="2" t="str">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Juan_Aguerre.JPG</v>
       </c>
-      <c r="O43" s="2" t="str">
+      <c r="O44" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Aguerre</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R44" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="S44" s="4"/>
+      <c r="T44" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V43" s="2" t="str">
+      <c r="U44" s="4"/>
+      <c r="V44" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="X43" s="2" t="str">
+      <c r="W44" s="4"/>
+      <c r="X44" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 75544, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z43" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 97324, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan' AND [P].[LastName] = 'Aguerre' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B45" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E44" s="2">
+      <c r="D45" s="8"/>
+      <c r="E45" s="4">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="F44" s="2" t="str">
+      <c r="F45" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
-      <c r="G44" s="2" t="str">
+      <c r="G45" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Estrada</v>
       </c>
-      <c r="K44" s="2">
-        <v>1</v>
-      </c>
-      <c r="L44" s="2">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="2" t="str">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Juan_Estrada.JPG</v>
       </c>
-      <c r="O44" s="2" t="str">
+      <c r="O45" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Estrada</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="R45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="S45" s="4"/>
+      <c r="T45" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V44" s="2" t="str">
+      <c r="U45" s="4"/>
+      <c r="V45" s="4" t="str">
         <f t="shared" si="20"/>
         <v>PM</v>
       </c>
-      <c r="X44" s="2" t="str">
+      <c r="W45" s="4"/>
+      <c r="X45" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 37454, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z44" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 4720, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan' AND [P].[LastName] = 'Estrada' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="B46" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="4">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="F45" s="2" t="str">
+      <c r="F46" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
-      <c r="G45" s="2" t="str">
+      <c r="G46" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Manuel Fagundez</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="2" t="str">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Juan</v>
       </c>
-      <c r="O45" s="2" t="str">
+      <c r="O46" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Fagundez</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="S46" s="4"/>
+      <c r="T46" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="V45" s="2" t="str">
+      <c r="U46" s="4"/>
+      <c r="V46" s="4" t="str">
         <f t="shared" si="20"/>
         <v>SRV</v>
       </c>
-      <c r="X45" s="2" t="str">
+      <c r="W46" s="4"/>
+      <c r="X46" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 91214, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z45" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 93210, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan Manuel' AND [P].[LastName] = 'Fagundez' AND [PR].[Code] = 'SRV'</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B47" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="2">
+      <c r="D47" s="8"/>
+      <c r="E47" s="4">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="F46" s="2" t="str">
+      <c r="F47" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Leonardo</v>
       </c>
-      <c r="G46" s="2" t="str">
+      <c r="G47" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Mendizabal</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2">
+      <c r="J47" s="4"/>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="2" t="str">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Leonardo_Mendizabal.jpg</v>
       </c>
-      <c r="O46" s="2" t="str">
+      <c r="O47" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Mendizabal</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="R47" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="S47" s="4"/>
+      <c r="T47" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V46" s="2" t="str">
+      <c r="U47" s="4"/>
+      <c r="V47" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X46" s="2" t="str">
+      <c r="W47" s="4"/>
+      <c r="X47" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 52318, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z46" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 43294, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Leonardo' AND [P].[LastName] = 'Mendizabal' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="2" t="s">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="2">
+      <c r="D48" s="8"/>
+      <c r="E48" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F47" s="2" t="str">
+      <c r="F48" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Luciano</v>
       </c>
-      <c r="G47" s="2" t="str">
+      <c r="G48" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Deluca</v>
       </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="2" t="str">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Luciano_Deluca.JPG</v>
       </c>
-      <c r="O47" s="2" t="str">
+      <c r="O48" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Deluca</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="R48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="S48" s="4"/>
+      <c r="T48" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V47" s="2" t="str">
+      <c r="U48" s="4"/>
+      <c r="V48" s="4" t="str">
         <f t="shared" si="20"/>
         <v>PM</v>
       </c>
-      <c r="X47" s="2" t="str">
+      <c r="W48" s="4"/>
+      <c r="X48" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 15298, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z47" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 60191, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Luciano' AND [P].[LastName] = 'Deluca' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B49" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E48" s="2">
+      <c r="D49" s="8"/>
+      <c r="E49" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F48" s="2" t="str">
+      <c r="F49" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Malvina</v>
       </c>
-      <c r="G48" s="2" t="str">
+      <c r="G49" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Jaume</v>
       </c>
-      <c r="K48" s="2">
-        <v>1</v>
-      </c>
-      <c r="L48" s="2">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="2" t="str">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Malvina_Jaume.JPG</v>
       </c>
-      <c r="O48" s="2" t="str">
+      <c r="O49" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Jaume</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="R49" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="S49" s="4"/>
+      <c r="T49" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V48" s="2" t="str">
+      <c r="U49" s="4"/>
+      <c r="V49" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="X48" s="2" t="str">
+      <c r="W49" s="4"/>
+      <c r="X49" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 28450, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z48" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 51731, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Malvina' AND [P].[LastName] = 'Jaume' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B50" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="2">
+      <c r="D50" s="8"/>
+      <c r="E50" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F49" s="2" t="str">
+      <c r="F50" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Marcelo</v>
       </c>
-      <c r="G49" s="2" t="str">
+      <c r="G50" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Zepedeo</v>
       </c>
-      <c r="K49" s="2">
-        <v>1</v>
-      </c>
-      <c r="L49" s="2">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="2" t="str">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Marcelo_Zepedeo.JPG</v>
       </c>
-      <c r="O49" s="2" t="str">
+      <c r="O50" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Zepedeo</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="R50" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="S50" s="4"/>
+      <c r="T50" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V49" s="2" t="str">
+      <c r="U50" s="4"/>
+      <c r="V50" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X49" s="2" t="str">
+      <c r="W50" s="4"/>
+      <c r="X50" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 7653, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z49" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 72152, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marcelo' AND [P].[LastName] = 'Zepedeo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B51" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E50" s="2">
+      <c r="D51" s="8"/>
+      <c r="E51" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F50" s="2" t="str">
+      <c r="F51" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Marcos</v>
       </c>
-      <c r="G50" s="2" t="str">
+      <c r="G51" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Guimaraes</v>
       </c>
-      <c r="K50" s="2">
-        <v>1</v>
-      </c>
-      <c r="L50" s="2">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="2" t="str">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Marcos_Guimaraes.JPG</v>
       </c>
-      <c r="O50" s="2" t="str">
+      <c r="O51" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Guimaraes</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="R51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="S51" s="4"/>
+      <c r="T51" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V50" s="2" t="str">
+      <c r="U51" s="4"/>
+      <c r="V51" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X50" s="2" t="str">
+      <c r="W51" s="4"/>
+      <c r="X51" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 78503, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z50" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 60819, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marcos' AND [P].[LastName] = 'Guimaraes' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E51" s="2">
+      <c r="D52" s="8"/>
+      <c r="E52" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F51" s="2" t="str">
+      <c r="F52" s="4" t="str">
         <f t="shared" si="15"/>
         <v>María</v>
       </c>
-      <c r="G51" s="2" t="str">
+      <c r="G52" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Julia Etcheverry</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K51" s="2">
-        <v>1</v>
-      </c>
-      <c r="L51" s="2">
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="2" t="str">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Maria_Etcheverry.jpg</v>
       </c>
-      <c r="O51" s="2" t="str">
+      <c r="O52" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Etcheverry</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="R52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="S52" s="4"/>
+      <c r="T52" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V51" s="2" t="str">
+      <c r="U52" s="4"/>
+      <c r="V52" s="4" t="str">
         <f t="shared" si="20"/>
         <v>ADMIN</v>
       </c>
-      <c r="X51" s="2" t="str">
+      <c r="W52" s="4"/>
+      <c r="X52" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 47514, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z51" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 46378, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'María Julia' AND [P].[LastName] = 'Etcheverry' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B53" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E52" s="2">
+      <c r="D53" s="8"/>
+      <c r="E53" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F52" s="2" t="str">
+      <c r="F53" s="4" t="str">
         <f t="shared" si="15"/>
         <v>María</v>
       </c>
-      <c r="G52" s="2" t="str">
+      <c r="G53" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Noel Mosqueira</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="2">
-        <v>1</v>
-      </c>
-      <c r="L52" s="2">
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="2" t="str">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Maria_Mosqueira.JPG</v>
       </c>
-      <c r="O52" s="2" t="str">
+      <c r="O53" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Mosqueira</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="R53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="S53" s="4"/>
+      <c r="T53" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V52" s="2" t="str">
+      <c r="U53" s="4"/>
+      <c r="V53" s="4" t="str">
         <f t="shared" si="20"/>
         <v>ADMIN</v>
       </c>
-      <c r="X52" s="2" t="str">
+      <c r="W53" s="4"/>
+      <c r="X53" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 15332, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z52" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 72229, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'María Noel' AND [P].[LastName] = 'Mosqueira' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B54" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E53" s="2">
+      <c r="D54" s="8"/>
+      <c r="E54" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F53" s="2" t="str">
+      <c r="F54" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Marlon</v>
       </c>
-      <c r="G53" s="2" t="str">
+      <c r="G54" s="4" t="str">
         <f t="shared" si="16"/>
         <v>González</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I54" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
-      <c r="L53" s="2">
+      <c r="J54" s="4"/>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="2" t="str">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Marlon_Gonzalez.jpg</v>
       </c>
-      <c r="O53" s="2" t="str">
+      <c r="O54" s="4" t="str">
         <f t="shared" si="18"/>
         <v>González</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="R54" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="S54" s="4"/>
+      <c r="T54" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V53" s="2" t="str">
+      <c r="U54" s="4"/>
+      <c r="V54" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X53" s="2" t="str">
+      <c r="W54" s="4"/>
+      <c r="X54" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 73766, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z53" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 23624, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marlon' AND [P].[LastName] = 'González' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B55" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E54" s="2">
+      <c r="D55" s="8"/>
+      <c r="E55" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F54" s="2" t="str">
+      <c r="F55" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Martín</v>
       </c>
-      <c r="G54" s="2" t="str">
+      <c r="G55" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Acosta</v>
       </c>
-      <c r="K54" s="2">
-        <v>1</v>
-      </c>
-      <c r="L54" s="2">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="2" t="str">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Martin_Acosta.jpg</v>
       </c>
-      <c r="O54" s="2" t="str">
+      <c r="O55" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Acosta</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="R55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="S55" s="4"/>
+      <c r="T55" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V54" s="2" t="str">
+      <c r="U55" s="4"/>
+      <c r="V55" s="4" t="str">
         <f t="shared" si="20"/>
         <v>PM</v>
       </c>
-      <c r="X54" s="2" t="str">
+      <c r="W55" s="4"/>
+      <c r="X55" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 35624, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z54" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 39969, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Martín' AND [P].[LastName] = 'Acosta' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B56" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E55" s="2">
+      <c r="D56" s="8"/>
+      <c r="E56" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F55" s="2" t="str">
+      <c r="F56" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Martin</v>
       </c>
-      <c r="G55" s="2" t="str">
+      <c r="G56" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Caetano</v>
       </c>
-      <c r="K55" s="2">
-        <v>1</v>
-      </c>
-      <c r="L55" s="2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3">
         <v>0</v>
       </c>
-      <c r="N55" s="2" t="str">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Martin_Caetano.JPG</v>
       </c>
-      <c r="O55" s="2" t="str">
+      <c r="O56" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Caetano</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="R56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="S56" s="4"/>
+      <c r="T56" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V55" s="2" t="str">
+      <c r="U56" s="4"/>
+      <c r="V56" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X55" s="2" t="str">
+      <c r="W56" s="4"/>
+      <c r="X56" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 48483, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z55" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 1128, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Martin' AND [P].[LastName] = 'Caetano' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B57" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E56" s="2">
+      <c r="D57" s="8"/>
+      <c r="E57" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F56" s="2" t="str">
+      <c r="F57" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Mathías</v>
       </c>
-      <c r="G56" s="2" t="str">
+      <c r="G57" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Rodríguez</v>
       </c>
-      <c r="K56" s="2">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2" t="str">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Mathias_Rodriguez.JPG</v>
       </c>
-      <c r="O56" s="2" t="str">
+      <c r="O57" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Rodríguez</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="R57" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="S57" s="4"/>
+      <c r="T57" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V56" s="2" t="str">
+      <c r="U57" s="4"/>
+      <c r="V57" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X56" s="2" t="str">
+      <c r="W57" s="4"/>
+      <c r="X57" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 384, 0 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z56" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 20254, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Mathías' AND [P].[LastName] = 'Rodríguez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B58" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E57" s="2">
+      <c r="D58" s="8"/>
+      <c r="E58" s="4">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="F57" s="2" t="str">
+      <c r="F58" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Mauricio</v>
       </c>
-      <c r="G57" s="2" t="str">
+      <c r="G58" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Mora</v>
       </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="2" t="str">
+      <c r="M58" s="4"/>
+      <c r="N58" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Mauricio_Mora.JPG</v>
       </c>
-      <c r="O57" s="2" t="str">
+      <c r="O58" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Mora</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="R58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="S58" s="4"/>
+      <c r="T58" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V57" s="2" t="str">
+      <c r="U58" s="4"/>
+      <c r="V58" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X57" s="2" t="str">
+      <c r="W58" s="4"/>
+      <c r="X58" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 58785, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z57" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 47101, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Mauricio' AND [P].[LastName] = 'Mora' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B59" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E58" s="2">
+      <c r="D59" s="8"/>
+      <c r="E59" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F58" s="2" t="str">
+      <c r="F59" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Nicolás</v>
       </c>
-      <c r="G58" s="2" t="str">
+      <c r="G59" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Gómez</v>
       </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="N58" s="2" t="str">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Nicolas_Gomez.jpg</v>
       </c>
-      <c r="O58" s="2" t="str">
+      <c r="O59" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Gómez</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="R59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="S59" s="4"/>
+      <c r="T59" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V58" s="2" t="str">
+      <c r="U59" s="4"/>
+      <c r="V59" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="X58" s="2" t="str">
+      <c r="W59" s="4"/>
+      <c r="X59" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 39932, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z58" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 90817, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolás' AND [P].[LastName] = 'Gómez' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B60" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E59" s="2">
+      <c r="D60" s="8"/>
+      <c r="E60" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F59" s="2" t="str">
+      <c r="F60" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Nicolás</v>
       </c>
-      <c r="G59" s="2" t="str">
+      <c r="G60" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Lasarte</v>
       </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2" t="str">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="3">
+        <v>1</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Nicolas_Lasarte.JPG</v>
       </c>
-      <c r="O59" s="2" t="str">
+      <c r="O60" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Lasarte</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="R60" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="S60" s="4"/>
+      <c r="T60" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V59" s="2" t="str">
+      <c r="U60" s="4"/>
+      <c r="V60" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X59" s="2" t="str">
+      <c r="W60" s="4"/>
+      <c r="X60" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 36868, 0 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z59" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 31459, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolás' AND [P].[LastName] = 'Lasarte' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B61" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E60" s="2">
+      <c r="D61" s="8"/>
+      <c r="E61" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F60" s="2" t="str">
+      <c r="F61" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Nicolas</v>
       </c>
-      <c r="G60" s="2" t="str">
+      <c r="G61" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Mañay</v>
       </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="2" t="str">
+      <c r="M61" s="4"/>
+      <c r="N61" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Nicolas_Ma¤ay.jpg</v>
       </c>
-      <c r="O60" s="2" t="str">
+      <c r="O61" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Mañay</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R60" s="2" t="s">
+      <c r="R61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V60" s="2" t="str">
+      <c r="S61" s="4"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="X60" s="2" t="str">
+      <c r="W61" s="4"/>
+      <c r="X61" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 2219, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z60" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 33156, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolas' AND [P].[LastName] = 'Mañay' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B62" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E61" s="2">
+      <c r="D62" s="8"/>
+      <c r="E62" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F61" s="2" t="str">
+      <c r="F62" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Octavio</v>
       </c>
-      <c r="G61" s="2" t="str">
+      <c r="G62" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Garbarino</v>
       </c>
-      <c r="K61" s="2">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2" t="str">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Octavio_Garbarino.jpg</v>
       </c>
-      <c r="O61" s="2" t="str">
+      <c r="O62" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Garbarino</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="R62" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T61" t="s">
+      <c r="S62" s="4"/>
+      <c r="T62" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V61" s="2" t="str">
+      <c r="U62" s="4"/>
+      <c r="V62" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X61" s="2" t="str">
+      <c r="W62" s="4"/>
+      <c r="X62" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 75945, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z61" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 66238, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Octavio' AND [P].[LastName] = 'Garbarino' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B63" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E62" s="2">
+      <c r="D63" s="8"/>
+      <c r="E63" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F62" s="2" t="str">
+      <c r="F63" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G62" s="2" t="str">
+      <c r="G63" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Cawen</v>
       </c>
-      <c r="K62" s="2">
-        <v>1</v>
-      </c>
-      <c r="L62" s="2">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3">
+        <v>1</v>
+      </c>
+      <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="2" t="str">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo_Cawen.JPG</v>
       </c>
-      <c r="O62" s="2" t="str">
+      <c r="O63" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Cawen</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="R63" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="S63" s="4"/>
+      <c r="T63" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V62" s="2" t="str">
+      <c r="U63" s="4"/>
+      <c r="V63" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X62" s="2" t="str">
+      <c r="W63" s="4"/>
+      <c r="X63" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 59721, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z62" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 4895, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Cawen' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B64" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="E63" s="2">
+      <c r="D64" s="8"/>
+      <c r="E64" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F63" s="2" t="str">
+      <c r="F64" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G63" s="2" t="str">
+      <c r="G64" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Da Silva</v>
       </c>
-      <c r="K63" s="2">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3">
+        <v>1</v>
+      </c>
+      <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="2" t="str">
+      <c r="M64" s="4"/>
+      <c r="N64" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo_DaSilva.JPG</v>
       </c>
-      <c r="O63" s="2" t="str">
+      <c r="O64" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Da Silva</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="R64" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="T63" s="2" t="s">
+      <c r="S64" s="4"/>
+      <c r="T64" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V63" s="2" t="str">
+      <c r="U64" s="4"/>
+      <c r="V64" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="X63" s="2" t="str">
+      <c r="W64" s="4"/>
+      <c r="X64" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 25476, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z63" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 99782, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Da Silva' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B65" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E64" s="2">
+      <c r="D65" s="8"/>
+      <c r="E65" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F64" s="2" t="str">
+      <c r="F65" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G64" s="2" t="str">
+      <c r="G65" s="4" t="str">
         <f t="shared" si="16"/>
         <v>García</v>
       </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="2" t="str">
+      <c r="M65" s="4"/>
+      <c r="N65" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo_Garcia.JPG</v>
       </c>
-      <c r="O64" s="2" t="str">
+      <c r="O65" s="4" t="str">
         <f t="shared" si="18"/>
         <v>García</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="R65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="S65" s="4"/>
+      <c r="T65" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V64" s="2" t="str">
+      <c r="U65" s="4"/>
+      <c r="V65" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="X64" s="2" t="str">
+      <c r="W65" s="4"/>
+      <c r="X65" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 85095, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z64" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 26861, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'García' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="B66" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F65" s="2" t="str">
+      <c r="F66" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G65" s="2" t="str">
+      <c r="G66" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Gus</v>
       </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="2" t="str">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo</v>
       </c>
-      <c r="O65" s="2" t="str">
+      <c r="O66" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Gus</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R65" s="2" t="s">
+      <c r="R66" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="S66" s="4"/>
+      <c r="T66" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="V65" s="2" t="str">
+      <c r="U66" s="4"/>
+      <c r="V66" s="4" t="str">
         <f t="shared" si="20"/>
         <v>SRV</v>
       </c>
-      <c r="X65" s="2" t="str">
+      <c r="W66" s="4"/>
+      <c r="X66" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 38479, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z65" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 27905, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Gus' AND [PR].[Code] = 'SRV'</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B67" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E66" s="2">
-        <f t="shared" ref="E66:E85" si="21">FIND(" ",A66)</f>
+      <c r="D67" s="8"/>
+      <c r="E67" s="4">
+        <f t="shared" ref="E67:E86" si="21">FIND(" ",A67)</f>
         <v>6</v>
       </c>
-      <c r="F66" s="2" t="str">
+      <c r="F67" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G66" s="2" t="str">
+      <c r="G67" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Queirolo</v>
       </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+      <c r="L67" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="2" t="str">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo_Queirolo.jpg</v>
       </c>
-      <c r="O66" s="2" t="str">
+      <c r="O67" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Queirolo</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="R67" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="S67" s="4"/>
+      <c r="T67" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V66" s="2" t="str">
-        <f t="shared" ref="V66:V85" si="22">IF(T66="", "TST", T66)</f>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4" t="str">
+        <f t="shared" ref="V67:V86" si="22">IF(T67="", "TST", T67)</f>
         <v>DEV</v>
       </c>
-      <c r="X66" s="2" t="str">
-        <f t="shared" ref="X66:X90" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q66, "', '", R66, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L66, " , ", IF(C66="", "NULL", CONCATENATE("'", B66,"/", C66, "'")),", ", K66, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B66,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 15121, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z66" s="2" t="str">
-        <f t="shared" ref="Z66:Z85" si="24">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q66, "' AND [P].[LastName] = '", R66, "' AND [PR].[Code] = '", V66, "'")</f>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4" t="str">
+        <f t="shared" ref="X67:X91" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q67, "', '", R67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", K67, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 17716, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4" t="str">
+        <f t="shared" ref="Z67:Z86" si="24">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q67, "' AND [P].[LastName] = '", R67, "' AND [PR].[Code] = '", V67, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Queirolo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B68" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E67" s="2">
+      <c r="D68" s="8"/>
+      <c r="E68" s="4">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F67" s="2" t="str">
-        <f t="shared" ref="F67:F85" si="25">LEFT(A67, E67-1)</f>
+      <c r="F68" s="4" t="str">
+        <f t="shared" ref="F68:F86" si="25">LEFT(A68, E68-1)</f>
         <v>Pablo</v>
       </c>
-      <c r="G67" s="2" t="str">
-        <f t="shared" ref="G67:G85" si="26">RIGHT(A67,LEN(A67) - E67)</f>
+      <c r="G68" s="4" t="str">
+        <f t="shared" ref="G68:G86" si="26">RIGHT(A68,LEN(A68) - E68)</f>
         <v>Uriarte</v>
       </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
+      <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N85" si="27">IF(C67="", F67, C67)</f>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4" t="str">
+        <f t="shared" ref="N68:N86" si="27">IF(C68="", F68, C68)</f>
         <v>Pablo_Uriarte.jpg</v>
       </c>
-      <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O85" si="28">IF(J67="", G67, J67)</f>
+      <c r="O68" s="4" t="str">
+        <f t="shared" ref="O68:O86" si="28">IF(J68="", G68, J68)</f>
         <v>Uriarte</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="R68" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="S68" s="4"/>
+      <c r="T68" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V67" s="2" t="str">
+      <c r="U68" s="4"/>
+      <c r="V68" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X67" s="2" t="str">
+      <c r="W68" s="4"/>
+      <c r="X68" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 70906, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z67" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 68963, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Uriarte' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B69" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E68" s="2">
+      <c r="D69" s="8"/>
+      <c r="E69" s="4">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F68" s="2" t="str">
+      <c r="F69" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Pedro</v>
       </c>
-      <c r="G68" s="2" t="str">
+      <c r="G69" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Minetti</v>
       </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="2" t="str">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Pedro_Minetti.jpg</v>
       </c>
-      <c r="O68" s="2" t="str">
+      <c r="O69" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Minetti</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="R69" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="S69" s="4"/>
+      <c r="T69" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V68" s="2" t="str">
+      <c r="U69" s="4"/>
+      <c r="V69" s="4" t="str">
         <f t="shared" si="22"/>
         <v>ADMIN</v>
       </c>
-      <c r="X68" s="2" t="str">
+      <c r="W69" s="4"/>
+      <c r="X69" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 14454, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z68" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 2248, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pedro' AND [P].[LastName] = 'Minetti' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B70" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E69" s="2">
+      <c r="D70" s="8"/>
+      <c r="E70" s="4">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F69" s="2" t="str">
+      <c r="F70" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Pedro</v>
       </c>
-      <c r="G69" s="2" t="str">
+      <c r="G70" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Tournier</v>
       </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2">
-        <v>0</v>
-      </c>
-      <c r="N69" s="2" t="str">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3">
+        <v>1</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Pedro_Tournier.JPG</v>
       </c>
-      <c r="O69" s="2" t="str">
+      <c r="O70" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Tournier</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="R70" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="S70" s="4"/>
+      <c r="T70" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V69" s="2" t="str">
+      <c r="U70" s="4"/>
+      <c r="V70" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X69" s="2" t="str">
+      <c r="W70" s="4"/>
+      <c r="X70" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 77784, 0 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z69" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 76415, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pedro' AND [P].[LastName] = 'Tournier' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B71" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E70" s="2">
+      <c r="D71" s="8"/>
+      <c r="E71" s="4">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="F70" s="2" t="str">
+      <c r="F71" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Raidel</v>
       </c>
-      <c r="G70" s="2" t="str">
+      <c r="G71" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Gonzalez</v>
       </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3">
+        <v>1</v>
+      </c>
+      <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="2" t="str">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Raidel_Gonzalez.jpeg</v>
       </c>
-      <c r="O70" s="2" t="str">
+      <c r="O71" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Gonzalez</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="R71" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="T70" s="2" t="s">
+      <c r="S71" s="4"/>
+      <c r="T71" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V70" s="2" t="str">
+      <c r="U71" s="4"/>
+      <c r="V71" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X70" s="2" t="str">
+      <c r="W71" s="4"/>
+      <c r="X71" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 53300, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z70" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 99794, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Raidel' AND [P].[LastName] = 'Gonzalez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B72" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E71" s="2">
+      <c r="D72" s="8"/>
+      <c r="E72" s="4">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="F71" s="2" t="str">
+      <c r="F72" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Raúl</v>
       </c>
-      <c r="G71" s="2" t="str">
+      <c r="G72" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Fossemale</v>
       </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3">
+        <v>1</v>
+      </c>
+      <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="2" t="str">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Raul_Fossemale.JPG</v>
       </c>
-      <c r="O71" s="2" t="str">
+      <c r="O72" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Fossemale</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="R71" s="2" t="s">
+      <c r="R72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="T71" s="2" t="s">
+      <c r="S72" s="4"/>
+      <c r="T72" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V71" s="2" t="str">
+      <c r="U72" s="4"/>
+      <c r="V72" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X71" s="2" t="str">
+      <c r="W72" s="4"/>
+      <c r="X72" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 47820, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z71" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 36371, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Raúl' AND [P].[LastName] = 'Fossemale' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B73" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E72" s="2">
+      <c r="D73" s="8"/>
+      <c r="E73" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F72" s="2" t="str">
+      <c r="F73" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Roberto</v>
       </c>
-      <c r="G72" s="2" t="str">
+      <c r="G73" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Assandri</v>
       </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="3">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="2" t="str">
+      <c r="M73" s="4"/>
+      <c r="N73" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Roberto_Assandri.JPG</v>
       </c>
-      <c r="O72" s="2" t="str">
+      <c r="O73" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Assandri</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="R72" s="2" t="s">
+      <c r="R73" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="T72" s="2" t="s">
+      <c r="S73" s="4"/>
+      <c r="T73" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V72" s="2" t="str">
+      <c r="U73" s="4"/>
+      <c r="V73" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X72" s="2" t="str">
+      <c r="W73" s="4"/>
+      <c r="X73" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 50147, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z72" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 41950, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Roberto' AND [P].[LastName] = 'Assandri' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B74" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E73" s="2">
+      <c r="D74" s="8"/>
+      <c r="E74" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F73" s="2" t="str">
+      <c r="F74" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Rodrigo</v>
       </c>
-      <c r="G73" s="2" t="str">
+      <c r="G74" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Alvarez</v>
       </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="L73" s="2">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="3">
+        <v>1</v>
+      </c>
+      <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="2" t="str">
+      <c r="M74" s="4"/>
+      <c r="N74" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Rodrigo_Alvarez.JPG</v>
       </c>
-      <c r="O73" s="2" t="str">
+      <c r="O74" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Alvarez</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R74" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="S74" s="4"/>
+      <c r="T74" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V73" s="2" t="str">
+      <c r="U74" s="4"/>
+      <c r="V74" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X73" s="2" t="str">
+      <c r="W74" s="4"/>
+      <c r="X74" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 2672, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z73" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 92468, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Rodrigo' AND [P].[LastName] = 'Alvarez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B75" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E74" s="2">
+      <c r="D75" s="8"/>
+      <c r="E75" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F74" s="2" t="str">
+      <c r="F75" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Rodrigo</v>
       </c>
-      <c r="G74" s="2" t="str">
+      <c r="G75" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Valdez</v>
       </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="3">
+        <v>1</v>
+      </c>
+      <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="2" t="str">
+      <c r="M75" s="4"/>
+      <c r="N75" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Rodrigo_Valdez.JPG</v>
       </c>
-      <c r="O74" s="2" t="str">
+      <c r="O75" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Valdez</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="R74" s="2" t="s">
+      <c r="R75" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="S75" s="4"/>
+      <c r="T75" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V74" s="2" t="str">
+      <c r="U75" s="4"/>
+      <c r="V75" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X74" s="2" t="str">
+      <c r="W75" s="4"/>
+      <c r="X75" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 43460, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z74" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 27064, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Rodrigo' AND [P].[LastName] = 'Valdez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B76" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E75" s="2">
+      <c r="D76" s="8"/>
+      <c r="E76" s="4">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F75" s="2" t="str">
+      <c r="F76" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Ruben</v>
       </c>
-      <c r="G75" s="2" t="str">
+      <c r="G76" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Bracco</v>
       </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="L75" s="2">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="2" t="str">
+      <c r="M76" s="4"/>
+      <c r="N76" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Ruben_Bracco.JPG</v>
       </c>
-      <c r="O75" s="2" t="str">
+      <c r="O76" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Bracco</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="R75" s="2" t="s">
+      <c r="R76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="T75" s="2" t="s">
+      <c r="S76" s="4"/>
+      <c r="T76" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V75" s="2" t="str">
+      <c r="U76" s="4"/>
+      <c r="V76" s="4" t="str">
         <f t="shared" si="22"/>
         <v>PM</v>
       </c>
-      <c r="X75" s="2" t="str">
+      <c r="W76" s="4"/>
+      <c r="X76" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 90280, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z75" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 24237, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ruben' AND [P].[LastName] = 'Bracco' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B77" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E76" s="2">
+      <c r="D77" s="8"/>
+      <c r="E77" s="4">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="F76" s="2" t="str">
+      <c r="F77" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Santiago</v>
       </c>
-      <c r="G76" s="2" t="str">
+      <c r="G77" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Ferreiro</v>
       </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-      <c r="L76" s="2">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="3">
+        <v>1</v>
+      </c>
+      <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="2" t="str">
+      <c r="M77" s="4"/>
+      <c r="N77" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Santiago_Ferreiro.jpg</v>
       </c>
-      <c r="O76" s="2" t="str">
+      <c r="O77" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Ferreiro</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="R76" s="2" t="s">
+      <c r="R77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T76" s="2" t="s">
+      <c r="S77" s="4"/>
+      <c r="T77" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V76" s="2" t="str">
+      <c r="U77" s="4"/>
+      <c r="V77" s="4" t="str">
         <f t="shared" si="22"/>
         <v>PM</v>
       </c>
-      <c r="X76" s="2" t="str">
+      <c r="W77" s="4"/>
+      <c r="X77" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 33755, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z76" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 55528, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Santiago' AND [P].[LastName] = 'Ferreiro' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="B78" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E77" s="2">
+      <c r="D78" s="8"/>
+      <c r="E78" s="4">
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="F77" s="2" t="str">
+      <c r="F78" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Sebastian</v>
       </c>
-      <c r="G77" s="2" t="str">
+      <c r="G78" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Queirolo</v>
       </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-      <c r="L77" s="2">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="3">
+        <v>1</v>
+      </c>
+      <c r="L78" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="2" t="str">
+      <c r="M78" s="4"/>
+      <c r="N78" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Sebastian_Queirolo.JPG</v>
       </c>
-      <c r="O77" s="2" t="str">
+      <c r="O78" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Queirolo</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R77" s="2" t="s">
+      <c r="R78" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T77" s="2" t="s">
+      <c r="S78" s="4"/>
+      <c r="T78" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V77" s="2" t="str">
+      <c r="U78" s="4"/>
+      <c r="V78" s="4" t="str">
         <f t="shared" si="22"/>
         <v>PM</v>
       </c>
-      <c r="X77" s="2" t="str">
+      <c r="W78" s="4"/>
+      <c r="X78" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 4031, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z77" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 76052, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Sebastian' AND [P].[LastName] = 'Queirolo' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B79" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E78" s="2">
+      <c r="D79" s="8"/>
+      <c r="E79" s="4">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="F78" s="2" t="str">
+      <c r="F79" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Silvia</v>
       </c>
-      <c r="G78" s="2" t="str">
+      <c r="G79" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Derkoyorikian</v>
       </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-      <c r="L78" s="2">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+      <c r="L79" s="3">
         <v>0</v>
       </c>
-      <c r="N78" s="2" t="str">
+      <c r="M79" s="4"/>
+      <c r="N79" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Silvia_Derkoyorikian.JPG</v>
       </c>
-      <c r="O78" s="2" t="str">
+      <c r="O79" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Derkoyorikian</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="R79" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="T78" s="2" t="s">
+      <c r="S79" s="4"/>
+      <c r="T79" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="V78" s="2" t="str">
+      <c r="U79" s="4"/>
+      <c r="V79" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DBA</v>
       </c>
-      <c r="X78" s="2" t="str">
+      <c r="W79" s="4"/>
+      <c r="X79" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 80487, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z78" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 82032, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Silvia' AND [P].[LastName] = 'Derkoyorikian' AND [PR].[Code] = 'DBA'</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="B80" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E79" s="2">
+      <c r="D80" s="8"/>
+      <c r="E80" s="4">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="F79" s="2" t="str">
+      <c r="F80" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Valentín</v>
       </c>
-      <c r="G79" s="2" t="str">
+      <c r="G80" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Gadola</v>
       </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="3">
+        <v>1</v>
+      </c>
+      <c r="L80" s="3">
         <v>0</v>
       </c>
-      <c r="N79" s="2" t="str">
+      <c r="M80" s="4"/>
+      <c r="N80" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Valentin_Gadola.jpg</v>
       </c>
-      <c r="O79" s="2" t="str">
+      <c r="O80" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Gadola</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="R80" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="T79" s="2" t="s">
+      <c r="S80" s="4"/>
+      <c r="T80" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V79" s="2" t="str">
+      <c r="U80" s="4"/>
+      <c r="V80" s="4" t="str">
         <f t="shared" si="22"/>
         <v>PM</v>
       </c>
-      <c r="X79" s="2" t="str">
+      <c r="W80" s="4"/>
+      <c r="X80" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 64619, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z79" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 70846, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Valentín' AND [P].[LastName] = 'Gadola' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B81" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E80" s="2">
+      <c r="D81" s="8"/>
+      <c r="E81" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F80" s="2" t="str">
+      <c r="F81" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Valeria</v>
       </c>
-      <c r="G80" s="2" t="str">
+      <c r="G81" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Rotunno</v>
       </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-      <c r="L80" s="2">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
+      <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="N80" s="2" t="str">
+      <c r="M81" s="4"/>
+      <c r="N81" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Valeria_Rotunno.JPG</v>
       </c>
-      <c r="O80" s="2" t="str">
+      <c r="O81" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Rotunno</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="R80" s="2" t="s">
+      <c r="R81" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="S81" s="4"/>
+      <c r="T81" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V80" s="2" t="str">
+      <c r="U81" s="4"/>
+      <c r="V81" s="4" t="str">
         <f t="shared" si="22"/>
         <v>ADMIN</v>
       </c>
-      <c r="X80" s="2" t="str">
+      <c r="W81" s="4"/>
+      <c r="X81" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 40505, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z80" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 46842, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Valeria' AND [P].[LastName] = 'Rotunno' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="B82" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E81" s="2">
+      <c r="D82" s="8"/>
+      <c r="E82" s="4">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="F81" s="2" t="str">
+      <c r="F82" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Victoria</v>
       </c>
-      <c r="G81" s="2" t="str">
+      <c r="G82" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Andrada</v>
       </c>
-      <c r="K81" s="2">
-        <v>1</v>
-      </c>
-      <c r="L81" s="2">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="2" t="str">
+      <c r="M82" s="4"/>
+      <c r="N82" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Victoria_Andrada.JPG</v>
       </c>
-      <c r="O81" s="2" t="str">
+      <c r="O82" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Andrada</v>
       </c>
-      <c r="Q81" s="2" t="s">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="R81" s="2" t="s">
+      <c r="R82" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="T81" t="s">
+      <c r="S82" s="4"/>
+      <c r="T82" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V81" s="2" t="str">
+      <c r="U82" s="4"/>
+      <c r="V82" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X81" s="2" t="str">
+      <c r="W82" s="4"/>
+      <c r="X82" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 77064, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z81" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 96537, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Victoria' AND [P].[LastName] = 'Andrada' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B83" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E82" s="2">
+      <c r="D83" s="8"/>
+      <c r="E83" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F82" s="2" t="str">
+      <c r="F83" s="4" t="str">
         <f t="shared" si="25"/>
         <v>William</v>
       </c>
-      <c r="G82" s="2" t="str">
+      <c r="G83" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Claro</v>
       </c>
-      <c r="K82" s="2">
-        <v>1</v>
-      </c>
-      <c r="L82" s="2">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="3">
+        <v>1</v>
+      </c>
+      <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="N82" s="2" t="str">
+      <c r="M83" s="4"/>
+      <c r="N83" s="4" t="str">
         <f t="shared" si="27"/>
         <v>William_Claro.JPG</v>
       </c>
-      <c r="O82" s="2" t="str">
+      <c r="O83" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Claro</v>
       </c>
-      <c r="Q82" s="2" t="s">
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="R82" s="2" t="s">
+      <c r="R83" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="T82" s="2" t="s">
+      <c r="S83" s="4"/>
+      <c r="T83" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V82" s="2" t="str">
+      <c r="U83" s="4"/>
+      <c r="V83" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X82" s="2" t="str">
+      <c r="W83" s="4"/>
+      <c r="X83" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 90216, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z82" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 84685, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'William' AND [P].[LastName] = 'Claro' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B84" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E83" s="2">
+      <c r="D84" s="8"/>
+      <c r="E84" s="4">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="F83" s="2" t="str">
+      <c r="F84" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Yago</v>
       </c>
-      <c r="G83" s="2" t="str">
+      <c r="G84" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Auza</v>
       </c>
-      <c r="K83" s="2">
-        <v>1</v>
-      </c>
-      <c r="L83" s="2">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="2" t="str">
+      <c r="M84" s="4"/>
+      <c r="N84" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Yago_Auza.jpg</v>
       </c>
-      <c r="O83" s="2" t="str">
+      <c r="O84" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Auza</v>
       </c>
-      <c r="Q83" s="2" t="s">
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="R84" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="T83" s="2" t="s">
+      <c r="S84" s="4"/>
+      <c r="T84" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V83" s="2" t="str">
+      <c r="U84" s="4"/>
+      <c r="V84" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X83" s="2" t="str">
+      <c r="W84" s="4"/>
+      <c r="X84" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 77351, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z83" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 51726, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yago' AND [P].[LastName] = 'Auza' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B85" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E84" s="2">
+      <c r="D85" s="8"/>
+      <c r="E85" s="4">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="F84" s="2" t="str">
+      <c r="F85" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Yanara</v>
       </c>
-      <c r="G84" s="2" t="str">
+      <c r="G85" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Valdes</v>
       </c>
-      <c r="K84" s="2">
-        <v>1</v>
-      </c>
-      <c r="L84" s="2">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3">
+        <v>1</v>
+      </c>
+      <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="2" t="str">
+      <c r="M85" s="4"/>
+      <c r="N85" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Yanara_Valdes.jpg</v>
       </c>
-      <c r="O84" s="2" t="str">
+      <c r="O85" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Valdes</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="R85" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="T84" t="s">
+      <c r="S85" s="4"/>
+      <c r="T85" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V84" s="2" t="str">
+      <c r="U85" s="4"/>
+      <c r="V85" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="X84" s="2" t="str">
+      <c r="W85" s="4"/>
+      <c r="X85" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 40631, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z84" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 67741, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yanara' AND [P].[LastName] = 'Valdes' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="B86" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E85" s="2">
+      <c r="D86" s="8"/>
+      <c r="E86" s="4">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="F85" s="2" t="str">
+      <c r="F86" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Yony</v>
       </c>
-      <c r="G85" s="2" t="str">
+      <c r="G86" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Gómez</v>
       </c>
-      <c r="K85" s="2">
-        <v>1</v>
-      </c>
-      <c r="L85" s="2">
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="2" t="str">
+      <c r="M86" s="4"/>
+      <c r="N86" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Yony_Gomez.JPG</v>
       </c>
-      <c r="O85" s="2" t="str">
+      <c r="O86" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Gómez</v>
       </c>
-      <c r="Q85" s="2" t="s">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="R85" s="2" t="s">
+      <c r="R86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="S86" s="4"/>
+      <c r="T86" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="V85" s="2" t="str">
+      <c r="U86" s="4"/>
+      <c r="V86" s="4" t="str">
         <f t="shared" si="22"/>
         <v>UX</v>
       </c>
-      <c r="X85" s="2" t="str">
+      <c r="W86" s="4"/>
+      <c r="X86" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 1532, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Z85" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 67755, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yony' AND [P].[LastName] = 'Gómez' AND [PR].[Code] = 'UX'</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B87" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E86" s="2">
-        <f t="shared" ref="E86:E90" si="29">FIND(" ",A86)</f>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="4">
+        <f t="shared" ref="E87:E91" si="29">FIND(" ",A87)</f>
         <v>7</v>
       </c>
-      <c r="F86" s="2" t="str">
-        <f t="shared" ref="F86:F90" si="30">LEFT(A86, E86-1)</f>
+      <c r="F87" s="4" t="str">
+        <f t="shared" ref="F87:F91" si="30">LEFT(A87, E87-1)</f>
         <v>Adrián</v>
       </c>
-      <c r="G86" s="2" t="str">
-        <f t="shared" ref="G86:G90" si="31">RIGHT(A86,LEN(A86) - E86)</f>
+      <c r="G87" s="4" t="str">
+        <f t="shared" ref="G87:G91" si="31">RIGHT(A87,LEN(A87) - E87)</f>
         <v>Costa</v>
       </c>
-      <c r="K86" s="2">
-        <v>1</v>
-      </c>
-      <c r="L86" s="2">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+      <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="2" t="str">
-        <f t="shared" ref="N86:N90" si="32">IF(C86="", F86, C86)</f>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4" t="str">
+        <f t="shared" ref="N87:N91" si="32">IF(C87="", F87, C87)</f>
         <v>Adrián</v>
       </c>
-      <c r="O86" s="2" t="str">
-        <f t="shared" ref="O86:O90" si="33">IF(J86="", G86, J86)</f>
+      <c r="O87" s="4" t="str">
+        <f t="shared" ref="O87:O91" si="33">IF(J87="", G87, J87)</f>
         <v>Costa</v>
       </c>
-      <c r="Q86" s="2" t="str">
-        <f t="shared" ref="Q86:Q90" si="34">IF(F86="", I86, F86)</f>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4" t="str">
+        <f t="shared" ref="Q87:Q91" si="34">IF(F87="", I87, F87)</f>
         <v>Adrián</v>
       </c>
-      <c r="R86" s="2" t="s">
+      <c r="R87" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="T86" t="s">
+      <c r="S87" s="4"/>
+      <c r="T87" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="V86" s="2" t="str">
-        <f t="shared" ref="V86:V90" si="35">IF(T86="", "TST", T86)</f>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4" t="str">
+        <f t="shared" ref="V87:V91" si="35">IF(T87="", "TST", T87)</f>
         <v>PM</v>
       </c>
-      <c r="X86" s="2" t="str">
+      <c r="W87" s="4"/>
+      <c r="X87" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 47984, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Z86" s="2" t="str">
-        <f t="shared" ref="Z86:Z90" si="36">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q86, "' AND [P].[LastName] = '", R86, "' AND [PR].[Code] = '", V86, "'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 54405, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4" t="str">
+        <f t="shared" ref="Z87:Z91" si="36">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q87, "' AND [P].[LastName] = '", R87, "' AND [PR].[Code] = '", V87, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Costa' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E87" s="2">
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="4">
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
-      <c r="F87" s="2" t="str">
+      <c r="F88" s="4" t="str">
         <f t="shared" si="30"/>
         <v>Agustín</v>
       </c>
-      <c r="G87" s="2" t="str">
+      <c r="G88" s="4" t="str">
         <f t="shared" si="31"/>
         <v>Narvaez</v>
       </c>
-      <c r="K87" s="2">
-        <v>1</v>
-      </c>
-      <c r="L87" s="2">
-        <v>0</v>
-      </c>
-      <c r="N87" s="2" t="str">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Agustín</v>
       </c>
-      <c r="O87" s="2" t="str">
+      <c r="O88" s="4" t="str">
         <f t="shared" si="33"/>
         <v>Narvaez</v>
       </c>
-      <c r="Q87" s="2" t="str">
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4" t="str">
         <f t="shared" si="34"/>
         <v>Agustín</v>
       </c>
-      <c r="R87" s="2" t="s">
+      <c r="R88" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="T87" t="s">
+      <c r="S88" s="4"/>
+      <c r="T88" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V87" s="2" t="str">
+      <c r="U88" s="4"/>
+      <c r="V88" s="4" t="str">
         <f t="shared" si="35"/>
         <v>DEV</v>
       </c>
-      <c r="X87" s="2" t="str">
+      <c r="W88" s="4"/>
+      <c r="X88" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 63992, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Z87" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 10264, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4" t="str">
         <f t="shared" si="36"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Agustín' AND [P].[LastName] = 'Narvaez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E88" s="2">
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="4">
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="F88" s="2" t="str">
+      <c r="F89" s="4" t="str">
         <f t="shared" si="30"/>
         <v>Andrea</v>
       </c>
-      <c r="G88" s="2" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="31"/>
         <v>Sabella</v>
       </c>
-      <c r="K88" s="2">
-        <v>1</v>
-      </c>
-      <c r="L88" s="2">
-        <v>0</v>
-      </c>
-      <c r="N88" s="2" t="str">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Andrea</v>
       </c>
-      <c r="O88" s="2" t="str">
+      <c r="O89" s="4" t="str">
         <f t="shared" si="33"/>
         <v>Sabella</v>
       </c>
-      <c r="Q88" s="2" t="str">
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4" t="str">
         <f t="shared" si="34"/>
         <v>Andrea</v>
       </c>
-      <c r="R88" s="2" t="s">
+      <c r="R89" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="T88" t="s">
+      <c r="S89" s="4"/>
+      <c r="T89" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="V88" s="2" t="str">
+      <c r="U89" s="4"/>
+      <c r="V89" s="4" t="str">
         <f t="shared" si="35"/>
         <v>TST</v>
       </c>
-      <c r="X88" s="2" t="str">
+      <c r="W89" s="4"/>
+      <c r="X89" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 98104, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Z88" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 36416, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4" t="str">
         <f t="shared" si="36"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrea' AND [P].[LastName] = 'Sabella' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E89" s="2">
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="4">
         <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="F89" s="2" t="str">
+      <c r="F90" s="4" t="str">
         <f t="shared" si="30"/>
         <v>Ezequiel</v>
       </c>
-      <c r="G89" s="2" t="str">
+      <c r="G90" s="4" t="str">
         <f t="shared" si="31"/>
         <v>Konjuh</v>
       </c>
-      <c r="K89" s="2">
-        <v>1</v>
-      </c>
-      <c r="L89" s="2">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="3">
+        <v>1</v>
+      </c>
+      <c r="L90" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="2" t="str">
+      <c r="M90" s="4"/>
+      <c r="N90" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Ezequiel</v>
       </c>
-      <c r="O89" s="2" t="str">
+      <c r="O90" s="4" t="str">
         <f t="shared" si="33"/>
         <v>Konjuh</v>
       </c>
-      <c r="Q89" s="2" t="str">
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4" t="str">
         <f t="shared" si="34"/>
         <v>Ezequiel</v>
       </c>
-      <c r="R89" s="2" t="s">
+      <c r="R90" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="T89" t="s">
+      <c r="S90" s="4"/>
+      <c r="T90" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V89" s="2" t="str">
+      <c r="U90" s="4"/>
+      <c r="V90" s="4" t="str">
         <f t="shared" si="35"/>
         <v>DEV</v>
       </c>
-      <c r="X89" s="2" t="str">
+      <c r="W90" s="4"/>
+      <c r="X90" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 59887, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Z89" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 16910, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4" t="str">
         <f t="shared" si="36"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ezequiel' AND [P].[LastName] = 'Konjuh' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B91" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E90" s="2">
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="4">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="F90" s="2" t="str">
+      <c r="F91" s="4" t="str">
         <f t="shared" si="30"/>
         <v>Luis</v>
       </c>
-      <c r="G90" s="2" t="str">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="31"/>
         <v>Fregeiro</v>
       </c>
-      <c r="K90" s="2">
-        <v>1</v>
-      </c>
-      <c r="L90" s="2">
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="3">
+        <v>1</v>
+      </c>
+      <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="N90" s="2" t="str">
+      <c r="M91" s="4"/>
+      <c r="N91" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Luis</v>
       </c>
-      <c r="O90" s="2" t="str">
+      <c r="O91" s="4" t="str">
         <f t="shared" si="33"/>
         <v>Fregeiro</v>
       </c>
-      <c r="Q90" s="2" t="str">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4" t="str">
         <f t="shared" si="34"/>
         <v>Luis</v>
       </c>
-      <c r="R90" s="2" t="s">
+      <c r="R91" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="T90" t="s">
+      <c r="S91" s="4"/>
+      <c r="T91" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V90" s="2" t="str">
+      <c r="U91" s="4"/>
+      <c r="V91" s="4" t="str">
         <f t="shared" si="35"/>
         <v>DEV</v>
       </c>
-      <c r="X90" s="2" t="str">
+      <c r="W91" s="4"/>
+      <c r="X91" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 46319, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Z90" s="2" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 60570, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4" t="str">
         <f t="shared" si="36"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Luis' AND [P].[LastName] = 'Fregeiro' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z85">
-    <sortCondition ref="A2:A85"/>
+  <autoFilter ref="A1:Z91" xr:uid="{9AC713E9-6939-4F73-A522-F640B7028191}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z86">
+    <sortCondition ref="A3:A86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6708,6 +7671,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -6916,12 +7885,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -6931,6 +7894,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6947,21 +7927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944A5B7-B958-405E-A578-499D64CA513C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F26E517-2AA5-45D3-9BD2-50432BEA1969}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="335">
   <si>
     <t>Pedro Minetti</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Jimena Irigaray</t>
   </si>
   <si>
-    <t>Fernado Olmos</t>
-  </si>
-  <si>
     <t>Juan Estrada</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>Nicolás</t>
   </si>
   <si>
-    <t>Fernado</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
@@ -1042,6 +1036,9 @@
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>Fernando Olmos</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1457,7 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,13 +1493,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1512,10 +1509,10 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -1525,18 +1522,18 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4">
@@ -1571,14 +1568,14 @@
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4" t="str">
@@ -1588,7 +1585,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="str">
         <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 74754, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 26668, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="str">
@@ -1598,13 +1595,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="4">
@@ -1639,14 +1636,14 @@
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4" t="str">
@@ -1656,7 +1653,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="str">
         <f t="shared" ref="X3:X66" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q3, "', '", R3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", K3, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 85217, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 28138, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="str">
@@ -1669,10 +1666,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="4">
@@ -1707,14 +1704,14 @@
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4" t="str">
@@ -1724,7 +1721,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 53034, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 32024, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="str">
@@ -1734,13 +1731,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4">
@@ -1775,10 +1772,10 @@
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="3"/>
@@ -1790,7 +1787,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 88182, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 55446, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="str">
@@ -1800,13 +1797,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="4">
@@ -1841,14 +1838,14 @@
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4" t="str">
@@ -1858,7 +1855,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 75600, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 44409, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="str">
@@ -1868,13 +1865,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4">
@@ -1909,14 +1906,14 @@
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="str">
@@ -1926,7 +1923,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 86203, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 11238, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="str">
@@ -1936,13 +1933,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4">
@@ -1977,14 +1974,14 @@
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4" t="str">
@@ -1994,7 +1991,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 15204, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 45415, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="str">
@@ -2004,13 +2001,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4">
@@ -2045,14 +2042,14 @@
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4" t="str">
@@ -2062,7 +2059,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 90306, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 10587, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="str">
@@ -2072,13 +2069,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="4">
@@ -2113,14 +2110,14 @@
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4" t="str">
@@ -2130,7 +2127,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 65731, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 85095, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="str">
@@ -2140,13 +2137,13 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4">
@@ -2181,14 +2178,14 @@
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4" t="str">
@@ -2198,7 +2195,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 93359, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 87697, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4" t="str">
@@ -2208,13 +2205,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4">
@@ -2249,14 +2246,14 @@
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4" t="str">
@@ -2266,7 +2263,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 61053, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 81948, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="str">
@@ -2279,10 +2276,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4">
@@ -2317,14 +2314,14 @@
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4" t="str">
@@ -2334,7 +2331,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 21548, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 80702, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="str">
@@ -2344,13 +2341,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="4">
@@ -2385,14 +2382,14 @@
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4" t="str">
@@ -2402,7 +2399,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 63792, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 22047, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="str">
@@ -2412,13 +2409,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4">
@@ -2453,14 +2450,14 @@
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4" t="str">
@@ -2470,7 +2467,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 99781, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 14671, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="str">
@@ -2480,13 +2477,13 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4">
@@ -2521,14 +2518,14 @@
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4" t="str">
@@ -2538,7 +2535,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 30382, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 22483, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4" t="str">
@@ -2548,13 +2545,13 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="4">
@@ -2589,14 +2586,14 @@
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4" t="str">
@@ -2606,7 +2603,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 29333, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 71949, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="str">
@@ -2619,10 +2616,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="4">
@@ -2657,14 +2654,14 @@
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4" t="str">
@@ -2674,7 +2671,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 38813, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 97294, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="str">
@@ -2684,13 +2681,13 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="4">
@@ -2725,14 +2722,14 @@
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4" t="str">
@@ -2742,7 +2739,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 46084, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 85358, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="str">
@@ -2752,13 +2749,13 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="4">
@@ -2793,14 +2790,14 @@
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4" t="str">
@@ -2810,7 +2807,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 40741, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 13414, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="str">
@@ -2820,13 +2817,13 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="4">
@@ -2861,14 +2858,14 @@
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4" t="str">
@@ -2878,7 +2875,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 17434, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 58227, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4" t="str">
@@ -2888,13 +2885,13 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="4">
@@ -2929,14 +2926,14 @@
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4" t="str">
@@ -2946,7 +2943,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 84749, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 34880, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4" t="str">
@@ -2959,10 +2956,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4">
@@ -2997,14 +2994,14 @@
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4" t="str">
@@ -3014,7 +3011,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 56382, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 92063, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4" t="str">
@@ -3024,13 +3021,13 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="4">
@@ -3065,14 +3062,14 @@
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4" t="str">
@@ -3082,7 +3079,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 3261, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 38695, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4" t="str">
@@ -3092,13 +3089,13 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="4">
@@ -3133,14 +3130,14 @@
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4" t="str">
@@ -3150,7 +3147,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 32694, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 1883, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4" t="str">
@@ -3160,13 +3157,13 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4">
@@ -3201,14 +3198,14 @@
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4" t="str">
@@ -3218,7 +3215,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 51357, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 27014, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4" t="str">
@@ -3231,10 +3228,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="4">
@@ -3269,14 +3266,14 @@
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4" t="str">
@@ -3286,7 +3283,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 613, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 15832, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="str">
@@ -3296,22 +3293,22 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>13</v>
+        <v>334</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="4">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>Fernado</v>
+        <v>Fernando</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="16"/>
@@ -3337,14 +3334,14 @@
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4" t="str">
@@ -3354,23 +3351,23 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernado', 'Olmos', NULL, NULL, 9841, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 82626, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernado' AND [P].[LastName] = 'Olmos' AND [PR].[Code] = 'DEV'</v>
+        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Olmos' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="4">
@@ -3405,14 +3402,14 @@
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4" t="str">
@@ -3422,7 +3419,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 66754, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 1109, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="str">
@@ -3432,13 +3429,13 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="4">
@@ -3473,14 +3470,14 @@
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4" t="str">
@@ -3490,7 +3487,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 16847, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 8597, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="str">
@@ -3500,13 +3497,13 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4">
@@ -3541,14 +3538,14 @@
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S31" s="4"/>
       <c r="T31" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4" t="str">
@@ -3558,7 +3555,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 623, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 87776, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="str">
@@ -3568,13 +3565,13 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="4">
@@ -3609,14 +3606,14 @@
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4" t="str">
@@ -3626,7 +3623,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 43996, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 99017, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="str">
@@ -3639,10 +3636,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="4">
@@ -3677,14 +3674,14 @@
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4" t="str">
@@ -3694,7 +3691,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 72142, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 28441, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4" t="str">
@@ -3704,13 +3701,13 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="4">
@@ -3745,14 +3742,14 @@
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4" t="str">
@@ -3762,7 +3759,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 63833, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 11770, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4" t="str">
@@ -3775,10 +3772,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4">
@@ -3813,14 +3810,14 @@
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4" t="str">
@@ -3830,7 +3827,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 62383, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 27232, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4" t="str">
@@ -3840,13 +3837,13 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="4">
@@ -3881,14 +3878,14 @@
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4" t="str">
@@ -3898,7 +3895,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 12136, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 38002, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4" t="str">
@@ -3908,13 +3905,13 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="4">
@@ -3949,14 +3946,14 @@
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4" t="str">
@@ -3966,7 +3963,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 61083, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 77434, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4" t="str">
@@ -3976,13 +3973,13 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="4">
@@ -4017,14 +4014,14 @@
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S38" s="4"/>
       <c r="T38" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4" t="str">
@@ -4034,7 +4031,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 42696, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 41978, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4" t="str">
@@ -4044,13 +4041,13 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="4">
@@ -4085,14 +4082,14 @@
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S39" s="4"/>
       <c r="T39" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4" t="str">
@@ -4102,7 +4099,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 24551, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 68117, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4" t="str">
@@ -4112,13 +4109,13 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4">
@@ -4153,14 +4150,14 @@
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4" t="str">
@@ -4170,7 +4167,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 5574, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 99790, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4" t="str">
@@ -4180,13 +4177,13 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="4">
@@ -4221,14 +4218,14 @@
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S41" s="4"/>
       <c r="T41" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4" t="str">
@@ -4238,7 +4235,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 97137, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 10946, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4" t="str">
@@ -4251,10 +4248,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="4">
@@ -4289,14 +4286,14 @@
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S42" s="4"/>
       <c r="T42" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4" t="str">
@@ -4306,7 +4303,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 38472, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 73710, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4" t="str">
@@ -4316,10 +4313,10 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
@@ -4355,14 +4352,14 @@
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S43" s="4"/>
       <c r="T43" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4" t="str">
@@ -4372,7 +4369,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 42136, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 56929, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4" t="str">
@@ -4382,13 +4379,13 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="4">
@@ -4423,14 +4420,14 @@
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S44" s="4"/>
       <c r="T44" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4" t="str">
@@ -4440,7 +4437,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 97324, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 41621, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="str">
@@ -4450,13 +4447,13 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="4">
@@ -4491,14 +4488,14 @@
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S45" s="4"/>
       <c r="T45" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4" t="str">
@@ -4508,7 +4505,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 4720, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 65590, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4" t="str">
@@ -4518,10 +4515,10 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -4540,7 +4537,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -4559,14 +4556,14 @@
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R46" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="S46" s="4"/>
       <c r="T46" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4" t="str">
@@ -4576,7 +4573,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 93210, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 88721, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4" t="str">
@@ -4586,13 +4583,13 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="4">
@@ -4608,10 +4605,10 @@
         <v>Mendizabal</v>
       </c>
       <c r="H47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="3">
@@ -4631,14 +4628,14 @@
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S47" s="4"/>
       <c r="T47" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4" t="str">
@@ -4648,7 +4645,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 43294, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 87140, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4" t="str">
@@ -4661,10 +4658,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="4">
@@ -4699,14 +4696,14 @@
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S48" s="4"/>
       <c r="T48" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4" t="str">
@@ -4716,7 +4713,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 60191, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 51798, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4" t="str">
@@ -4726,13 +4723,13 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="4">
@@ -4767,14 +4764,14 @@
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S49" s="4"/>
       <c r="T49" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4" t="str">
@@ -4784,7 +4781,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 51731, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 22781, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4" t="str">
@@ -4794,13 +4791,13 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="4">
@@ -4835,14 +4832,14 @@
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S50" s="4"/>
       <c r="T50" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4" t="str">
@@ -4852,7 +4849,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 72152, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 44778, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4" t="str">
@@ -4862,13 +4859,13 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="4">
@@ -4903,14 +4900,14 @@
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S51" s="4"/>
       <c r="T51" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4" t="str">
@@ -4920,7 +4917,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 60819, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 694, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4" t="str">
@@ -4930,13 +4927,13 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="4">
@@ -4954,7 +4951,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K52" s="3">
         <v>1</v>
@@ -4973,14 +4970,14 @@
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S52" s="4"/>
       <c r="T52" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4" t="str">
@@ -4990,7 +4987,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 46378, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 44553, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4" t="str">
@@ -5000,13 +4997,13 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="4">
@@ -5022,13 +5019,13 @@
         <v>Noel Mosqueira</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K53" s="3">
         <v>1</v>
@@ -5047,14 +5044,14 @@
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R53" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="S53" s="4"/>
       <c r="T53" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4" t="str">
@@ -5064,7 +5061,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 72229, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 22325, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4" t="str">
@@ -5074,13 +5071,13 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="4">
@@ -5096,10 +5093,10 @@
         <v>González</v>
       </c>
       <c r="H54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="3">
@@ -5119,14 +5116,14 @@
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S54" s="4"/>
       <c r="T54" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4" t="str">
@@ -5136,7 +5133,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 23624, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 48840, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4" t="str">
@@ -5146,13 +5143,13 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="4">
@@ -5187,14 +5184,14 @@
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S55" s="4"/>
       <c r="T55" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4" t="str">
@@ -5204,7 +5201,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 39969, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 73480, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4" t="str">
@@ -5214,13 +5211,13 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="4">
@@ -5255,14 +5252,14 @@
       </c>
       <c r="P56" s="4"/>
       <c r="Q56" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S56" s="4"/>
       <c r="T56" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4" t="str">
@@ -5272,7 +5269,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 1128, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 49702, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4" t="str">
@@ -5282,13 +5279,13 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="4">
@@ -5323,14 +5320,14 @@
       </c>
       <c r="P57" s="4"/>
       <c r="Q57" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S57" s="4"/>
       <c r="T57" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4" t="str">
@@ -5340,7 +5337,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 20254, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 39123, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4" t="str">
@@ -5350,13 +5347,13 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="4">
@@ -5391,14 +5388,14 @@
       </c>
       <c r="P58" s="4"/>
       <c r="Q58" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S58" s="4"/>
       <c r="T58" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4" t="str">
@@ -5408,7 +5405,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 47101, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 5881, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4" t="str">
@@ -5418,13 +5415,13 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="4">
@@ -5459,14 +5456,14 @@
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S59" s="4"/>
       <c r="T59" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4" t="str">
@@ -5476,7 +5473,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 90817, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 67603, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4" t="str">
@@ -5486,13 +5483,13 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="4">
@@ -5527,14 +5524,14 @@
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S60" s="4"/>
       <c r="T60" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4" t="str">
@@ -5544,7 +5541,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 31459, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 57049, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4" t="str">
@@ -5554,13 +5551,13 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="4">
@@ -5595,10 +5592,10 @@
       </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S61" s="4"/>
       <c r="T61" s="3"/>
@@ -5610,7 +5607,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 33156, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 74755, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4" t="str">
@@ -5620,13 +5617,13 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="4">
@@ -5661,14 +5658,14 @@
       </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S62" s="4"/>
       <c r="T62" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4" t="str">
@@ -5678,7 +5675,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 66238, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 4576, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4" t="str">
@@ -5688,13 +5685,13 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="4">
@@ -5729,14 +5726,14 @@
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S63" s="4"/>
       <c r="T63" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4" t="str">
@@ -5746,7 +5743,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 4895, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 40129, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4" t="str">
@@ -5759,10 +5756,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="4">
@@ -5797,14 +5794,14 @@
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S64" s="4"/>
       <c r="T64" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4" t="str">
@@ -5814,7 +5811,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 99782, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 43445, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4" t="str">
@@ -5824,13 +5821,13 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="4">
@@ -5865,14 +5862,14 @@
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S65" s="4"/>
       <c r="T65" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4" t="str">
@@ -5882,7 +5879,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 26861, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 40018, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4" t="str">
@@ -5892,10 +5889,10 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -5931,14 +5928,14 @@
       </c>
       <c r="P66" s="4"/>
       <c r="Q66" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S66" s="4"/>
       <c r="T66" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4" t="str">
@@ -5948,7 +5945,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 27905, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 68469, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4" t="str">
@@ -5958,13 +5955,13 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="4">
@@ -5999,14 +5996,14 @@
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S67" s="4"/>
       <c r="T67" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4" t="str">
@@ -6016,7 +6013,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4" t="str">
         <f t="shared" ref="X67:X91" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q67, "', '", R67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", K67, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 17716, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 93693, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4" t="str">
@@ -6026,13 +6023,13 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="4">
@@ -6067,14 +6064,14 @@
       </c>
       <c r="P68" s="4"/>
       <c r="Q68" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S68" s="4"/>
       <c r="T68" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U68" s="4"/>
       <c r="V68" s="4" t="str">
@@ -6084,7 +6081,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 68963, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 33430, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4" t="str">
@@ -6097,10 +6094,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="4">
@@ -6135,14 +6132,14 @@
       </c>
       <c r="P69" s="4"/>
       <c r="Q69" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S69" s="4"/>
       <c r="T69" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4" t="str">
@@ -6152,7 +6149,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 2248, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 48586, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4" t="str">
@@ -6162,13 +6159,13 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="4">
@@ -6203,14 +6200,14 @@
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S70" s="4"/>
       <c r="T70" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4" t="str">
@@ -6220,7 +6217,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 76415, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 73668, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4" t="str">
@@ -6230,13 +6227,13 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="4">
@@ -6271,14 +6268,14 @@
       </c>
       <c r="P71" s="4"/>
       <c r="Q71" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S71" s="4"/>
       <c r="T71" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4" t="str">
@@ -6288,7 +6285,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 99794, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 5725, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4" t="str">
@@ -6298,13 +6295,13 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="4">
@@ -6339,14 +6336,14 @@
       </c>
       <c r="P72" s="4"/>
       <c r="Q72" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S72" s="4"/>
       <c r="T72" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U72" s="4"/>
       <c r="V72" s="4" t="str">
@@ -6356,7 +6353,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 36371, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 55432, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4" t="str">
@@ -6366,13 +6363,13 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="4">
@@ -6407,14 +6404,14 @@
       </c>
       <c r="P73" s="4"/>
       <c r="Q73" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S73" s="4"/>
       <c r="T73" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U73" s="4"/>
       <c r="V73" s="4" t="str">
@@ -6424,7 +6421,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 41950, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 94231, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4" t="str">
@@ -6434,13 +6431,13 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="4">
@@ -6475,14 +6472,14 @@
       </c>
       <c r="P74" s="4"/>
       <c r="Q74" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S74" s="4"/>
       <c r="T74" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4" t="str">
@@ -6492,7 +6489,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 92468, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 90191, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4" t="str">
@@ -6505,10 +6502,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="4">
@@ -6543,14 +6540,14 @@
       </c>
       <c r="P75" s="4"/>
       <c r="Q75" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S75" s="4"/>
       <c r="T75" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="4" t="str">
@@ -6560,7 +6557,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 27064, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 16796, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4" t="str">
@@ -6570,13 +6567,13 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="4">
@@ -6611,14 +6608,14 @@
       </c>
       <c r="P76" s="4"/>
       <c r="Q76" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S76" s="4"/>
       <c r="T76" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U76" s="4"/>
       <c r="V76" s="4" t="str">
@@ -6628,7 +6625,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 24237, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 57440, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4" t="str">
@@ -6641,10 +6638,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="4">
@@ -6679,14 +6676,14 @@
       </c>
       <c r="P77" s="4"/>
       <c r="Q77" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S77" s="4"/>
       <c r="T77" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U77" s="4"/>
       <c r="V77" s="4" t="str">
@@ -6696,7 +6693,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 55528, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 20719, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4" t="str">
@@ -6706,13 +6703,13 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="4">
@@ -6747,14 +6744,14 @@
       </c>
       <c r="P78" s="4"/>
       <c r="Q78" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S78" s="4"/>
       <c r="T78" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U78" s="4"/>
       <c r="V78" s="4" t="str">
@@ -6764,7 +6761,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 76052, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 89634, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4" t="str">
@@ -6774,13 +6771,13 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="4">
@@ -6815,14 +6812,14 @@
       </c>
       <c r="P79" s="4"/>
       <c r="Q79" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S79" s="4"/>
       <c r="T79" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U79" s="4"/>
       <c r="V79" s="4" t="str">
@@ -6832,7 +6829,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 82032, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 84914, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4" t="str">
@@ -6842,13 +6839,13 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="4">
@@ -6883,14 +6880,14 @@
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S80" s="4"/>
       <c r="T80" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U80" s="4"/>
       <c r="V80" s="4" t="str">
@@ -6900,7 +6897,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 70846, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 32214, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4" t="str">
@@ -6910,13 +6907,13 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="4">
@@ -6951,14 +6948,14 @@
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S81" s="4"/>
       <c r="T81" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="4" t="str">
@@ -6968,7 +6965,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 46842, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 75257, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4" t="str">
@@ -6978,13 +6975,13 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="4">
@@ -7019,14 +7016,14 @@
       </c>
       <c r="P82" s="4"/>
       <c r="Q82" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S82" s="4"/>
       <c r="T82" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U82" s="4"/>
       <c r="V82" s="4" t="str">
@@ -7036,7 +7033,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 96537, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 14042, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4" t="str">
@@ -7046,13 +7043,13 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="4">
@@ -7087,14 +7084,14 @@
       </c>
       <c r="P83" s="4"/>
       <c r="Q83" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S83" s="4"/>
       <c r="T83" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U83" s="4"/>
       <c r="V83" s="4" t="str">
@@ -7104,7 +7101,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 84685, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 74060, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4" t="str">
@@ -7114,13 +7111,13 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="4">
@@ -7155,14 +7152,14 @@
       </c>
       <c r="P84" s="4"/>
       <c r="Q84" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S84" s="4"/>
       <c r="T84" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U84" s="4"/>
       <c r="V84" s="4" t="str">
@@ -7172,7 +7169,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 51726, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 59124, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4" t="str">
@@ -7182,13 +7179,13 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="4">
@@ -7223,14 +7220,14 @@
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S85" s="4"/>
       <c r="T85" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U85" s="4"/>
       <c r="V85" s="4" t="str">
@@ -7240,7 +7237,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 67741, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 44482, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4" t="str">
@@ -7250,13 +7247,13 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="4">
@@ -7291,14 +7288,14 @@
       </c>
       <c r="P86" s="4"/>
       <c r="Q86" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S86" s="4"/>
       <c r="T86" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U86" s="4"/>
       <c r="V86" s="4" t="str">
@@ -7308,7 +7305,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 67755, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 24173, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4" t="str">
@@ -7318,10 +7315,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -7361,11 +7358,11 @@
         <v>Adrián</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S87" s="4"/>
       <c r="T87" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U87" s="4"/>
       <c r="V87" s="4" t="str">
@@ -7375,7 +7372,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 54405, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 20716, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4" t="str">
@@ -7385,10 +7382,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -7428,11 +7425,11 @@
         <v>Agustín</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S88" s="4"/>
       <c r="T88" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U88" s="4"/>
       <c r="V88" s="4" t="str">
@@ -7442,7 +7439,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 10264, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 41959, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4" t="str">
@@ -7452,10 +7449,10 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -7495,11 +7492,11 @@
         <v>Andrea</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S89" s="4"/>
       <c r="T89" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U89" s="4"/>
       <c r="V89" s="4" t="str">
@@ -7509,7 +7506,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 36416, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 51786, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4" t="str">
@@ -7519,10 +7516,10 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -7562,11 +7559,11 @@
         <v>Ezequiel</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S90" s="4"/>
       <c r="T90" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U90" s="4"/>
       <c r="V90" s="4" t="str">
@@ -7576,7 +7573,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 16910, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 3250, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4" t="str">
@@ -7586,10 +7583,10 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -7629,11 +7626,11 @@
         <v>Luis</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S91" s="4"/>
       <c r="T91" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U91" s="4"/>
       <c r="V91" s="4" t="str">
@@ -7643,7 +7640,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 60570, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 42218, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4" t="str">
@@ -7671,12 +7668,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -7885,6 +7876,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -7894,23 +7891,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7927,4 +7907,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F26E517-2AA5-45D3-9BD2-50432BEA1969}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000E9E7-18C8-4714-9D8B-7B876F9594AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -729,9 +729,6 @@
     <t>DBA</t>
   </si>
   <si>
-    <t>SRV</t>
-  </si>
-  <si>
     <t>Adrian_Lopez.JPG</t>
   </si>
   <si>
@@ -1039,6 +1036,9 @@
   </si>
   <si>
     <t>Fernando Olmos</t>
+  </si>
+  <si>
+    <t>OPS</t>
   </si>
 </sst>
 </file>
@@ -1456,9 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6A38B-9221-46B4-8760-38B60FB5A75C}">
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1493,13 +1491,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1509,10 +1507,10 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -1522,18 +1520,18 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4">
@@ -1571,7 +1569,7 @@
         <v>172</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="3" t="s">
@@ -1585,7 +1583,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="str">
         <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 26668, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 47832, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="str">
@@ -1598,10 +1596,10 @@
         <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="4">
@@ -1653,7 +1651,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="str">
         <f t="shared" ref="X3:X66" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q3, "', '", R3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", K3, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 28138, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 66448, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="str">
@@ -1666,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="4">
@@ -1721,7 +1719,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 32024, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 47134, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="str">
@@ -1734,10 +1732,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4">
@@ -1787,7 +1785,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 55446, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 27828, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="str">
@@ -1800,10 +1798,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="4">
@@ -1855,7 +1853,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 44409, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 61733, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="str">
@@ -1868,10 +1866,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4">
@@ -1923,7 +1921,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 11238, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 67287, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="str">
@@ -1936,10 +1934,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4">
@@ -1991,7 +1989,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 45415, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 17487, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="str">
@@ -2004,10 +2002,10 @@
         <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4">
@@ -2059,7 +2057,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 10587, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 6639, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="str">
@@ -2072,10 +2070,10 @@
         <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="4">
@@ -2127,7 +2125,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 85095, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 32954, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="str">
@@ -2140,10 +2138,10 @@
         <v>73</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4">
@@ -2195,7 +2193,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 87697, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 72142, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4" t="str">
@@ -2208,10 +2206,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4">
@@ -2263,7 +2261,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 81948, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 84546, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="str">
@@ -2276,10 +2274,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4">
@@ -2331,7 +2329,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 80702, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 81521, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="str">
@@ -2344,10 +2342,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="4">
@@ -2399,7 +2397,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 22047, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 41119, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="str">
@@ -2412,10 +2410,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4">
@@ -2467,7 +2465,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 14671, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 27490, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="str">
@@ -2480,10 +2478,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4">
@@ -2535,7 +2533,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 22483, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 23332, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4" t="str">
@@ -2548,10 +2546,10 @@
         <v>43</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="4">
@@ -2603,7 +2601,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 71949, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 3918, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="str">
@@ -2616,10 +2614,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="4">
@@ -2671,7 +2669,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 97294, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 7818, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="str">
@@ -2684,10 +2682,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="4">
@@ -2739,7 +2737,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 85358, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 73333, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="str">
@@ -2752,10 +2750,10 @@
         <v>70</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="4">
@@ -2807,7 +2805,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 13414, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 50780, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="str">
@@ -2820,10 +2818,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="4">
@@ -2875,7 +2873,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 58227, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 54107, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4" t="str">
@@ -2888,10 +2886,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="4">
@@ -2943,7 +2941,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 34880, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 96320, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4" t="str">
@@ -2956,10 +2954,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4">
@@ -3011,7 +3009,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 92063, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 12591, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4" t="str">
@@ -3024,10 +3022,10 @@
         <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="4">
@@ -3079,7 +3077,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 38695, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 58787, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4" t="str">
@@ -3092,10 +3090,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="4">
@@ -3147,7 +3145,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 1883, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 29051, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4" t="str">
@@ -3160,10 +3158,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4">
@@ -3215,7 +3213,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 27014, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 28403, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4" t="str">
@@ -3228,10 +3226,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="4">
@@ -3283,7 +3281,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 15832, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 88726, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="str">
@@ -3293,13 +3291,13 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="4">
@@ -3351,7 +3349,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 82626, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 29497, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="str">
@@ -3364,10 +3362,10 @@
         <v>55</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="4">
@@ -3419,7 +3417,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 1109, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 75489, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="str">
@@ -3432,10 +3430,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="4">
@@ -3487,7 +3485,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 8597, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 42808, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="str">
@@ -3500,10 +3498,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4">
@@ -3555,7 +3553,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 87776, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 52557, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="str">
@@ -3568,10 +3566,10 @@
         <v>59</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="4">
@@ -3623,7 +3621,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 99017, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 48782, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="str">
@@ -3636,10 +3634,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="4">
@@ -3691,7 +3689,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 28441, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 46028, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4" t="str">
@@ -3704,10 +3702,10 @@
         <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="4">
@@ -3759,7 +3757,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 11770, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 79045, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4" t="str">
@@ -3772,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4">
@@ -3827,7 +3825,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 27232, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 84536, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4" t="str">
@@ -3840,10 +3838,10 @@
         <v>48</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="4">
@@ -3895,7 +3893,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 38002, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 94651, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4" t="str">
@@ -3908,10 +3906,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="4">
@@ -3963,7 +3961,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 77434, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 72193, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4" t="str">
@@ -3976,10 +3974,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="4">
@@ -4031,7 +4029,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 41978, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 58297, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4" t="str">
@@ -4044,10 +4042,10 @@
         <v>54</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="4">
@@ -4099,7 +4097,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 68117, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 96248, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4" t="str">
@@ -4112,10 +4110,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4">
@@ -4167,7 +4165,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 99790, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 64412, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4" t="str">
@@ -4180,10 +4178,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="4">
@@ -4235,7 +4233,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 10946, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 29202, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4" t="str">
@@ -4248,10 +4246,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="4">
@@ -4303,7 +4301,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 73710, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 67362, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4" t="str">
@@ -4316,7 +4314,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
@@ -4369,7 +4367,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 56929, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 87660, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4" t="str">
@@ -4382,10 +4380,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="4">
@@ -4437,7 +4435,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 41621, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 90351, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="str">
@@ -4450,10 +4448,10 @@
         <v>13</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="4">
@@ -4505,7 +4503,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 65590, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 15982, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4" t="str">
@@ -4518,7 +4516,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -4563,22 +4561,22 @@
       </c>
       <c r="S46" s="4"/>
       <c r="T46" s="3" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>SRV</v>
+        <v>OPS</v>
       </c>
       <c r="W46" s="4"/>
       <c r="X46" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 88721, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 9750, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan Manuel' AND [P].[LastName] = 'Fagundez' AND [PR].[Code] = 'SRV'</v>
+        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan Manuel' AND [P].[LastName] = 'Fagundez' AND [PR].[Code] = 'OPS'</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
@@ -4586,10 +4584,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="4">
@@ -4645,7 +4643,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 87140, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 60590, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4" t="str">
@@ -4658,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="4">
@@ -4713,7 +4711,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 51798, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 51820, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4" t="str">
@@ -4726,10 +4724,10 @@
         <v>58</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="4">
@@ -4781,7 +4779,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 22781, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 85470, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4" t="str">
@@ -4794,10 +4792,10 @@
         <v>37</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="4">
@@ -4849,7 +4847,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 44778, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 23144, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4" t="str">
@@ -4862,10 +4860,10 @@
         <v>29</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="4">
@@ -4917,7 +4915,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 694, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 63356, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4" t="str">
@@ -4930,10 +4928,10 @@
         <v>85</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="4">
@@ -4987,7 +4985,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 44553, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 96249, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4" t="str">
@@ -5000,10 +4998,10 @@
         <v>82</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="4">
@@ -5061,7 +5059,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 22325, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 74226, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4" t="str">
@@ -5074,10 +5072,10 @@
         <v>77</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="4">
@@ -5133,7 +5131,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 48840, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 66323, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4" t="str">
@@ -5146,10 +5144,10 @@
         <v>64</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="4">
@@ -5201,7 +5199,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 73480, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 40698, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4" t="str">
@@ -5214,10 +5212,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="4">
@@ -5269,7 +5267,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 49702, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 95134, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4" t="str">
@@ -5282,10 +5280,10 @@
         <v>88</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="4">
@@ -5337,7 +5335,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 39123, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 81212, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4" t="str">
@@ -5350,10 +5348,10 @@
         <v>34</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="4">
@@ -5405,7 +5403,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 5881, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 19250, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4" t="str">
@@ -5418,10 +5416,10 @@
         <v>68</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="4">
@@ -5473,7 +5471,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 67603, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 88577, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4" t="str">
@@ -5486,10 +5484,10 @@
         <v>67</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="4">
@@ -5541,7 +5539,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 57049, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 66884, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4" t="str">
@@ -5554,10 +5552,10 @@
         <v>42</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="4">
@@ -5607,7 +5605,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 74755, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 57499, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4" t="str">
@@ -5620,10 +5618,10 @@
         <v>41</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="4">
@@ -5675,7 +5673,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 4576, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 16656, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4" t="str">
@@ -5688,10 +5686,10 @@
         <v>35</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="4">
@@ -5743,7 +5741,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 40129, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 53695, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4" t="str">
@@ -5756,10 +5754,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="4">
@@ -5811,7 +5809,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 43445, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 39886, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4" t="str">
@@ -5824,10 +5822,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="4">
@@ -5879,7 +5877,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 40018, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 5302, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4" t="str">
@@ -5892,7 +5890,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -5935,22 +5933,22 @@
       </c>
       <c r="S66" s="4"/>
       <c r="T66" s="3" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>SRV</v>
+        <v>OPS</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 68469, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 12378, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Gus' AND [PR].[Code] = 'SRV'</v>
+        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Gus' AND [PR].[Code] = 'OPS'</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
@@ -5958,10 +5956,10 @@
         <v>20</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="4">
@@ -6013,7 +6011,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4" t="str">
         <f t="shared" ref="X67:X91" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q67, "', '", R67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", K67, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 93693, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 54293, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4" t="str">
@@ -6026,10 +6024,10 @@
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="4">
@@ -6081,7 +6079,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 33430, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 48674, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4" t="str">
@@ -6094,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="4">
@@ -6149,7 +6147,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 48586, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 63106, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4" t="str">
@@ -6162,10 +6160,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="4">
@@ -6217,7 +6215,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 73668, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 87013, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4" t="str">
@@ -6230,10 +6228,10 @@
         <v>57</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="4">
@@ -6285,7 +6283,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 5725, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 42231, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4" t="str">
@@ -6298,10 +6296,10 @@
         <v>74</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="4">
@@ -6353,7 +6351,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 55432, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 18658, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4" t="str">
@@ -6366,10 +6364,10 @@
         <v>24</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="4">
@@ -6421,7 +6419,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 94231, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 45380, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4" t="str">
@@ -6434,10 +6432,10 @@
         <v>51</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="4">
@@ -6489,7 +6487,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 90191, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 79254, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4" t="str">
@@ -6502,10 +6500,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="4">
@@ -6557,7 +6555,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 16796, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 13568, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4" t="str">
@@ -6570,10 +6568,10 @@
         <v>14</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="4">
@@ -6625,7 +6623,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 57440, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 35796, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4" t="str">
@@ -6638,10 +6636,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="4">
@@ -6693,7 +6691,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 20719, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 67258, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4" t="str">
@@ -6706,10 +6704,10 @@
         <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="4">
@@ -6761,7 +6759,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 89634, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 29725, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4" t="str">
@@ -6774,10 +6772,10 @@
         <v>32</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="4">
@@ -6829,7 +6827,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 84914, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 53028, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4" t="str">
@@ -6842,10 +6840,10 @@
         <v>63</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="4">
@@ -6897,7 +6895,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 32214, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 17574, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4" t="str">
@@ -6910,10 +6908,10 @@
         <v>49</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="4">
@@ -6965,7 +6963,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 75257, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 59232, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4" t="str">
@@ -6978,10 +6976,10 @@
         <v>46</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="4">
@@ -7033,7 +7031,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 14042, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 7773, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4" t="str">
@@ -7046,10 +7044,10 @@
         <v>50</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="4">
@@ -7101,7 +7099,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 74060, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 41704, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4" t="str">
@@ -7114,10 +7112,10 @@
         <v>40</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="4">
@@ -7169,7 +7167,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 59124, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 28907, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4" t="str">
@@ -7182,10 +7180,10 @@
         <v>39</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="4">
@@ -7237,7 +7235,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 44482, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 19287, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4" t="str">
@@ -7250,10 +7248,10 @@
         <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="4">
@@ -7305,7 +7303,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 24173, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 42745, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4" t="str">
@@ -7315,10 +7313,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -7358,7 +7356,7 @@
         <v>Adrián</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S87" s="4"/>
       <c r="T87" s="5" t="s">
@@ -7372,7 +7370,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 20716, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 38713, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4" t="str">
@@ -7382,10 +7380,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -7425,7 +7423,7 @@
         <v>Agustín</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S88" s="4"/>
       <c r="T88" s="5" t="s">
@@ -7439,7 +7437,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 41959, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 31269, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4" t="str">
@@ -7449,10 +7447,10 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -7492,7 +7490,7 @@
         <v>Andrea</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S89" s="4"/>
       <c r="T89" s="5" t="s">
@@ -7506,7 +7504,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 51786, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 66959, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4" t="str">
@@ -7516,10 +7514,10 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -7559,7 +7557,7 @@
         <v>Ezequiel</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S90" s="4"/>
       <c r="T90" s="5" t="s">
@@ -7573,7 +7571,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 3250, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 81117, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4" t="str">
@@ -7583,10 +7581,10 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -7626,7 +7624,7 @@
         <v>Luis</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S91" s="4"/>
       <c r="T91" s="5" t="s">
@@ -7640,7 +7638,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 42218, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 78257, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4" t="str">
@@ -7668,6 +7666,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -7876,12 +7880,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -7891,6 +7889,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7907,21 +7922,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000E9E7-18C8-4714-9D8B-7B876F9594AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DC3C6-A14D-419F-A485-38571747F6D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -870,9 +870,6 @@
     <t>Nicolas_Lasarte.JPG</t>
   </si>
   <si>
-    <t>Nicolas_Ma¤ay.jpg</t>
-  </si>
-  <si>
     <t>Pablo_Cawen.JPG</t>
   </si>
   <si>
@@ -1039,6 +1036,9 @@
   </si>
   <si>
     <t>OPS</t>
+  </si>
+  <si>
+    <t>Nicolas_Manay.jpg</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1456,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6A38B-9221-46B4-8760-38B60FB5A75C}">
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1491,13 +1494,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1507,10 +1510,10 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -1520,18 +1523,18 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4">
@@ -1569,7 +1572,7 @@
         <v>172</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="3" t="s">
@@ -1583,7 +1586,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="str">
         <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 47832, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 35784, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="str">
@@ -1596,7 +1599,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>231</v>
@@ -1651,7 +1654,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="str">
         <f t="shared" ref="X3:X66" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q3, "', '", R3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", K3, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 66448, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 6311, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="str">
@@ -1664,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>232</v>
@@ -1719,7 +1722,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 47134, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 43714, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="str">
@@ -1732,7 +1735,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>233</v>
@@ -1785,7 +1788,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 27828, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 20374, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="str">
@@ -1798,7 +1801,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>234</v>
@@ -1853,7 +1856,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 61733, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 84910, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="str">
@@ -1866,10 +1869,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4">
@@ -1921,7 +1924,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 67287, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 26051, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="str">
@@ -1934,7 +1937,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>235</v>
@@ -1989,7 +1992,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 17487, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 19037, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="str">
@@ -2002,7 +2005,7 @@
         <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>236</v>
@@ -2057,7 +2060,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 6639, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 52268, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="str">
@@ -2070,7 +2073,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>237</v>
@@ -2125,7 +2128,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 32954, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 32425, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="str">
@@ -2138,7 +2141,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>238</v>
@@ -2193,7 +2196,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 72142, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 45664, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4" t="str">
@@ -2206,7 +2209,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>239</v>
@@ -2261,7 +2264,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 84546, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 92386, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="str">
@@ -2274,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>240</v>
@@ -2329,7 +2332,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 81521, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 7422, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="str">
@@ -2342,7 +2345,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>241</v>
@@ -2397,7 +2400,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 41119, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 99959, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="str">
@@ -2410,10 +2413,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4">
@@ -2465,7 +2468,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 27490, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 15041, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="str">
@@ -2478,7 +2481,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>242</v>
@@ -2533,7 +2536,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 23332, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 43661, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4" t="str">
@@ -2546,7 +2549,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>243</v>
@@ -2601,7 +2604,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 3918, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 90404, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="str">
@@ -2614,7 +2617,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>244</v>
@@ -2669,7 +2672,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 7818, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 98529, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="str">
@@ -2682,7 +2685,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>245</v>
@@ -2737,7 +2740,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 73333, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 88897, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="str">
@@ -2750,7 +2753,7 @@
         <v>70</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>246</v>
@@ -2805,7 +2808,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 50780, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 29711, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="str">
@@ -2818,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>247</v>
@@ -2873,7 +2876,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 54107, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 68703, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4" t="str">
@@ -2886,7 +2889,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>248</v>
@@ -2941,7 +2944,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 96320, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 14945, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4" t="str">
@@ -2954,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>249</v>
@@ -3009,7 +3012,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 12591, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 77885, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4" t="str">
@@ -3022,7 +3025,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>272</v>
@@ -3077,7 +3080,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 58787, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 30892, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4" t="str">
@@ -3090,10 +3093,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="4">
@@ -3145,7 +3148,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 29051, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 49652, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4" t="str">
@@ -3158,7 +3161,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>250</v>
@@ -3213,7 +3216,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 28403, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 28970, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4" t="str">
@@ -3226,7 +3229,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>251</v>
@@ -3281,7 +3284,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 88726, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 14927, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="str">
@@ -3291,13 +3294,13 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="4">
@@ -3349,7 +3352,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 29497, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 18091, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="str">
@@ -3362,7 +3365,7 @@
         <v>55</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>252</v>
@@ -3417,7 +3420,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 75489, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 14265, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="str">
@@ -3430,7 +3433,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>253</v>
@@ -3485,7 +3488,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 42808, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 99801, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="str">
@@ -3498,7 +3501,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>254</v>
@@ -3553,7 +3556,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 52557, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 50773, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="str">
@@ -3566,7 +3569,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>255</v>
@@ -3621,7 +3624,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 48782, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 39303, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="str">
@@ -3634,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>256</v>
@@ -3689,7 +3692,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 46028, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 91940, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4" t="str">
@@ -3702,7 +3705,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>257</v>
@@ -3757,7 +3760,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 79045, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 28288, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4" t="str">
@@ -3770,7 +3773,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>258</v>
@@ -3825,7 +3828,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 84536, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 49637, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4" t="str">
@@ -3838,7 +3841,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>259</v>
@@ -3893,7 +3896,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 94651, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 7576, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4" t="str">
@@ -3906,7 +3909,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>260</v>
@@ -3961,7 +3964,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 72193, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 73354, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4" t="str">
@@ -3974,7 +3977,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>261</v>
@@ -4029,7 +4032,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 58297, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 5691, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4" t="str">
@@ -4042,10 +4045,10 @@
         <v>54</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="4">
@@ -4097,7 +4100,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 96248, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 29540, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4" t="str">
@@ -4110,7 +4113,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>262</v>
@@ -4165,7 +4168,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 64412, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 74509, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4" t="str">
@@ -4178,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>263</v>
@@ -4233,7 +4236,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 29202, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 3486, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4" t="str">
@@ -4246,10 +4249,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="4">
@@ -4301,7 +4304,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 67362, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 39030, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4" t="str">
@@ -4314,7 +4317,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
@@ -4367,7 +4370,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 87660, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 69887, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4" t="str">
@@ -4380,7 +4383,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>264</v>
@@ -4435,7 +4438,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 90351, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 77954, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="str">
@@ -4448,10 +4451,10 @@
         <v>13</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="4">
@@ -4503,7 +4506,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 15982, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 37884, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4" t="str">
@@ -4516,7 +4519,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -4561,7 +4564,7 @@
       </c>
       <c r="S46" s="4"/>
       <c r="T46" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4" t="str">
@@ -4571,7 +4574,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 9750, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 40324, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4" t="str">
@@ -4584,7 +4587,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>265</v>
@@ -4643,7 +4646,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 60590, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 60134, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4" t="str">
@@ -4656,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>266</v>
@@ -4711,7 +4714,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 51820, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 39612, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4" t="str">
@@ -4724,7 +4727,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>267</v>
@@ -4779,7 +4782,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 85470, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 3929, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4" t="str">
@@ -4792,7 +4795,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>268</v>
@@ -4847,7 +4850,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 23144, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 37694, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4" t="str">
@@ -4860,7 +4863,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>269</v>
@@ -4915,7 +4918,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 63356, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 29742, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4" t="str">
@@ -4928,7 +4931,7 @@
         <v>85</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>270</v>
@@ -4985,7 +4988,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 96249, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 89047, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4" t="str">
@@ -4998,7 +5001,7 @@
         <v>82</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>271</v>
@@ -5059,7 +5062,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 74226, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 33754, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4" t="str">
@@ -5072,10 +5075,10 @@
         <v>77</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="4">
@@ -5131,7 +5134,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 66323, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 84184, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4" t="str">
@@ -5144,7 +5147,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>273</v>
@@ -5199,7 +5202,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 40698, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 3588, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4" t="str">
@@ -5212,7 +5215,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>274</v>
@@ -5267,7 +5270,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 95134, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 13190, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4" t="str">
@@ -5280,7 +5283,7 @@
         <v>88</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>275</v>
@@ -5335,7 +5338,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 81212, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 14542, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4" t="str">
@@ -5348,10 +5351,10 @@
         <v>34</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="4">
@@ -5403,7 +5406,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 19250, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 59697, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4" t="str">
@@ -5416,7 +5419,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>276</v>
@@ -5471,7 +5474,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 88577, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 40774, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4" t="str">
@@ -5484,7 +5487,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>277</v>
@@ -5539,7 +5542,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 66884, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 5630, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4" t="str">
@@ -5552,10 +5555,10 @@
         <v>42</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="4">
@@ -5582,7 +5585,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>Nicolas_Ma¤ay.jpg</v>
+        <v>Nicolas_Manay.jpg</v>
       </c>
       <c r="O61" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5605,7 +5608,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 57499, 0 , 'MVD/Nicolas_Ma¤ay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 53862, 0 , 'MVD/Nicolas_Manay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4" t="str">
@@ -5618,10 +5621,10 @@
         <v>41</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="4">
@@ -5673,7 +5676,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 16656, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 84708, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4" t="str">
@@ -5686,10 +5689,10 @@
         <v>35</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="4">
@@ -5741,7 +5744,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 53695, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 58230, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4" t="str">
@@ -5754,10 +5757,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="4">
@@ -5809,7 +5812,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 39886, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 97695, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4" t="str">
@@ -5822,10 +5825,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="4">
@@ -5877,7 +5880,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 5302, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 32040, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4" t="str">
@@ -5890,7 +5893,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -5933,7 +5936,7 @@
       </c>
       <c r="S66" s="4"/>
       <c r="T66" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4" t="str">
@@ -5943,7 +5946,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 12378, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 29456, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4" t="str">
@@ -5956,10 +5959,10 @@
         <v>20</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="4">
@@ -6011,7 +6014,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4" t="str">
         <f t="shared" ref="X67:X91" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q67, "', '", R67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", K67, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 54293, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 46159, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4" t="str">
@@ -6024,10 +6027,10 @@
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="4">
@@ -6079,7 +6082,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 48674, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 97358, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4" t="str">
@@ -6092,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="4">
@@ -6147,7 +6150,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 63106, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 11737, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4" t="str">
@@ -6160,10 +6163,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="4">
@@ -6215,7 +6218,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 87013, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 73056, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4" t="str">
@@ -6228,10 +6231,10 @@
         <v>57</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="4">
@@ -6283,7 +6286,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 42231, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 36570, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4" t="str">
@@ -6296,10 +6299,10 @@
         <v>74</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="4">
@@ -6351,7 +6354,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 18658, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 25860, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4" t="str">
@@ -6364,10 +6367,10 @@
         <v>24</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="4">
@@ -6419,7 +6422,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 45380, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 93101, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4" t="str">
@@ -6432,10 +6435,10 @@
         <v>51</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="4">
@@ -6487,7 +6490,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 79254, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 56635, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4" t="str">
@@ -6500,10 +6503,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="4">
@@ -6555,7 +6558,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 13568, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 66652, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4" t="str">
@@ -6568,10 +6571,10 @@
         <v>14</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="4">
@@ -6623,7 +6626,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 35796, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 18891, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4" t="str">
@@ -6636,10 +6639,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="4">
@@ -6691,7 +6694,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 67258, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 53396, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4" t="str">
@@ -6704,10 +6707,10 @@
         <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="4">
@@ -6759,7 +6762,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 29725, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 92734, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4" t="str">
@@ -6772,10 +6775,10 @@
         <v>32</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="4">
@@ -6827,7 +6830,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 53028, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 35632, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4" t="str">
@@ -6840,10 +6843,10 @@
         <v>63</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="4">
@@ -6895,7 +6898,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 17574, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 97208, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4" t="str">
@@ -6908,10 +6911,10 @@
         <v>49</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="4">
@@ -6963,7 +6966,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 59232, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 98007, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4" t="str">
@@ -6976,10 +6979,10 @@
         <v>46</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="4">
@@ -7031,7 +7034,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 7773, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 868, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4" t="str">
@@ -7044,10 +7047,10 @@
         <v>50</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="4">
@@ -7099,7 +7102,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 41704, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 46995, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4" t="str">
@@ -7112,10 +7115,10 @@
         <v>40</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="4">
@@ -7167,7 +7170,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 28907, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 11490, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4" t="str">
@@ -7180,10 +7183,10 @@
         <v>39</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="4">
@@ -7235,7 +7238,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 19287, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 38118, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4" t="str">
@@ -7248,10 +7251,10 @@
         <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="4">
@@ -7303,7 +7306,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 42745, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 14352, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4" t="str">
@@ -7313,10 +7316,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -7356,7 +7359,7 @@
         <v>Adrián</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S87" s="4"/>
       <c r="T87" s="5" t="s">
@@ -7370,7 +7373,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 38713, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 8581, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4" t="str">
@@ -7380,10 +7383,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -7423,7 +7426,7 @@
         <v>Agustín</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S88" s="4"/>
       <c r="T88" s="5" t="s">
@@ -7437,7 +7440,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 31269, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 21393, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4" t="str">
@@ -7447,10 +7450,10 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -7490,7 +7493,7 @@
         <v>Andrea</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S89" s="4"/>
       <c r="T89" s="5" t="s">
@@ -7504,7 +7507,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 66959, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 46033, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4" t="str">
@@ -7514,10 +7517,10 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -7557,7 +7560,7 @@
         <v>Ezequiel</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S90" s="4"/>
       <c r="T90" s="5" t="s">
@@ -7571,7 +7574,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 81117, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 8843, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4" t="str">
@@ -7581,10 +7584,10 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -7624,7 +7627,7 @@
         <v>Luis</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S91" s="4"/>
       <c r="T91" s="5" t="s">
@@ -7638,7 +7641,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 78257, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 5574, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4" t="str">
@@ -7666,12 +7669,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -7880,6 +7877,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -7889,23 +7892,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7922,4 +7908,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DC3C6-A14D-419F-A485-38571747F6D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72172D01-7E2F-4A5A-BDA6-713809887069}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -1457,8 +1457,8 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1586,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="str">
         <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 35784, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 76693, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="str">
@@ -1654,7 +1654,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="str">
         <f t="shared" ref="X3:X66" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q3, "', '", R3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", K3, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 6311, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 65544, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="str">
@@ -1722,7 +1722,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 43714, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 23064, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="str">
@@ -1788,7 +1788,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 20374, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 88028, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="str">
@@ -1856,7 +1856,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 84910, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 20356, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="str">
@@ -1924,7 +1924,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 26051, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 63386, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="str">
@@ -1992,7 +1992,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 19037, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 63444, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="str">
@@ -2060,7 +2060,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 52268, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 45464, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="str">
@@ -2128,7 +2128,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 32425, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 81463, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="str">
@@ -2196,7 +2196,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 45664, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 39815, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4" t="str">
@@ -2264,7 +2264,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 92386, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 47509, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="str">
@@ -2332,7 +2332,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 7422, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 58684, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="str">
@@ -2400,7 +2400,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 99959, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 81250, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="str">
@@ -2468,7 +2468,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 15041, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 85069, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="str">
@@ -2536,7 +2536,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 43661, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 99229, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4" t="str">
@@ -2604,7 +2604,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 90404, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 21445, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="str">
@@ -2672,7 +2672,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 98529, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 25508, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="str">
@@ -2740,7 +2740,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 88897, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 78605, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="str">
@@ -2808,7 +2808,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 29711, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 12708, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="str">
@@ -2876,7 +2876,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 68703, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 23707, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4" t="str">
@@ -2944,7 +2944,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 14945, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 52674, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4" t="str">
@@ -3012,7 +3012,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 77885, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 86426, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4" t="str">
@@ -3080,7 +3080,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 30892, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 95498, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4" t="str">
@@ -3148,7 +3148,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 49652, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 27469, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4" t="str">
@@ -3216,7 +3216,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 28970, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 73298, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4" t="str">
@@ -3284,7 +3284,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 14927, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 35125, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="str">
@@ -3352,7 +3352,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 18091, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 44046, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="str">
@@ -3420,7 +3420,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 14265, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 10957, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="str">
@@ -3488,7 +3488,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 99801, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 95786, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="str">
@@ -3556,7 +3556,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 50773, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 66755, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="str">
@@ -3624,7 +3624,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 39303, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 98952, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="str">
@@ -3692,7 +3692,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 91940, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 65840, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4" t="str">
@@ -3760,7 +3760,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 28288, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 48393, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4" t="str">
@@ -3828,7 +3828,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 49637, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 78008, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4" t="str">
@@ -3896,7 +3896,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 7576, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 65614, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4" t="str">
@@ -3964,7 +3964,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 73354, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 11239, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4" t="str">
@@ -4032,7 +4032,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 5691, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 31377, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4" t="str">
@@ -4100,7 +4100,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 29540, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 76639, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4" t="str">
@@ -4168,7 +4168,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 74509, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 72936, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4" t="str">
@@ -4236,7 +4236,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 3486, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 91840, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4" t="str">
@@ -4304,7 +4304,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 39030, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 76175, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4" t="str">
@@ -4370,7 +4370,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 69887, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 98737, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4" t="str">
@@ -4438,7 +4438,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 77954, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 21690, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="str">
@@ -4506,7 +4506,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 37884, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 95005, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4" t="str">
@@ -4574,7 +4574,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 40324, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 12224, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4" t="str">
@@ -4646,7 +4646,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 60134, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 73085, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4" t="str">
@@ -4714,7 +4714,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 39612, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 78573, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4" t="str">
@@ -4782,7 +4782,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 3929, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 77813, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4" t="str">
@@ -4850,7 +4850,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 37694, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 11910, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4" t="str">
@@ -4918,7 +4918,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 29742, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 59303, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4" t="str">
@@ -4988,7 +4988,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 89047, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 48489, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4" t="str">
@@ -5062,7 +5062,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 33754, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 4762, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4" t="str">
@@ -5134,7 +5134,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 84184, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 60863, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4" t="str">
@@ -5202,7 +5202,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 3588, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 73401, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4" t="str">
@@ -5270,7 +5270,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 13190, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 88443, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4" t="str">
@@ -5338,7 +5338,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 14542, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 80115, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4" t="str">
@@ -5406,7 +5406,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 59697, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 90379, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4" t="str">
@@ -5474,7 +5474,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 40774, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 21930, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4" t="str">
@@ -5542,7 +5542,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 5630, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 93899, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4" t="str">
@@ -5608,7 +5608,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 53862, 0 , 'MVD/Nicolas_Manay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 37723, 0 , 'MVD/Nicolas_Manay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4" t="str">
@@ -5676,7 +5676,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 84708, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 97600, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4" t="str">
@@ -5744,7 +5744,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 58230, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 83267, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4" t="str">
@@ -5812,7 +5812,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 97695, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 33893, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4" t="str">
@@ -5880,7 +5880,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 32040, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 94150, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4" t="str">
@@ -5946,7 +5946,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 29456, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 36962, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4" t="str">
@@ -6014,7 +6014,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4" t="str">
         <f t="shared" ref="X67:X91" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q67, "', '", R67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", K67, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 46159, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 43140, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4" t="str">
@@ -6082,7 +6082,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 97358, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 53974, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4" t="str">
@@ -6150,7 +6150,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 11737, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 13534, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4" t="str">
@@ -6218,7 +6218,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 73056, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 42078, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4" t="str">
@@ -6286,7 +6286,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 36570, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 80495, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4" t="str">
@@ -6354,7 +6354,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 25860, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 88319, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4" t="str">
@@ -6422,7 +6422,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 93101, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 34872, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4" t="str">
@@ -6490,7 +6490,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 56635, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 16699, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4" t="str">
@@ -6558,7 +6558,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 66652, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 3347, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4" t="str">
@@ -6626,7 +6626,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 18891, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 94, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4" t="str">
@@ -6694,7 +6694,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 53396, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 96249, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4" t="str">
@@ -6762,7 +6762,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 92734, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 65062, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4" t="str">
@@ -6830,7 +6830,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 35632, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 19046, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4" t="str">
@@ -6898,7 +6898,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 97208, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 76051, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4" t="str">
@@ -6966,7 +6966,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 98007, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 25620, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4" t="str">
@@ -7034,7 +7034,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 868, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 39321, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4" t="str">
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4" t="str">
@@ -7102,7 +7102,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 46995, 0 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 8917, 1 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4" t="str">
@@ -7170,7 +7170,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 11490, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 48062, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4" t="str">
@@ -7238,7 +7238,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 38118, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 75444, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4" t="str">
@@ -7306,7 +7306,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 14352, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 83704, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4" t="str">
@@ -7373,7 +7373,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 8581, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 49726, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4" t="str">
@@ -7440,7 +7440,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 21393, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 50347, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4" t="str">
@@ -7507,7 +7507,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 46033, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 24736, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4" t="str">
@@ -7574,7 +7574,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 8843, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 19458, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4" t="str">
@@ -7641,7 +7641,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 5574, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 603, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
       </c>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4" t="str">
@@ -7669,6 +7669,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -7877,12 +7883,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -7892,6 +7892,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7908,21 +7925,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72172D01-7E2F-4A5A-BDA6-713809887069}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDBF94A-AF87-4E21-9BDC-166E6C25A290}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Z$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AA$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="343">
   <si>
     <t>Pedro Minetti</t>
   </si>
@@ -1039,6 +1039,30 @@
   </si>
   <si>
     <t>Nicolas_Manay.jpg</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>TL</t>
   </si>
 </sst>
 </file>
@@ -1454,45 +1478,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6A38B-9221-46B4-8760-38B60FB5A75C}">
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:AA91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="10"/>
-    <col min="5" max="5" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1"/>
-    <col min="24" max="24" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="1"/>
-    <col min="26" max="26" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="21.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="10"/>
+    <col min="6" max="6" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1"/>
+    <col min="15" max="15" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" style="1"/>
+    <col min="18" max="18" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" style="1"/>
+    <col min="21" max="21" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" style="1"/>
+    <col min="23" max="23" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" style="1"/>
+    <col min="25" max="25" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" style="1"/>
+    <col min="27" max="27" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>328</v>
       </c>
@@ -1502,31 +1527,34 @@
       <c r="C1" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>335</v>
+      </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>323</v>
       </c>
@@ -1536,65 +1564,68 @@
       <c r="C2" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2" si="0">FIND(" ",A2)</f>
+      <c r="D2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2" si="0">FIND(" ",A2)</f>
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="str">
-        <f t="shared" ref="F2" si="1">LEFT(A2, E2-1)</f>
+      <c r="G2" s="4" t="str">
+        <f t="shared" ref="G2" si="1">LEFT(A2, F2-1)</f>
         <v>Adrián</v>
       </c>
-      <c r="G2" s="4" t="str">
-        <f t="shared" ref="G2" si="2">RIGHT(A2,LEN(A2) - E2)</f>
+      <c r="H2" s="4" t="str">
+        <f t="shared" ref="H2" si="2">RIGHT(A2,LEN(A2) - F2)</f>
         <v>Belen</v>
       </c>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="str">
-        <f t="shared" ref="N2" si="3">IF(C2="", F2, C2)</f>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="str">
+        <f t="shared" ref="O2" si="3">IF(C2="", G2, C2)</f>
         <v>Adrian_Belen.JPG</v>
       </c>
-      <c r="O2" s="4" t="str">
-        <f t="shared" ref="O2" si="4">IF(J2="", G2, J2)</f>
+      <c r="P2" s="4" t="str">
+        <f t="shared" ref="P2" si="4">IF(K2="", H2, K2)</f>
         <v>Belen</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4"/>
+      <c r="U2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4" t="str">
-        <f t="shared" ref="V2" si="5">IF(T2="", "TST", T2)</f>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="str">
+        <f t="shared" ref="W2" si="5">IF(U2="", "TST", U2)</f>
         <v>DEV</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q2, "', '", R2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", K2, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 76693, 0 , 'MVD/Adrian_Belen.JPG', 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="str">
-        <f t="shared" ref="Z2" si="6">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q2, "' AND [P].[LastName] = '", R2, "' AND [PR].[Code] = '", V2, "'")</f>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4" t="str">
+        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, '", R2, "', '", S2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", L2, ", [dbo].[GradeFromStr]('", D2,"') FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 71548, 0 , 'MVD/Adrian_Belen.JPG', 0, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="str">
+        <f t="shared" ref="AA2" si="6">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", R2, "' AND [P].[LastName] = '", S2, "' AND [PR].[Code] = '", W2, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Belen' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1604,65 +1635,68 @@
       <c r="C3" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E34" si="7">FIND(" ",A3)</f>
+      <c r="D3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F34" si="7">FIND(" ",A3)</f>
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="str">
-        <f t="shared" ref="F3" si="8">LEFT(A3, E3-1)</f>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3" si="8">LEFT(A3, F3-1)</f>
         <v>Adrián</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3" si="9">RIGHT(A3,LEN(A3) - E3)</f>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3" si="9">RIGHT(A3,LEN(A3) - F3)</f>
         <v>Lopez</v>
       </c>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3" si="10">IF(C3="", F3, C3)</f>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3" si="10">IF(C3="", G3, C3)</f>
         <v>Adrian_Lopez.JPG</v>
       </c>
-      <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3" si="11">IF(J3="", G3, J3)</f>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3" si="11">IF(K3="", H3, K3)</f>
         <v>Lopez</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4"/>
+      <c r="U3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V34" si="12">IF(T3="", "TST", T3)</f>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="str">
+        <f t="shared" ref="W3:W34" si="12">IF(U3="", "TST", U3)</f>
         <v>DEV</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4" t="str">
-        <f t="shared" ref="X3:X66" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q3, "', '", R3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", K3, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 65544, 0 , 'MVD/Adrian_Lopez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="str">
-        <f t="shared" ref="Z3:Z66" si="14">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q3, "' AND [P].[LastName] = '", R3, "' AND [PR].[Code] = '", V3, "'")</f>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4" t="str">
+        <f t="shared" ref="Y3:Y66" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, '", R3, "', '", S3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", L3, ", [dbo].[GradeFromStr]('", D3,"') FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 87969, 0 , 'MVD/Adrian_Lopez.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4" t="str">
+        <f t="shared" ref="AA3:AA66" si="14">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", R3, "' AND [P].[LastName] = '", S3, "' AND [PR].[Code] = '", W3, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Lopez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1672,65 +1706,68 @@
       <c r="C4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4">
+      <c r="D4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" ref="F4:F67" si="15">LEFT(A4, E4-1)</f>
+      <c r="G4" s="4" t="str">
+        <f t="shared" ref="G4:G67" si="15">LEFT(A4, F4-1)</f>
         <v>Alberto</v>
       </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G67" si="16">RIGHT(A4,LEN(A4) - E4)</f>
+      <c r="H4" s="4" t="str">
+        <f t="shared" ref="H4:H67" si="16">RIGHT(A4,LEN(A4) - F4)</f>
         <v>Da Cunha</v>
       </c>
-      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="str">
-        <f t="shared" ref="N4:N67" si="17">IF(C4="", F4, C4)</f>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="str">
+        <f t="shared" ref="O4:O67" si="17">IF(C4="", G4, C4)</f>
         <v>Alberto_Dacunha.JPG</v>
       </c>
-      <c r="O4" s="4" t="str">
-        <f t="shared" ref="O4:O67" si="18">IF(J4="", G4, J4)</f>
+      <c r="P4" s="4" t="str">
+        <f t="shared" ref="P4:P67" si="18">IF(K4="", H4, K4)</f>
         <v>Da Cunha</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4"/>
+      <c r="U4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4" t="str">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4" t="str">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 23064, 1 , 'MVD/Alberto_Dacunha.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 49723, 1 , 'MVD/Alberto_Dacunha.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alberto' AND [P].[LastName] = 'Da Cunha' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -1740,63 +1777,66 @@
       <c r="C5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4">
+      <c r="D5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="str">
+      <c r="G5" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alberto</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="H5" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Hernández</v>
       </c>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="str">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alberto_Hernandez.jpg</v>
       </c>
-      <c r="O5" s="4" t="str">
+      <c r="P5" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Hernández</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4" t="str">
+      <c r="T5" s="4"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4" t="str">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 88028, 0 , 'MVD/Alberto_Hernandez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 62289, 0 , 'MVD/Alberto_Hernandez.jpg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alberto' AND [P].[LastName] = 'Hernández' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1806,65 +1846,68 @@
       <c r="C6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4">
+      <c r="D6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="str">
+      <c r="G6" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alejandro</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="H6" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Capece</v>
       </c>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="str">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alejandro Capece.JPG</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="P6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Capece</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="4"/>
+      <c r="U6" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4" t="str">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4" t="str">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 20356, 0 , 'MVD/Alejandro Capece.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 24890, 0 , 'MVD/Alejandro Capece.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alejandro' AND [P].[LastName] = 'Capece' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1874,65 +1917,68 @@
       <c r="C7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4">
+      <c r="D7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="str">
+      <c r="G7" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alejandro</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="H7" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Latchinian</v>
       </c>
-      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="str">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alejandro_Latchinian.JPG</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="P7" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Latchinian</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="4"/>
+      <c r="U7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4" t="str">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 63386, 0 , 'MVD/Alejandro_Latchinian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 19450, 0 , 'MVD/Alejandro_Latchinian.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alejandro' AND [P].[LastName] = 'Latchinian' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1942,65 +1988,68 @@
       <c r="C8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4">
+      <c r="D8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="G8" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alfonso</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="H8" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Rodriguez</v>
       </c>
-      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="str">
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alfonso_Rodriguez.jpg</v>
       </c>
-      <c r="O8" s="4" t="str">
+      <c r="P8" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Rodriguez</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="4"/>
+      <c r="U8" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4" t="str">
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4" t="str">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 63444, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 19819, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alfonso' AND [P].[LastName] = 'Rodriguez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -2010,65 +2059,68 @@
       <c r="C9" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4">
+      <c r="D9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="G9" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Alvaro</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="H9" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Restuccia</v>
       </c>
-      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="str">
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Alvaro_Restuccia.jpeg</v>
       </c>
-      <c r="O9" s="4" t="str">
+      <c r="P9" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Restuccia</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="4"/>
+      <c r="U9" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4" t="str">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="str">
         <f t="shared" si="12"/>
         <v>PM</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4" t="str">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 45464, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 74146, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alvaro' AND [P].[LastName] = 'Restuccia' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -2078,65 +2130,68 @@
       <c r="C10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4">
+      <c r="D10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F10" s="4" t="str">
+      <c r="G10" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="H10" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Bores</v>
       </c>
-      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
+      <c r="K10" s="4"/>
       <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="str">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Andres_Bores.JPG</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="P10" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Bores</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="4"/>
+      <c r="U10" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4" t="str">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4" t="str">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 81463, 0 , 'MVD/Andres_Bores.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 19581, 0 , 'MVD/Andres_Bores.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Bores' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>73</v>
       </c>
@@ -2146,65 +2201,68 @@
       <c r="C11" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4">
+      <c r="D11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F11" s="4" t="str">
+      <c r="G11" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="H11" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Maedo</v>
       </c>
-      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="3">
         <v>1</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="str">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Andres_Maedo.JPG</v>
       </c>
-      <c r="O11" s="4" t="str">
+      <c r="P11" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Maedo</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="4"/>
+      <c r="U11" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4" t="str">
+      <c r="V11" s="4"/>
+      <c r="W11" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4" t="str">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 39815, 1 , 'MVD/Andres_Maedo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 10509, 1 , 'MVD/Andres_Maedo.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Maedo' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
@@ -2214,65 +2272,68 @@
       <c r="C12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4">
+      <c r="D12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F12" s="4" t="str">
+      <c r="G12" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Andrés</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="H12" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Nieves</v>
       </c>
-      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="str">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Andres_Nieves.JPG</v>
       </c>
-      <c r="O12" s="4" t="str">
+      <c r="P12" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Nieves</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="4"/>
+      <c r="U12" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4" t="str">
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4" t="str">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 47509, 0 , 'MVD/Andres_Nieves.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 31005, 0 , 'MVD/Andres_Nieves.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Nieves' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2282,65 +2343,68 @@
       <c r="C13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4">
+      <c r="D13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F13" s="4" t="str">
+      <c r="G13" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Aniela</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="H13" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Amy</v>
       </c>
-      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="str">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Aniela_Amy.JPG</v>
       </c>
-      <c r="O13" s="4" t="str">
+      <c r="P13" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Amy</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="4"/>
+      <c r="U13" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4" t="str">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4" t="str">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 58684, 0 , 'MVD/Aniela_Amy.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 78364, 0 , 'MVD/Aniela_Amy.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Aniela' AND [P].[LastName] = 'Amy' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2350,65 +2414,68 @@
       <c r="C14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4">
+      <c r="D14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F14" s="4" t="str">
+      <c r="G14" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ariel</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="H14" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Sisro</v>
       </c>
-      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="str">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Ariel_Sisro.JPG</v>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="P14" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Sisro</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="4"/>
+      <c r="U14" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4" t="str">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4" t="str">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 81250, 0 , 'MVD/Ariel_Sisro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 28424, 0 , 'MVD/Ariel_Sisro.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ariel' AND [P].[LastName] = 'Sisro' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -2418,65 +2485,68 @@
       <c r="C15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4">
+      <c r="D15" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="G15" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Beerbal</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="H15" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Abdulkhader</v>
       </c>
-      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
+      <c r="K15" s="4"/>
       <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="str">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Beerbal_Abdulkhader.JPG</v>
       </c>
-      <c r="O15" s="4" t="str">
+      <c r="P15" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Abdulkhader</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="4"/>
+      <c r="U15" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4" t="str">
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4" t="str">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 85069, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 24953, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Beerbal' AND [P].[LastName] = 'Abdulkhader' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -2486,65 +2556,68 @@
       <c r="C16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="4">
+      <c r="D16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F16" s="4" t="str">
+      <c r="G16" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Bruno</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="H16" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Candia</v>
       </c>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="3">
         <v>1</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="str">
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Bruno_Candia.JPG</v>
       </c>
-      <c r="O16" s="4" t="str">
+      <c r="P16" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Candia</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="4"/>
+      <c r="U16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4" t="str">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4" t="str">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 99229, 1 , 'MVD/Bruno_Candia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 3429, 1 , 'MVD/Bruno_Candia.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Bruno' AND [P].[LastName] = 'Candia' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2554,65 +2627,68 @@
       <c r="C17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="4">
+      <c r="D17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F17" s="4" t="str">
+      <c r="G17" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Camila</v>
       </c>
-      <c r="G17" s="4" t="str">
+      <c r="H17" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Roji</v>
       </c>
-      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="str">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Camila_Roji.jpg</v>
       </c>
-      <c r="O17" s="4" t="str">
+      <c r="P17" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Roji</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="4"/>
+      <c r="U17" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4" t="str">
+      <c r="V17" s="4"/>
+      <c r="W17" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4" t="str">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 21445, 0 , 'MVD/Camila_Roji.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 543, 0 , 'MVD/Camila_Roji.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camila' AND [P].[LastName] = 'Roji' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
@@ -2622,65 +2698,68 @@
       <c r="C18" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="4">
+      <c r="D18" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F18" s="4" t="str">
+      <c r="G18" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Camila</v>
       </c>
-      <c r="G18" s="4" t="str">
+      <c r="H18" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Sorio</v>
       </c>
-      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
+      <c r="K18" s="4"/>
       <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="str">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Camila_Sorio.jpg</v>
       </c>
-      <c r="O18" s="4" t="str">
+      <c r="P18" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Sorio</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="3" t="s">
+      <c r="T18" s="4"/>
+      <c r="U18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4" t="str">
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="str">
         <f t="shared" si="12"/>
         <v>ADMIN</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4" t="str">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 25508, 0 , 'MVD/Camila_Sorio.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 71157, 0 , 'MVD/Camila_Sorio.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camila' AND [P].[LastName] = 'Sorio' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -2690,65 +2769,68 @@
       <c r="C19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="4">
+      <c r="D19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F19" s="4" t="str">
+      <c r="G19" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Camilo</v>
       </c>
-      <c r="G19" s="4" t="str">
+      <c r="H19" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Gomez</v>
       </c>
-      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
+      <c r="K19" s="4"/>
       <c r="L19" s="3">
         <v>1</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="str">
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Camilo_Gomez.jpeg</v>
       </c>
-      <c r="O19" s="4" t="str">
+      <c r="P19" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Gomez</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="S19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="4"/>
+      <c r="U19" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4" t="str">
+      <c r="V19" s="4"/>
+      <c r="W19" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4" t="str">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 78605, 1 , 'MVD/Camilo_Gomez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 33111, 1 , 'MVD/Camilo_Gomez.jpeg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camilo' AND [P].[LastName] = 'Gomez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
@@ -2758,65 +2840,68 @@
       <c r="C20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="4">
+      <c r="D20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F20" s="4" t="str">
+      <c r="G20" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Damián</v>
       </c>
-      <c r="G20" s="4" t="str">
+      <c r="H20" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Pereira</v>
       </c>
-      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
+      <c r="K20" s="4"/>
       <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="str">
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Damian_Pereira.JPG</v>
       </c>
-      <c r="O20" s="4" t="str">
+      <c r="P20" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Pereira</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="S20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="4"/>
+      <c r="U20" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4" t="str">
+      <c r="V20" s="4"/>
+      <c r="W20" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4" t="str">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 12708, 1 , 'MVD/Damian_Pereira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 52846, 1 , 'MVD/Damian_Pereira.JPG', 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Damián' AND [P].[LastName] = 'Pereira' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -2826,65 +2911,68 @@
       <c r="C21" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4">
+      <c r="D21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F21" s="4" t="str">
+      <c r="G21" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Daniel</v>
       </c>
-      <c r="G21" s="4" t="str">
+      <c r="H21" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Cabrera</v>
       </c>
-      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
+      <c r="K21" s="4"/>
       <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="str">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Daniel_Cabrera.JPG</v>
       </c>
-      <c r="O21" s="4" t="str">
+      <c r="P21" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Cabrera</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="S21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="4"/>
+      <c r="U21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4" t="str">
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="str">
         <f t="shared" si="12"/>
         <v>PM</v>
       </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4" t="str">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 23707, 0 , 'MVD/Daniel_Cabrera.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 94483, 0 , 'MVD/Daniel_Cabrera.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Daniel' AND [P].[LastName] = 'Cabrera' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -2894,65 +2982,68 @@
       <c r="C22" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="4">
+      <c r="D22" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F22" s="4" t="str">
+      <c r="G22" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Delia</v>
       </c>
-      <c r="G22" s="4" t="str">
+      <c r="H22" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Alvarez</v>
       </c>
-      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4" t="str">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Delia_Alvarez.jpg</v>
       </c>
-      <c r="O22" s="4" t="str">
+      <c r="P22" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Alvarez</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="S22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="4"/>
+      <c r="U22" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4" t="str">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4" t="str">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 52674, 0 , 'MVD/Delia_Alvarez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 51761, 0 , 'MVD/Delia_Alvarez.jpg', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Delia' AND [P].[LastName] = 'Alvarez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
@@ -2962,65 +3053,68 @@
       <c r="C23" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="4">
+      <c r="D23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F23" s="4" t="str">
+      <c r="G23" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Eduardo</v>
       </c>
-      <c r="G23" s="4" t="str">
+      <c r="H23" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Ducer</v>
       </c>
-      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="str">
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Eduardo_Ducer.JPG</v>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="P23" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Ducer</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="4"/>
+      <c r="U23" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4" t="str">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4" t="str">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 86426, 0 , 'MVD/Eduardo_Ducer.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 80042, 0 , 'MVD/Eduardo_Ducer.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Eduardo' AND [P].[LastName] = 'Ducer' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
@@ -3030,65 +3124,68 @@
       <c r="C24" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="4">
+      <c r="D24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F24" s="4" t="str">
+      <c r="G24" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Eugenia</v>
       </c>
-      <c r="G24" s="4" t="str">
+      <c r="H24" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Pais</v>
       </c>
-      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4" t="str">
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Maria_Pais.jpg</v>
       </c>
-      <c r="O24" s="4" t="str">
+      <c r="P24" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Pais</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="S24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="4"/>
+      <c r="U24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4" t="str">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4" t="str">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 95498, 1 , 'MVD/Maria_Pais.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 13160, 1 , 'MVD/Maria_Pais.jpg', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Eugenia' AND [P].[LastName] = 'Pais' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -3098,65 +3195,68 @@
       <c r="C25" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="4">
+      <c r="D25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F25" s="4" t="str">
+      <c r="G25" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
-      <c r="G25" s="4" t="str">
+      <c r="H25" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Canet</v>
       </c>
-      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="3">
         <v>1</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="str">
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Federico_Canet.JPG</v>
       </c>
-      <c r="O25" s="4" t="str">
+      <c r="P25" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Canet</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="4"/>
+      <c r="U25" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4" t="str">
+      <c r="V25" s="4"/>
+      <c r="W25" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4" t="str">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 27469, 1 , 'MVD/Federico_Canet.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 69093, 1 , 'MVD/Federico_Canet.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'Canet' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
@@ -3166,65 +3266,68 @@
       <c r="C26" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="4">
+      <c r="D26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F26" s="4" t="str">
+      <c r="G26" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
-      <c r="G26" s="4" t="str">
+      <c r="H26" s="4" t="str">
         <f t="shared" si="16"/>
         <v>García</v>
       </c>
-      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4" t="str">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Federico_Garcia.JPG</v>
       </c>
-      <c r="O26" s="4" t="str">
+      <c r="P26" s="4" t="str">
         <f t="shared" si="18"/>
         <v>García</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="S26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="4"/>
+      <c r="U26" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4" t="str">
+      <c r="V26" s="4"/>
+      <c r="W26" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4" t="str">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 73298, 0 , 'MVD/Federico_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 21080, 0 , 'MVD/Federico_Garcia.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'García' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -3234,65 +3337,68 @@
       <c r="C27" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="4">
+      <c r="D27" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F27" s="4" t="str">
+      <c r="G27" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Federico</v>
       </c>
-      <c r="G27" s="4" t="str">
+      <c r="H27" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Trujillo</v>
       </c>
-      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="3">
         <v>1</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="str">
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Federico_Trujillo.JPG</v>
       </c>
-      <c r="O27" s="4" t="str">
+      <c r="P27" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Trujillo</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="S27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="4"/>
+      <c r="U27" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4" t="str">
+      <c r="V27" s="4"/>
+      <c r="W27" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4" t="str">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 35125, 1 , 'MVD/Federico_Trujillo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 81091, 1 , 'MVD/Federico_Trujillo.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'Trujillo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>332</v>
       </c>
@@ -3302,65 +3408,68 @@
       <c r="C28" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4">
+      <c r="D28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F28" s="4" t="str">
+      <c r="G28" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
-      <c r="G28" s="4" t="str">
+      <c r="H28" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Olmos</v>
       </c>
-      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
+      <c r="K28" s="4"/>
       <c r="L28" s="3">
         <v>1</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="str">
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Fernando_Olmos.JPG</v>
       </c>
-      <c r="O28" s="4" t="str">
+      <c r="P28" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Olmos</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="S28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="3" t="s">
+      <c r="T28" s="4"/>
+      <c r="U28" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4" t="str">
+      <c r="V28" s="4"/>
+      <c r="W28" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4" t="str">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 44046, 1 , 'MVD/Fernando_Olmos.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 8655, 1 , 'MVD/Fernando_Olmos.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Olmos' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
@@ -3370,65 +3479,68 @@
       <c r="C29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="4">
+      <c r="D29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F29" s="4" t="str">
+      <c r="G29" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
-      <c r="G29" s="4" t="str">
+      <c r="H29" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Cañas</v>
       </c>
-      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="str">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Fernando_Canas.JPG</v>
       </c>
-      <c r="O29" s="4" t="str">
+      <c r="P29" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Cañas</v>
       </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="4"/>
+      <c r="U29" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4" t="str">
+      <c r="V29" s="4"/>
+      <c r="W29" s="4" t="str">
         <f t="shared" si="12"/>
         <v>ADMIN</v>
       </c>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4" t="str">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 10957, 0 , 'MVD/Fernando_Canas.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 84854, 0 , 'MVD/Fernando_Canas.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Cañas' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
@@ -3438,65 +3550,68 @@
       <c r="C30" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4">
+      <c r="D30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F30" s="4" t="str">
+      <c r="G30" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
-      <c r="G30" s="4" t="str">
+      <c r="H30" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Stromillo</v>
       </c>
-      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
+      <c r="K30" s="4"/>
       <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4" t="str">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Fernando_Stromillo.jpg</v>
       </c>
-      <c r="O30" s="4" t="str">
+      <c r="P30" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Stromillo</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="S30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S30" s="4"/>
-      <c r="T30" s="3" t="s">
+      <c r="T30" s="4"/>
+      <c r="U30" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4" t="str">
+      <c r="V30" s="4"/>
+      <c r="W30" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4" t="str">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 95786, 0 , 'MVD/Fernando_Stromillo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 87871, 0 , 'MVD/Fernando_Stromillo.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Stromillo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
@@ -3506,65 +3621,68 @@
       <c r="C31" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4">
+      <c r="D31" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F31" s="4" t="str">
+      <c r="G31" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Gastón</v>
       </c>
-      <c r="G31" s="4" t="str">
+      <c r="H31" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Aroztegui</v>
       </c>
-      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
+      <c r="K31" s="4"/>
       <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4" t="str">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Gaston_Aroztegui.JPG</v>
       </c>
-      <c r="O31" s="4" t="str">
+      <c r="P31" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Aroztegui</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="S31" s="4"/>
-      <c r="T31" s="3" t="s">
+      <c r="T31" s="4"/>
+      <c r="U31" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4" t="str">
+      <c r="V31" s="4"/>
+      <c r="W31" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4" t="str">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 66755, 0 , 'MVD/Gaston_Aroztegui.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 90764, 0 , 'MVD/Gaston_Aroztegui.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Gastón' AND [P].[LastName] = 'Aroztegui' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -3574,65 +3692,68 @@
       <c r="C32" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="4">
+      <c r="D32" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F32" s="4" t="str">
+      <c r="G32" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Gerardo</v>
       </c>
-      <c r="G32" s="4" t="str">
+      <c r="H32" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Barbitta</v>
       </c>
-      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4" t="str">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Gerardo_Barbitta.jpg</v>
       </c>
-      <c r="O32" s="4" t="str">
+      <c r="P32" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Barbitta</v>
       </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="S32" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="4"/>
+      <c r="U32" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4" t="str">
+      <c r="V32" s="4"/>
+      <c r="W32" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4" t="str">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 98952, 0 , 'MVD/Gerardo_Barbitta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 43613, 0 , 'MVD/Gerardo_Barbitta.jpg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Gerardo' AND [P].[LastName] = 'Barbitta' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -3642,65 +3763,68 @@
       <c r="C33" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="4">
+      <c r="D33" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F33" s="4" t="str">
+      <c r="G33" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Giovanina</v>
       </c>
-      <c r="G33" s="4" t="str">
+      <c r="H33" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Chirione</v>
       </c>
-      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
+      <c r="K33" s="4"/>
       <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4" t="str">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Giovanina_Chirione.JPG</v>
       </c>
-      <c r="O33" s="4" t="str">
+      <c r="P33" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Chirione</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="S33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="3" t="s">
+      <c r="T33" s="4"/>
+      <c r="U33" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4" t="str">
+      <c r="V33" s="4"/>
+      <c r="W33" s="4" t="str">
         <f t="shared" si="12"/>
         <v>DEV</v>
       </c>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4" t="str">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 65840, 0 , 'MVD/Giovanina_Chirione.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 67402, 0 , 'MVD/Giovanina_Chirione.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Giovanina' AND [P].[LastName] = 'Chirione' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
@@ -3710,65 +3834,68 @@
       <c r="C34" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4">
+      <c r="D34" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F34" s="4" t="str">
+      <c r="G34" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Hernán</v>
       </c>
-      <c r="G34" s="4" t="str">
+      <c r="H34" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Rumbo</v>
       </c>
-      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
+      <c r="K34" s="4"/>
       <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4" t="str">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Hernan_Rumbo.JPG</v>
       </c>
-      <c r="O34" s="4" t="str">
+      <c r="P34" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Rumbo</v>
       </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="S34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S34" s="4"/>
-      <c r="T34" s="3" t="s">
+      <c r="T34" s="4"/>
+      <c r="U34" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4" t="str">
+      <c r="V34" s="4"/>
+      <c r="W34" s="4" t="str">
         <f t="shared" si="12"/>
         <v>TST</v>
       </c>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4" t="str">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 48393, 0 , 'MVD/Hernan_Rumbo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 49566, 0 , 'MVD/Hernan_Rumbo.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Hernán' AND [P].[LastName] = 'Rumbo' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -3778,65 +3905,68 @@
       <c r="C35" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="4">
-        <f t="shared" ref="E35:E66" si="19">FIND(" ",A35)</f>
+      <c r="D35" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="4">
+        <f t="shared" ref="F35:F66" si="19">FIND(" ",A35)</f>
         <v>8</v>
       </c>
-      <c r="F35" s="4" t="str">
+      <c r="G35" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Horacio</v>
       </c>
-      <c r="G35" s="4" t="str">
+      <c r="H35" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Blanco</v>
       </c>
-      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4" t="str">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Horacio_Blanco.JPG</v>
       </c>
-      <c r="O35" s="4" t="str">
+      <c r="P35" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Blanco</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="S35" s="4"/>
-      <c r="T35" s="3" t="s">
+      <c r="T35" s="4"/>
+      <c r="U35" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4" t="str">
-        <f t="shared" ref="V35:V66" si="20">IF(T35="", "TST", T35)</f>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4" t="str">
+        <f t="shared" ref="W35:W66" si="20">IF(U35="", "TST", U35)</f>
         <v>DEV</v>
       </c>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4" t="str">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 78008, 0 , 'MVD/Horacio_Blanco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 5971, 0 , 'MVD/Horacio_Blanco.JPG', 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Horacio' AND [P].[LastName] = 'Blanco' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
@@ -3846,65 +3976,68 @@
       <c r="C36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="4">
+      <c r="D36" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="4">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="F36" s="4" t="str">
+      <c r="G36" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Hugo</v>
       </c>
-      <c r="G36" s="4" t="str">
+      <c r="H36" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Ocampo</v>
       </c>
-      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
+      <c r="K36" s="4"/>
       <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
         <v>0</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4" t="str">
+      <c r="N36" s="4"/>
+      <c r="O36" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Hugo_Ocampo.JPG</v>
       </c>
-      <c r="O36" s="4" t="str">
+      <c r="P36" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Ocampo</v>
       </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="S36" s="4"/>
-      <c r="T36" s="3" t="s">
+      <c r="T36" s="4"/>
+      <c r="U36" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4" t="str">
+      <c r="V36" s="4"/>
+      <c r="W36" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4" t="str">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 65614, 0 , 'MVD/Hugo_Ocampo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 2059, 0 , 'MVD/Hugo_Ocampo.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Hugo' AND [P].[LastName] = 'Ocampo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
@@ -3914,65 +4047,68 @@
       <c r="C37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="4">
+      <c r="D37" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F37" s="4" t="str">
+      <c r="G37" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
-      <c r="G37" s="4" t="str">
+      <c r="H37" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Assandri</v>
       </c>
-      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
+      <c r="K37" s="4"/>
       <c r="L37" s="3">
         <v>1</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4" t="str">
+      <c r="M37" s="3">
+        <v>1</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Ignacio_Assandri.JPG</v>
       </c>
-      <c r="O37" s="4" t="str">
+      <c r="P37" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Assandri</v>
       </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="4"/>
+      <c r="U37" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4" t="str">
+      <c r="V37" s="4"/>
+      <c r="W37" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4" t="str">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 11239, 1 , 'MVD/Ignacio_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 72580, 1 , 'MVD/Ignacio_Assandri.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Assandri' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -3982,65 +4118,68 @@
       <c r="C38" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="4">
+      <c r="D38" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F38" s="4" t="str">
+      <c r="G38" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
-      <c r="G38" s="4" t="str">
+      <c r="H38" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Loureiro</v>
       </c>
-      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
+      <c r="K38" s="4"/>
       <c r="L38" s="3">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
         <v>0</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4" t="str">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Ignacio_Loureiro.JPG</v>
       </c>
-      <c r="O38" s="4" t="str">
+      <c r="P38" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Loureiro</v>
       </c>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="S38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="4"/>
+      <c r="U38" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4" t="str">
+      <c r="V38" s="4"/>
+      <c r="W38" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4" t="str">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 31377, 0 , 'MVD/Ignacio_Loureiro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 72259, 0 , 'MVD/Ignacio_Loureiro.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Loureiro' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
@@ -4050,65 +4189,68 @@
       <c r="C39" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="4">
+      <c r="D39" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F39" s="4" t="str">
+      <c r="G39" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ignacio</v>
       </c>
-      <c r="G39" s="4" t="str">
+      <c r="H39" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Secco</v>
       </c>
-      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
+      <c r="K39" s="4"/>
       <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
         <v>0</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4" t="str">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Ignacio_Secco.jpeg</v>
       </c>
-      <c r="O39" s="4" t="str">
+      <c r="P39" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Secco</v>
       </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="S39" s="4"/>
-      <c r="T39" s="3" t="s">
+      <c r="T39" s="4"/>
+      <c r="U39" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4" t="str">
+      <c r="V39" s="4"/>
+      <c r="W39" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4" t="str">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 76639, 0 , 'MVD/Ignacio_Secco.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 39204, 0 , 'MVD/Ignacio_Secco.jpeg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Secco' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
@@ -4118,65 +4260,68 @@
       <c r="C40" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="4">
+      <c r="D40" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F40" s="4" t="str">
+      <c r="G40" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Javier</v>
       </c>
-      <c r="G40" s="4" t="str">
+      <c r="H40" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Barrios</v>
       </c>
-      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
         <v>0</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4" t="str">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Javier_Barrios.JPG</v>
       </c>
-      <c r="O40" s="4" t="str">
+      <c r="P40" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Barrios</v>
       </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="S40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="3" t="s">
+      <c r="T40" s="4"/>
+      <c r="U40" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4" t="str">
+      <c r="V40" s="4"/>
+      <c r="W40" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4" t="str">
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 72936, 0 , 'MVD/Javier_Barrios.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 7938, 0 , 'MVD/Javier_Barrios.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Javier' AND [P].[LastName] = 'Barrios' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>27</v>
       </c>
@@ -4186,65 +4331,68 @@
       <c r="C41" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4">
+      <c r="D41" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F41" s="4" t="str">
+      <c r="G41" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Javier</v>
       </c>
-      <c r="G41" s="4" t="str">
+      <c r="H41" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Calero</v>
       </c>
-      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
+      <c r="K41" s="4"/>
       <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4" t="str">
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Javier_Calero.JPG</v>
       </c>
-      <c r="O41" s="4" t="str">
+      <c r="P41" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Calero</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="S41" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="3" t="s">
+      <c r="T41" s="4"/>
+      <c r="U41" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4" t="str">
+      <c r="V41" s="4"/>
+      <c r="W41" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4" t="str">
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 91840, 0 , 'MVD/Javier_Calero.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 35010, 0 , 'MVD/Javier_Calero.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Javier' AND [P].[LastName] = 'Calero' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -4254,65 +4402,68 @@
       <c r="C42" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="4">
+      <c r="D42" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F42" s="4" t="str">
+      <c r="G42" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Jimena</v>
       </c>
-      <c r="G42" s="4" t="str">
+      <c r="H42" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Irigaray</v>
       </c>
-      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
+      <c r="K42" s="4"/>
       <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4" t="str">
+      <c r="N42" s="4"/>
+      <c r="O42" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Jimena_Irigaray.JPG</v>
       </c>
-      <c r="O42" s="4" t="str">
+      <c r="P42" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Irigaray</v>
       </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="S42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="S42" s="4"/>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="4"/>
+      <c r="U42" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4" t="str">
+      <c r="V42" s="4"/>
+      <c r="W42" s="4" t="str">
         <f t="shared" si="20"/>
         <v>ADMIN</v>
       </c>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4" t="str">
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 76175, 0 , 'MVD/Jimena_Irigaray.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 9494, 0 , 'MVD/Jimena_Irigaray.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Jimena' AND [P].[LastName] = 'Irigaray' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -4320,65 +4471,68 @@
         <v>311</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="4">
+      <c r="D43" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F43" s="4" t="str">
+      <c r="G43" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Jorge</v>
       </c>
-      <c r="G43" s="4" t="str">
+      <c r="H43" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Jova</v>
       </c>
-      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
+      <c r="K43" s="4"/>
       <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4" t="str">
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Jorge</v>
       </c>
-      <c r="O43" s="4" t="str">
+      <c r="P43" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Jova</v>
       </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="S43" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="S43" s="4"/>
-      <c r="T43" s="3" t="s">
+      <c r="T43" s="4"/>
+      <c r="U43" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4" t="str">
+      <c r="V43" s="4"/>
+      <c r="W43" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4" t="str">
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 98737, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 76049, 1 , NULL, 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Jorge' AND [P].[LastName] = 'Jova' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>22</v>
       </c>
@@ -4388,65 +4542,68 @@
       <c r="C44" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="4">
+      <c r="D44" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="4">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="F44" s="4" t="str">
+      <c r="G44" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
-      <c r="G44" s="4" t="str">
+      <c r="H44" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Aguerre</v>
       </c>
-      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
+      <c r="K44" s="4"/>
       <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4" t="str">
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Juan_Aguerre.JPG</v>
       </c>
-      <c r="O44" s="4" t="str">
+      <c r="P44" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Aguerre</v>
       </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="S44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S44" s="4"/>
-      <c r="T44" s="3" t="s">
+      <c r="T44" s="4"/>
+      <c r="U44" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4" t="str">
+      <c r="V44" s="4"/>
+      <c r="W44" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4" t="str">
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 21690, 0 , 'MVD/Juan_Aguerre.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 63712, 0 , 'MVD/Juan_Aguerre.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan' AND [P].[LastName] = 'Aguerre' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -4456,65 +4613,68 @@
       <c r="C45" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="4">
+      <c r="D45" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="4">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="F45" s="4" t="str">
+      <c r="G45" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
-      <c r="G45" s="4" t="str">
+      <c r="H45" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Estrada</v>
       </c>
-      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
+      <c r="K45" s="4"/>
       <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4" t="str">
+      <c r="N45" s="4"/>
+      <c r="O45" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Juan_Estrada.JPG</v>
       </c>
-      <c r="O45" s="4" t="str">
+      <c r="P45" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Estrada</v>
       </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="S45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="S45" s="4"/>
-      <c r="T45" s="3" t="s">
+      <c r="T45" s="4"/>
+      <c r="U45" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4" t="str">
+      <c r="V45" s="4"/>
+      <c r="W45" s="4" t="str">
         <f t="shared" si="20"/>
         <v>PM</v>
       </c>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4" t="str">
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 95005, 0 , 'MVD/Juan_Estrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 16777, 0 , 'MVD/Juan_Estrada.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan' AND [P].[LastName] = 'Estrada' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
@@ -4522,67 +4682,70 @@
         <v>311</v>
       </c>
       <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="4">
+      <c r="D46" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="4">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="F46" s="4" t="str">
+      <c r="G46" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
-      <c r="G46" s="4" t="str">
+      <c r="H46" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Manuel Fagundez</v>
       </c>
-      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
       <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4" t="str">
+      <c r="N46" s="4"/>
+      <c r="O46" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Juan</v>
       </c>
-      <c r="O46" s="4" t="str">
+      <c r="P46" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Fagundez</v>
       </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4" t="s">
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="R46" s="4" t="s">
+      <c r="S46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="S46" s="4"/>
-      <c r="T46" s="3" t="s">
+      <c r="T46" s="4"/>
+      <c r="U46" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4" t="str">
+      <c r="V46" s="4"/>
+      <c r="W46" s="4" t="str">
         <f t="shared" si="20"/>
         <v>OPS</v>
       </c>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4" t="str">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 12224, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 16744, 0 , NULL, 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan Manuel' AND [P].[LastName] = 'Fagundez' AND [PR].[Code] = 'OPS'</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -4592,69 +4755,72 @@
       <c r="C47" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="4">
+      <c r="D47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="4">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="F47" s="4" t="str">
+      <c r="G47" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Leonardo</v>
       </c>
-      <c r="G47" s="4" t="str">
+      <c r="H47" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Mendizabal</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
+      <c r="K47" s="4"/>
       <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4" t="str">
+      <c r="N47" s="4"/>
+      <c r="O47" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Leonardo_Mendizabal.jpg</v>
       </c>
-      <c r="O47" s="4" t="str">
+      <c r="P47" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Mendizabal</v>
       </c>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4" t="s">
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="S47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="4"/>
+      <c r="U47" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4" t="str">
+      <c r="V47" s="4"/>
+      <c r="W47" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4" t="str">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 73085, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 51876, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Leonardo' AND [P].[LastName] = 'Mendizabal' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -4664,65 +4830,68 @@
       <c r="C48" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="4">
+      <c r="D48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F48" s="4" t="str">
+      <c r="G48" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Luciano</v>
       </c>
-      <c r="G48" s="4" t="str">
+      <c r="H48" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Deluca</v>
       </c>
-      <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
+      <c r="K48" s="4"/>
       <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4" t="str">
+      <c r="N48" s="4"/>
+      <c r="O48" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Luciano_Deluca.JPG</v>
       </c>
-      <c r="O48" s="4" t="str">
+      <c r="P48" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Deluca</v>
       </c>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4" t="s">
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="R48" s="4" t="s">
+      <c r="S48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S48" s="4"/>
-      <c r="T48" s="3" t="s">
+      <c r="T48" s="4"/>
+      <c r="U48" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4" t="str">
+      <c r="V48" s="4"/>
+      <c r="W48" s="4" t="str">
         <f t="shared" si="20"/>
         <v>PM</v>
       </c>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4" t="str">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 78573, 0 , 'MVD/Luciano_Deluca.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 8098, 0 , 'MVD/Luciano_Deluca.JPG', 1, [dbo].[GradeFromStr]('SC') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Luciano' AND [P].[LastName] = 'Deluca' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
@@ -4732,65 +4901,68 @@
       <c r="C49" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="4">
+      <c r="D49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F49" s="4" t="str">
+      <c r="G49" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Malvina</v>
       </c>
-      <c r="G49" s="4" t="str">
+      <c r="H49" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Jaume</v>
       </c>
-      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
+      <c r="K49" s="4"/>
       <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4" t="str">
+      <c r="N49" s="4"/>
+      <c r="O49" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Malvina_Jaume.JPG</v>
       </c>
-      <c r="O49" s="4" t="str">
+      <c r="P49" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Jaume</v>
       </c>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4" t="s">
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="R49" s="4" t="s">
+      <c r="S49" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="S49" s="4"/>
-      <c r="T49" s="3" t="s">
+      <c r="T49" s="4"/>
+      <c r="U49" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4" t="str">
+      <c r="V49" s="4"/>
+      <c r="W49" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4" t="str">
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 77813, 0 , 'MVD/Malvina_Jaume.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 34423, 0 , 'MVD/Malvina_Jaume.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Malvina' AND [P].[LastName] = 'Jaume' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>37</v>
       </c>
@@ -4800,65 +4972,68 @@
       <c r="C50" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="4">
+      <c r="D50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F50" s="4" t="str">
+      <c r="G50" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Marcelo</v>
       </c>
-      <c r="G50" s="4" t="str">
+      <c r="H50" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Zepedeo</v>
       </c>
-      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
+      <c r="K50" s="4"/>
       <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4" t="str">
+      <c r="N50" s="4"/>
+      <c r="O50" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Marcelo_Zepedeo.JPG</v>
       </c>
-      <c r="O50" s="4" t="str">
+      <c r="P50" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Zepedeo</v>
       </c>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4" t="s">
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="R50" s="4" t="s">
+      <c r="S50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="S50" s="4"/>
-      <c r="T50" s="3" t="s">
+      <c r="T50" s="4"/>
+      <c r="U50" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4" t="str">
+      <c r="V50" s="4"/>
+      <c r="W50" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4" t="str">
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 11910, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 9472, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marcelo' AND [P].[LastName] = 'Zepedeo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -4868,65 +5043,68 @@
       <c r="C51" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="4">
+      <c r="D51" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F51" s="4" t="str">
+      <c r="G51" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Marcos</v>
       </c>
-      <c r="G51" s="4" t="str">
+      <c r="H51" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Guimaraes</v>
       </c>
-      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
+      <c r="K51" s="4"/>
       <c r="L51" s="3">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4" t="str">
+      <c r="N51" s="4"/>
+      <c r="O51" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Marcos_Guimaraes.JPG</v>
       </c>
-      <c r="O51" s="4" t="str">
+      <c r="P51" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Guimaraes</v>
       </c>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4" t="s">
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="S51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S51" s="4"/>
-      <c r="T51" s="3" t="s">
+      <c r="T51" s="4"/>
+      <c r="U51" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4" t="str">
+      <c r="V51" s="4"/>
+      <c r="W51" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4" t="str">
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 59303, 0 , 'MVD/Marcos_Guimaraes.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 29563, 0 , 'MVD/Marcos_Guimaraes.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marcos' AND [P].[LastName] = 'Guimaraes' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>85</v>
       </c>
@@ -4936,67 +5114,70 @@
       <c r="C52" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="4">
+      <c r="D52" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F52" s="4" t="str">
+      <c r="G52" s="4" t="str">
         <f t="shared" si="15"/>
         <v>María</v>
       </c>
-      <c r="G52" s="4" t="str">
+      <c r="H52" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Julia Etcheverry</v>
       </c>
-      <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K52" s="3">
-        <v>1</v>
-      </c>
       <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4" t="str">
+      <c r="N52" s="4"/>
+      <c r="O52" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Maria_Etcheverry.jpg</v>
       </c>
-      <c r="O52" s="4" t="str">
+      <c r="P52" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Etcheverry</v>
       </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4" t="s">
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R52" s="4" t="s">
+      <c r="S52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="S52" s="4"/>
-      <c r="T52" s="3" t="s">
+      <c r="T52" s="4"/>
+      <c r="U52" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4" t="str">
+      <c r="V52" s="4"/>
+      <c r="W52" s="4" t="str">
         <f t="shared" si="20"/>
         <v>ADMIN</v>
       </c>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4" t="str">
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 48489, 0 , 'MVD/Maria_Etcheverry.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 55612, 0 , 'MVD/Maria_Etcheverry.jpg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'María Julia' AND [P].[LastName] = 'Etcheverry' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>82</v>
       </c>
@@ -5006,71 +5187,74 @@
       <c r="C53" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="4">
+      <c r="D53" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F53" s="4" t="str">
+      <c r="G53" s="4" t="str">
         <f t="shared" si="15"/>
         <v>María</v>
       </c>
-      <c r="G53" s="4" t="str">
+      <c r="H53" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Noel Mosqueira</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
       <c r="L53" s="3">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4" t="str">
+      <c r="N53" s="4"/>
+      <c r="O53" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Maria_Mosqueira.JPG</v>
       </c>
-      <c r="O53" s="4" t="str">
+      <c r="P53" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Mosqueira</v>
       </c>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4" t="s">
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R53" s="4" t="s">
+      <c r="S53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="3" t="s">
+      <c r="T53" s="4"/>
+      <c r="U53" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4" t="str">
+      <c r="V53" s="4"/>
+      <c r="W53" s="4" t="str">
         <f t="shared" si="20"/>
         <v>ADMIN</v>
       </c>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4" t="str">
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 4762, 0 , 'MVD/Maria_Mosqueira.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 74625, 0 , 'MVD/Maria_Mosqueira.JPG', 1, [dbo].[GradeFromStr]('TL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'María Noel' AND [P].[LastName] = 'Mosqueira' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>77</v>
       </c>
@@ -5080,69 +5264,72 @@
       <c r="C54" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="4">
+      <c r="D54" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F54" s="4" t="str">
+      <c r="G54" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Marlon</v>
       </c>
-      <c r="G54" s="4" t="str">
+      <c r="H54" s="4" t="str">
         <f t="shared" si="16"/>
         <v>González</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
+      <c r="K54" s="4"/>
       <c r="L54" s="3">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4" t="str">
+      <c r="N54" s="4"/>
+      <c r="O54" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Marlon_Gonzalez.jpg</v>
       </c>
-      <c r="O54" s="4" t="str">
+      <c r="P54" s="4" t="str">
         <f t="shared" si="18"/>
         <v>González</v>
       </c>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4" t="s">
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="R54" s="4" t="s">
+      <c r="S54" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="S54" s="4"/>
-      <c r="T54" s="3" t="s">
+      <c r="T54" s="4"/>
+      <c r="U54" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4" t="str">
+      <c r="V54" s="4"/>
+      <c r="W54" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4" t="str">
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 60863, 0 , 'MVD/Marlon_Gonzalez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 17979, 0 , 'MVD/Marlon_Gonzalez.jpg', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marlon' AND [P].[LastName] = 'González' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -5152,65 +5339,68 @@
       <c r="C55" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="4">
+      <c r="D55" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F55" s="4" t="str">
+      <c r="G55" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Martín</v>
       </c>
-      <c r="G55" s="4" t="str">
+      <c r="H55" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Acosta</v>
       </c>
-      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
+      <c r="K55" s="4"/>
       <c r="L55" s="3">
+        <v>1</v>
+      </c>
+      <c r="M55" s="3">
         <v>0</v>
       </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4" t="str">
+      <c r="N55" s="4"/>
+      <c r="O55" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Martin_Acosta.jpg</v>
       </c>
-      <c r="O55" s="4" t="str">
+      <c r="P55" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Acosta</v>
       </c>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4" t="s">
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="R55" s="4" t="s">
+      <c r="S55" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="3" t="s">
+      <c r="T55" s="4"/>
+      <c r="U55" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4" t="str">
+      <c r="V55" s="4"/>
+      <c r="W55" s="4" t="str">
         <f t="shared" si="20"/>
         <v>PM</v>
       </c>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4" t="str">
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 73401, 0 , 'MVD/Martin_Acosta.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 96407, 0 , 'MVD/Martin_Acosta.jpg', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Martín' AND [P].[LastName] = 'Acosta' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>23</v>
       </c>
@@ -5220,65 +5410,68 @@
       <c r="C56" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="4">
+      <c r="D56" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="4">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="F56" s="4" t="str">
+      <c r="G56" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Martin</v>
       </c>
-      <c r="G56" s="4" t="str">
+      <c r="H56" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Caetano</v>
       </c>
-      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
+      <c r="K56" s="4"/>
       <c r="L56" s="3">
+        <v>1</v>
+      </c>
+      <c r="M56" s="3">
         <v>0</v>
       </c>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4" t="str">
+      <c r="N56" s="4"/>
+      <c r="O56" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Martin_Caetano.JPG</v>
       </c>
-      <c r="O56" s="4" t="str">
+      <c r="P56" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Caetano</v>
       </c>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4" t="s">
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="R56" s="4" t="s">
+      <c r="S56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="S56" s="4"/>
-      <c r="T56" s="3" t="s">
+      <c r="T56" s="4"/>
+      <c r="U56" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4" t="str">
+      <c r="V56" s="4"/>
+      <c r="W56" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4" t="str">
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 88443, 0 , 'MVD/Martin_Caetano.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 83517, 0 , 'MVD/Martin_Caetano.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Martin' AND [P].[LastName] = 'Caetano' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>88</v>
       </c>
@@ -5288,65 +5481,68 @@
       <c r="C57" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="4">
+      <c r="D57" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F57" s="4" t="str">
+      <c r="G57" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Mathías</v>
       </c>
-      <c r="G57" s="4" t="str">
+      <c r="H57" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Rodríguez</v>
       </c>
-      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="3">
-        <v>1</v>
-      </c>
+      <c r="K57" s="4"/>
       <c r="L57" s="3">
         <v>1</v>
       </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4" t="str">
+      <c r="M57" s="3">
+        <v>1</v>
+      </c>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Mathias_Rodriguez.JPG</v>
       </c>
-      <c r="O57" s="4" t="str">
+      <c r="P57" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Rodríguez</v>
       </c>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4" t="s">
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="R57" s="4" t="s">
+      <c r="S57" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="S57" s="4"/>
-      <c r="T57" s="3" t="s">
+      <c r="T57" s="4"/>
+      <c r="U57" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4" t="str">
+      <c r="V57" s="4"/>
+      <c r="W57" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4" t="str">
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 80115, 1 , 'MVD/Mathias_Rodriguez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 47924, 1 , 'MVD/Mathias_Rodriguez.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Mathías' AND [P].[LastName] = 'Rodríguez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>34</v>
       </c>
@@ -5356,65 +5552,68 @@
       <c r="C58" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="4">
+      <c r="D58" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="4">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="F58" s="4" t="str">
+      <c r="G58" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Mauricio</v>
       </c>
-      <c r="G58" s="4" t="str">
+      <c r="H58" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Mora</v>
       </c>
-      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
+      <c r="K58" s="4"/>
       <c r="L58" s="3">
+        <v>1</v>
+      </c>
+      <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4" t="str">
+      <c r="N58" s="4"/>
+      <c r="O58" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Mauricio_Mora.JPG</v>
       </c>
-      <c r="O58" s="4" t="str">
+      <c r="P58" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Mora</v>
       </c>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4" t="s">
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="R58" s="4" t="s">
+      <c r="S58" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="S58" s="4"/>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="4"/>
+      <c r="U58" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4" t="str">
+      <c r="V58" s="4"/>
+      <c r="W58" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4" t="str">
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 90379, 0 , 'MVD/Mauricio_Mora.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 95184, 0 , 'MVD/Mauricio_Mora.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Mauricio' AND [P].[LastName] = 'Mora' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>68</v>
       </c>
@@ -5424,65 +5623,68 @@
       <c r="C59" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="4">
+      <c r="D59" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F59" s="4" t="str">
+      <c r="G59" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Nicolás</v>
       </c>
-      <c r="G59" s="4" t="str">
+      <c r="H59" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Gómez</v>
       </c>
-      <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
+      <c r="K59" s="4"/>
       <c r="L59" s="3">
         <v>1</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4" t="str">
+      <c r="M59" s="3">
+        <v>1</v>
+      </c>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Nicolas_Gomez.jpg</v>
       </c>
-      <c r="O59" s="4" t="str">
+      <c r="P59" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Gómez</v>
       </c>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4" t="s">
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="R59" s="4" t="s">
+      <c r="S59" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S59" s="4"/>
-      <c r="T59" s="3" t="s">
+      <c r="T59" s="4"/>
+      <c r="U59" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4" t="str">
+      <c r="V59" s="4"/>
+      <c r="W59" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4" t="str">
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 21930, 1 , 'MVD/Nicolas_Gomez.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 87246, 1 , 'MVD/Nicolas_Gomez.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolás' AND [P].[LastName] = 'Gómez' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>67</v>
       </c>
@@ -5492,65 +5694,68 @@
       <c r="C60" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="4">
+      <c r="D60" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F60" s="4" t="str">
+      <c r="G60" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Nicolás</v>
       </c>
-      <c r="G60" s="4" t="str">
+      <c r="H60" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Lasarte</v>
       </c>
-      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
+      <c r="K60" s="4"/>
       <c r="L60" s="3">
         <v>1</v>
       </c>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4" t="str">
+      <c r="M60" s="3">
+        <v>1</v>
+      </c>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Nicolas_Lasarte.JPG</v>
       </c>
-      <c r="O60" s="4" t="str">
+      <c r="P60" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Lasarte</v>
       </c>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4" t="s">
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S60" s="4"/>
-      <c r="T60" s="3" t="s">
+      <c r="T60" s="4"/>
+      <c r="U60" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4" t="str">
+      <c r="V60" s="4"/>
+      <c r="W60" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4" t="str">
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 93899, 1 , 'MVD/Nicolas_Lasarte.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 55683, 1 , 'MVD/Nicolas_Lasarte.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolás' AND [P].[LastName] = 'Lasarte' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>42</v>
       </c>
@@ -5560,63 +5765,66 @@
       <c r="C61" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="4">
+      <c r="D61" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F61" s="4" t="str">
+      <c r="G61" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Nicolas</v>
       </c>
-      <c r="G61" s="4" t="str">
+      <c r="H61" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Mañay</v>
       </c>
-      <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
+      <c r="K61" s="4"/>
       <c r="L61" s="3">
+        <v>1</v>
+      </c>
+      <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4" t="str">
+      <c r="N61" s="4"/>
+      <c r="O61" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Nicolas_Manay.jpg</v>
       </c>
-      <c r="O61" s="4" t="str">
+      <c r="P61" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Mañay</v>
       </c>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4" t="s">
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="R61" s="4" t="s">
+      <c r="S61" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="S61" s="4"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4" t="str">
+      <c r="T61" s="4"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4" t="str">
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 37723, 0 , 'MVD/Nicolas_Manay.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 52658, 0 , 'MVD/Nicolas_Manay.jpg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolas' AND [P].[LastName] = 'Mañay' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>41</v>
       </c>
@@ -5626,65 +5834,68 @@
       <c r="C62" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="4">
+      <c r="D62" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="4">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="F62" s="4" t="str">
+      <c r="G62" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Octavio</v>
       </c>
-      <c r="G62" s="4" t="str">
+      <c r="H62" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Garbarino</v>
       </c>
-      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
+      <c r="K62" s="4"/>
       <c r="L62" s="3">
         <v>1</v>
       </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4" t="str">
+      <c r="M62" s="3">
+        <v>1</v>
+      </c>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Octavio_Garbarino.jpg</v>
       </c>
-      <c r="O62" s="4" t="str">
+      <c r="P62" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Garbarino</v>
       </c>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4" t="s">
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="R62" s="4" t="s">
+      <c r="S62" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="S62" s="4"/>
-      <c r="T62" s="5" t="s">
+      <c r="T62" s="4"/>
+      <c r="U62" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4" t="str">
+      <c r="V62" s="4"/>
+      <c r="W62" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4" t="str">
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 97600, 1 , 'MVD/Octavio_Garbarino.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 65204, 1 , 'MVD/Octavio_Garbarino.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Octavio' AND [P].[LastName] = 'Garbarino' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>35</v>
       </c>
@@ -5694,65 +5905,68 @@
       <c r="C63" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="4">
+      <c r="D63" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F63" s="4" t="str">
+      <c r="G63" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G63" s="4" t="str">
+      <c r="H63" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Cawen</v>
       </c>
-      <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="3">
-        <v>1</v>
-      </c>
+      <c r="K63" s="4"/>
       <c r="L63" s="3">
+        <v>1</v>
+      </c>
+      <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4" t="str">
+      <c r="N63" s="4"/>
+      <c r="O63" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo_Cawen.JPG</v>
       </c>
-      <c r="O63" s="4" t="str">
+      <c r="P63" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Cawen</v>
       </c>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4" t="s">
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R63" s="4" t="s">
+      <c r="S63" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="S63" s="4"/>
-      <c r="T63" s="3" t="s">
+      <c r="T63" s="4"/>
+      <c r="U63" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4" t="str">
+      <c r="V63" s="4"/>
+      <c r="W63" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4" t="str">
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 83267, 0 , 'MVD/Pablo_Cawen.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 13493, 0 , 'MVD/Pablo_Cawen.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Cawen' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>9</v>
       </c>
@@ -5762,65 +5976,68 @@
       <c r="C64" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="4">
+      <c r="D64" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F64" s="4" t="str">
+      <c r="G64" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G64" s="4" t="str">
+      <c r="H64" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Da Silva</v>
       </c>
-      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
+      <c r="K64" s="4"/>
       <c r="L64" s="3">
+        <v>1</v>
+      </c>
+      <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4" t="str">
+      <c r="N64" s="4"/>
+      <c r="O64" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo_DaSilva.JPG</v>
       </c>
-      <c r="O64" s="4" t="str">
+      <c r="P64" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Da Silva</v>
       </c>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4" t="s">
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R64" s="4" t="s">
+      <c r="S64" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="S64" s="4"/>
-      <c r="T64" s="3" t="s">
+      <c r="T64" s="4"/>
+      <c r="U64" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4" t="str">
+      <c r="V64" s="4"/>
+      <c r="W64" s="4" t="str">
         <f t="shared" si="20"/>
         <v>TST</v>
       </c>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4" t="str">
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 33893, 0 , 'MVD/Pablo_DaSilva.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 61913, 0 , 'MVD/Pablo_DaSilva.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Da Silva' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>71</v>
       </c>
@@ -5830,65 +6047,68 @@
       <c r="C65" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="4">
+      <c r="D65" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F65" s="4" t="str">
+      <c r="G65" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G65" s="4" t="str">
+      <c r="H65" s="4" t="str">
         <f t="shared" si="16"/>
         <v>García</v>
       </c>
-      <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
+      <c r="K65" s="4"/>
       <c r="L65" s="3">
+        <v>1</v>
+      </c>
+      <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4" t="str">
+      <c r="N65" s="4"/>
+      <c r="O65" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo_Garcia.JPG</v>
       </c>
-      <c r="O65" s="4" t="str">
+      <c r="P65" s="4" t="str">
         <f t="shared" si="18"/>
         <v>García</v>
       </c>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4" t="s">
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R65" s="4" t="s">
+      <c r="S65" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S65" s="4"/>
-      <c r="T65" s="3" t="s">
+      <c r="T65" s="4"/>
+      <c r="U65" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4" t="str">
+      <c r="V65" s="4"/>
+      <c r="W65" s="4" t="str">
         <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4" t="str">
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 94150, 0 , 'MVD/Pablo_Garcia.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 20851, 0 , 'MVD/Pablo_Garcia.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'García' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -5896,65 +6116,68 @@
         <v>311</v>
       </c>
       <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="4">
+      <c r="D66" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="4">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F66" s="4" t="str">
+      <c r="G66" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G66" s="4" t="str">
+      <c r="H66" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Gus</v>
       </c>
-      <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
+      <c r="K66" s="4"/>
       <c r="L66" s="3">
+        <v>1</v>
+      </c>
+      <c r="M66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4" t="str">
+      <c r="N66" s="4"/>
+      <c r="O66" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo</v>
       </c>
-      <c r="O66" s="4" t="str">
+      <c r="P66" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Gus</v>
       </c>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4" t="s">
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R66" s="4" t="s">
+      <c r="S66" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S66" s="4"/>
-      <c r="T66" s="3" t="s">
+      <c r="T66" s="4"/>
+      <c r="U66" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4" t="str">
+      <c r="V66" s="4"/>
+      <c r="W66" s="4" t="str">
         <f t="shared" si="20"/>
         <v>OPS</v>
       </c>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4" t="str">
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 36962, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 94261, 0 , NULL, 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4" t="str">
         <f t="shared" si="14"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Gus' AND [PR].[Code] = 'OPS'</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>20</v>
       </c>
@@ -5964,65 +6187,68 @@
       <c r="C67" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="4">
-        <f t="shared" ref="E67:E86" si="21">FIND(" ",A67)</f>
+      <c r="D67" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="4">
+        <f t="shared" ref="F67:F86" si="21">FIND(" ",A67)</f>
         <v>6</v>
       </c>
-      <c r="F67" s="4" t="str">
+      <c r="G67" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G67" s="4" t="str">
+      <c r="H67" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Queirolo</v>
       </c>
-      <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="3">
-        <v>1</v>
-      </c>
+      <c r="K67" s="4"/>
       <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4" t="str">
+      <c r="N67" s="4"/>
+      <c r="O67" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Pablo_Queirolo.jpg</v>
       </c>
-      <c r="O67" s="4" t="str">
+      <c r="P67" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Queirolo</v>
       </c>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4" t="s">
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R67" s="4" t="s">
+      <c r="S67" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="S67" s="4"/>
-      <c r="T67" s="3" t="s">
+      <c r="T67" s="4"/>
+      <c r="U67" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4" t="str">
-        <f t="shared" ref="V67:V86" si="22">IF(T67="", "TST", T67)</f>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4" t="str">
+        <f t="shared" ref="W67:W86" si="22">IF(U67="", "TST", U67)</f>
         <v>DEV</v>
       </c>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4" t="str">
-        <f t="shared" ref="X67:X91" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, '", Q67, "', '", R67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", L67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", K67, " FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 43140, 0 , 'MVD/Pablo_Queirolo.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4" t="str">
-        <f t="shared" ref="Z67:Z86" si="24">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q67, "' AND [P].[LastName] = '", R67, "' AND [PR].[Code] = '", V67, "'")</f>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4" t="str">
+        <f t="shared" ref="Y67:Y91" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, '", R67, "', '", S67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", L67, ", [dbo].[GradeFromStr]('", D67,"') FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 45259, 0 , 'MVD/Pablo_Queirolo.jpg', 1, [dbo].[GradeFromStr]('SC') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4" t="str">
+        <f t="shared" ref="AA67:AA86" si="24">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", R67, "' AND [P].[LastName] = '", S67, "' AND [PR].[Code] = '", W67, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Queirolo' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>52</v>
       </c>
@@ -6032,65 +6258,68 @@
       <c r="C68" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="4">
+      <c r="D68" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="4">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F68" s="4" t="str">
-        <f t="shared" ref="F68:F86" si="25">LEFT(A68, E68-1)</f>
+      <c r="G68" s="4" t="str">
+        <f t="shared" ref="G68:G86" si="25">LEFT(A68, F68-1)</f>
         <v>Pablo</v>
       </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" ref="G68:G86" si="26">RIGHT(A68,LEN(A68) - E68)</f>
+      <c r="H68" s="4" t="str">
+        <f t="shared" ref="H68:H86" si="26">RIGHT(A68,LEN(A68) - F68)</f>
         <v>Uriarte</v>
       </c>
-      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="3">
-        <v>1</v>
-      </c>
+      <c r="K68" s="4"/>
       <c r="L68" s="3">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4" t="str">
-        <f t="shared" ref="N68:N86" si="27">IF(C68="", F68, C68)</f>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4" t="str">
+        <f t="shared" ref="O68:O86" si="27">IF(C68="", G68, C68)</f>
         <v>Pablo_Uriarte.jpg</v>
       </c>
-      <c r="O68" s="4" t="str">
-        <f t="shared" ref="O68:O86" si="28">IF(J68="", G68, J68)</f>
+      <c r="P68" s="4" t="str">
+        <f t="shared" ref="P68:P86" si="28">IF(K68="", H68, K68)</f>
         <v>Uriarte</v>
       </c>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4" t="s">
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R68" s="4" t="s">
+      <c r="S68" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="S68" s="4"/>
-      <c r="T68" s="3" t="s">
+      <c r="T68" s="4"/>
+      <c r="U68" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4" t="str">
+      <c r="V68" s="4"/>
+      <c r="W68" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4" t="str">
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 53974, 0 , 'MVD/Pablo_Uriarte.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 80883, 0 , 'MVD/Pablo_Uriarte.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Uriarte' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>0</v>
       </c>
@@ -6100,65 +6329,68 @@
       <c r="C69" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="4">
+      <c r="D69" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="4">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F69" s="4" t="str">
+      <c r="G69" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Pedro</v>
       </c>
-      <c r="G69" s="4" t="str">
+      <c r="H69" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Minetti</v>
       </c>
-      <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
+      <c r="K69" s="4"/>
       <c r="L69" s="3">
+        <v>1</v>
+      </c>
+      <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4" t="str">
+      <c r="N69" s="4"/>
+      <c r="O69" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Pedro_Minetti.jpg</v>
       </c>
-      <c r="O69" s="4" t="str">
+      <c r="P69" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Minetti</v>
       </c>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4" t="s">
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="R69" s="4" t="s">
+      <c r="S69" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S69" s="4"/>
-      <c r="T69" s="3" t="s">
+      <c r="T69" s="4"/>
+      <c r="U69" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4" t="str">
+      <c r="V69" s="4"/>
+      <c r="W69" s="4" t="str">
         <f t="shared" si="22"/>
         <v>ADMIN</v>
       </c>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4" t="str">
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 13534, 0 , 'MVD/Pedro_Minetti.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 59765, 0 , 'MVD/Pedro_Minetti.jpg', 1, [dbo].[GradeFromStr]('SM') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pedro' AND [P].[LastName] = 'Minetti' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>28</v>
       </c>
@@ -6168,65 +6400,68 @@
       <c r="C70" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="4">
+      <c r="D70" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="4">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F70" s="4" t="str">
+      <c r="G70" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Pedro</v>
       </c>
-      <c r="G70" s="4" t="str">
+      <c r="H70" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Tournier</v>
       </c>
-      <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="3">
-        <v>1</v>
-      </c>
+      <c r="K70" s="4"/>
       <c r="L70" s="3">
         <v>1</v>
       </c>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4" t="str">
+      <c r="M70" s="3">
+        <v>1</v>
+      </c>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Pedro_Tournier.JPG</v>
       </c>
-      <c r="O70" s="4" t="str">
+      <c r="P70" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Tournier</v>
       </c>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4" t="s">
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="R70" s="4" t="s">
+      <c r="S70" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S70" s="4"/>
-      <c r="T70" s="3" t="s">
+      <c r="T70" s="4"/>
+      <c r="U70" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4" t="str">
+      <c r="V70" s="4"/>
+      <c r="W70" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4" t="str">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 42078, 1 , 'MVD/Pedro_Tournier.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 51598, 1 , 'MVD/Pedro_Tournier.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pedro' AND [P].[LastName] = 'Tournier' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
@@ -6236,65 +6471,68 @@
       <c r="C71" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="4">
+      <c r="D71" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="4">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="F71" s="4" t="str">
+      <c r="G71" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Raidel</v>
       </c>
-      <c r="G71" s="4" t="str">
+      <c r="H71" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Gonzalez</v>
       </c>
-      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="3">
-        <v>1</v>
-      </c>
+      <c r="K71" s="4"/>
       <c r="L71" s="3">
+        <v>1</v>
+      </c>
+      <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4" t="str">
+      <c r="N71" s="4"/>
+      <c r="O71" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Raidel_Gonzalez.jpeg</v>
       </c>
-      <c r="O71" s="4" t="str">
+      <c r="P71" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Gonzalez</v>
       </c>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4" t="s">
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="R71" s="4" t="s">
+      <c r="S71" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="S71" s="4"/>
-      <c r="T71" s="3" t="s">
+      <c r="T71" s="4"/>
+      <c r="U71" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4" t="str">
+      <c r="V71" s="4"/>
+      <c r="W71" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4" t="str">
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 80495, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 79674, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Raidel' AND [P].[LastName] = 'Gonzalez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>74</v>
       </c>
@@ -6304,65 +6542,68 @@
       <c r="C72" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="4">
+      <c r="D72" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="4">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="F72" s="4" t="str">
+      <c r="G72" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Raúl</v>
       </c>
-      <c r="G72" s="4" t="str">
+      <c r="H72" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Fossemale</v>
       </c>
-      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="3">
-        <v>1</v>
-      </c>
+      <c r="K72" s="4"/>
       <c r="L72" s="3">
+        <v>1</v>
+      </c>
+      <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4" t="str">
+      <c r="N72" s="4"/>
+      <c r="O72" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Raul_Fossemale.JPG</v>
       </c>
-      <c r="O72" s="4" t="str">
+      <c r="P72" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Fossemale</v>
       </c>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4" t="s">
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="R72" s="4" t="s">
+      <c r="S72" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="S72" s="4"/>
-      <c r="T72" s="3" t="s">
+      <c r="T72" s="4"/>
+      <c r="U72" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4" t="str">
+      <c r="V72" s="4"/>
+      <c r="W72" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4" t="str">
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 88319, 0 , 'MVD/Raul_Fossemale.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 23331, 0 , 'MVD/Raul_Fossemale.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Raúl' AND [P].[LastName] = 'Fossemale' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
@@ -6372,65 +6613,68 @@
       <c r="C73" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="4">
+      <c r="D73" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F73" s="4" t="str">
+      <c r="G73" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Roberto</v>
       </c>
-      <c r="G73" s="4" t="str">
+      <c r="H73" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Assandri</v>
       </c>
-      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="3">
-        <v>1</v>
-      </c>
+      <c r="K73" s="4"/>
       <c r="L73" s="3">
+        <v>1</v>
+      </c>
+      <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4" t="str">
+      <c r="N73" s="4"/>
+      <c r="O73" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Roberto_Assandri.JPG</v>
       </c>
-      <c r="O73" s="4" t="str">
+      <c r="P73" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Assandri</v>
       </c>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4" t="s">
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="R73" s="4" t="s">
+      <c r="S73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="S73" s="4"/>
-      <c r="T73" s="3" t="s">
+      <c r="T73" s="4"/>
+      <c r="U73" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4" t="str">
+      <c r="V73" s="4"/>
+      <c r="W73" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4" t="str">
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 34872, 0 , 'MVD/Roberto_Assandri.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 13530, 0 , 'MVD/Roberto_Assandri.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Roberto' AND [P].[LastName] = 'Assandri' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>51</v>
       </c>
@@ -6440,65 +6684,68 @@
       <c r="C74" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="4">
+      <c r="D74" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F74" s="4" t="str">
+      <c r="G74" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Rodrigo</v>
       </c>
-      <c r="G74" s="4" t="str">
+      <c r="H74" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Alvarez</v>
       </c>
-      <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="3">
-        <v>1</v>
-      </c>
+      <c r="K74" s="4"/>
       <c r="L74" s="3">
+        <v>1</v>
+      </c>
+      <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4" t="str">
+      <c r="N74" s="4"/>
+      <c r="O74" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Rodrigo_Alvarez.JPG</v>
       </c>
-      <c r="O74" s="4" t="str">
+      <c r="P74" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Alvarez</v>
       </c>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4" t="s">
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="R74" s="4" t="s">
+      <c r="S74" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="S74" s="4"/>
-      <c r="T74" s="3" t="s">
+      <c r="T74" s="4"/>
+      <c r="U74" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4" t="str">
+      <c r="V74" s="4"/>
+      <c r="W74" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4" t="str">
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 16699, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 93282, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Rodrigo' AND [P].[LastName] = 'Alvarez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
@@ -6508,65 +6755,68 @@
       <c r="C75" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="4">
+      <c r="D75" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F75" s="4" t="str">
+      <c r="G75" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Rodrigo</v>
       </c>
-      <c r="G75" s="4" t="str">
+      <c r="H75" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Valdez</v>
       </c>
-      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="3">
-        <v>1</v>
-      </c>
+      <c r="K75" s="4"/>
       <c r="L75" s="3">
+        <v>1</v>
+      </c>
+      <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4" t="str">
+      <c r="N75" s="4"/>
+      <c r="O75" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Rodrigo_Valdez.JPG</v>
       </c>
-      <c r="O75" s="4" t="str">
+      <c r="P75" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Valdez</v>
       </c>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4" t="s">
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="R75" s="4" t="s">
+      <c r="S75" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S75" s="4"/>
-      <c r="T75" s="3" t="s">
+      <c r="T75" s="4"/>
+      <c r="U75" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4" t="str">
+      <c r="V75" s="4"/>
+      <c r="W75" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4" t="str">
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 3347, 0 , 'MVD/Rodrigo_Valdez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 2994, 0 , 'MVD/Rodrigo_Valdez.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Rodrigo' AND [P].[LastName] = 'Valdez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
@@ -6576,65 +6826,68 @@
       <c r="C76" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="4">
+      <c r="D76" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="4">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F76" s="4" t="str">
+      <c r="G76" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Ruben</v>
       </c>
-      <c r="G76" s="4" t="str">
+      <c r="H76" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Bracco</v>
       </c>
-      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="3">
-        <v>1</v>
-      </c>
+      <c r="K76" s="4"/>
       <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4" t="str">
+      <c r="N76" s="4"/>
+      <c r="O76" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Ruben_Bracco.JPG</v>
       </c>
-      <c r="O76" s="4" t="str">
+      <c r="P76" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Bracco</v>
       </c>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4" t="s">
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="R76" s="4" t="s">
+      <c r="S76" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S76" s="4"/>
-      <c r="T76" s="3" t="s">
+      <c r="T76" s="4"/>
+      <c r="U76" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4" t="str">
+      <c r="V76" s="4"/>
+      <c r="W76" s="4" t="str">
         <f t="shared" si="22"/>
         <v>PM</v>
       </c>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4" t="str">
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 94, 0 , 'MVD/Ruben_Bracco.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 32547, 0 , 'MVD/Ruben_Bracco.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ruben' AND [P].[LastName] = 'Bracco' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -6644,65 +6897,68 @@
       <c r="C77" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="4">
+      <c r="D77" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="4">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="F77" s="4" t="str">
+      <c r="G77" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Santiago</v>
       </c>
-      <c r="G77" s="4" t="str">
+      <c r="H77" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Ferreiro</v>
       </c>
-      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="3">
-        <v>1</v>
-      </c>
+      <c r="K77" s="4"/>
       <c r="L77" s="3">
+        <v>1</v>
+      </c>
+      <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4" t="str">
+      <c r="N77" s="4"/>
+      <c r="O77" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Santiago_Ferreiro.jpg</v>
       </c>
-      <c r="O77" s="4" t="str">
+      <c r="P77" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Ferreiro</v>
       </c>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4" t="s">
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="R77" s="4" t="s">
+      <c r="S77" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S77" s="4"/>
-      <c r="T77" s="3" t="s">
+      <c r="T77" s="4"/>
+      <c r="U77" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4" t="str">
+      <c r="V77" s="4"/>
+      <c r="W77" s="4" t="str">
         <f t="shared" si="22"/>
         <v>PM</v>
       </c>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4" t="str">
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 96249, 0 , 'MVD/Santiago_Ferreiro.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 99107, 0 , 'MVD/Santiago_Ferreiro.jpg', 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Santiago' AND [P].[LastName] = 'Ferreiro' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -6712,65 +6968,68 @@
       <c r="C78" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="4">
+      <c r="D78" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="4">
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="F78" s="4" t="str">
+      <c r="G78" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Sebastian</v>
       </c>
-      <c r="G78" s="4" t="str">
+      <c r="H78" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Queirolo</v>
       </c>
-      <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="3">
-        <v>1</v>
-      </c>
+      <c r="K78" s="4"/>
       <c r="L78" s="3">
+        <v>1</v>
+      </c>
+      <c r="M78" s="3">
         <v>0</v>
       </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4" t="str">
+      <c r="N78" s="4"/>
+      <c r="O78" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Sebastian_Queirolo.JPG</v>
       </c>
-      <c r="O78" s="4" t="str">
+      <c r="P78" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Queirolo</v>
       </c>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4" t="s">
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="R78" s="4" t="s">
+      <c r="S78" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="S78" s="4"/>
-      <c r="T78" s="3" t="s">
+      <c r="T78" s="4"/>
+      <c r="U78" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4" t="str">
+      <c r="V78" s="4"/>
+      <c r="W78" s="4" t="str">
         <f t="shared" si="22"/>
         <v>PM</v>
       </c>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4" t="str">
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 65062, 0 , 'MVD/Sebastian_Queirolo.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 25302, 0 , 'MVD/Sebastian_Queirolo.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Sebastian' AND [P].[LastName] = 'Queirolo' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
@@ -6780,65 +7039,68 @@
       <c r="C79" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="4">
+      <c r="D79" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="4">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="F79" s="4" t="str">
+      <c r="G79" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Silvia</v>
       </c>
-      <c r="G79" s="4" t="str">
+      <c r="H79" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Derkoyorikian</v>
       </c>
-      <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="3">
-        <v>1</v>
-      </c>
+      <c r="K79" s="4"/>
       <c r="L79" s="3">
+        <v>1</v>
+      </c>
+      <c r="M79" s="3">
         <v>0</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4" t="str">
+      <c r="N79" s="4"/>
+      <c r="O79" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Silvia_Derkoyorikian.JPG</v>
       </c>
-      <c r="O79" s="4" t="str">
+      <c r="P79" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Derkoyorikian</v>
       </c>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4" t="s">
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R79" s="4" t="s">
+      <c r="S79" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S79" s="4"/>
-      <c r="T79" s="3" t="s">
+      <c r="T79" s="4"/>
+      <c r="U79" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4" t="str">
+      <c r="V79" s="4"/>
+      <c r="W79" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DBA</v>
       </c>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4" t="str">
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 19046, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 44500, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Silvia' AND [P].[LastName] = 'Derkoyorikian' AND [PR].[Code] = 'DBA'</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>63</v>
       </c>
@@ -6848,65 +7110,68 @@
       <c r="C80" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="4">
+      <c r="D80" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="4">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="F80" s="4" t="str">
+      <c r="G80" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Valentín</v>
       </c>
-      <c r="G80" s="4" t="str">
+      <c r="H80" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Gadola</v>
       </c>
-      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="3">
-        <v>1</v>
-      </c>
+      <c r="K80" s="4"/>
       <c r="L80" s="3">
+        <v>1</v>
+      </c>
+      <c r="M80" s="3">
         <v>0</v>
       </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4" t="str">
+      <c r="N80" s="4"/>
+      <c r="O80" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Valentin_Gadola.jpg</v>
       </c>
-      <c r="O80" s="4" t="str">
+      <c r="P80" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Gadola</v>
       </c>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4" t="s">
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="R80" s="4" t="s">
+      <c r="S80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="S80" s="4"/>
-      <c r="T80" s="3" t="s">
+      <c r="T80" s="4"/>
+      <c r="U80" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4" t="str">
+      <c r="V80" s="4"/>
+      <c r="W80" s="4" t="str">
         <f t="shared" si="22"/>
         <v>PM</v>
       </c>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4" t="str">
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 76051, 0 , 'MVD/Valentin_Gadola.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 88656, 0 , 'MVD/Valentin_Gadola.jpg', 1, [dbo].[GradeFromStr]('SC') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Valentín' AND [P].[LastName] = 'Gadola' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>49</v>
       </c>
@@ -6916,65 +7181,68 @@
       <c r="C81" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="4">
+      <c r="D81" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F81" s="4" t="str">
+      <c r="G81" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Valeria</v>
       </c>
-      <c r="G81" s="4" t="str">
+      <c r="H81" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Rotunno</v>
       </c>
-      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="3">
-        <v>1</v>
-      </c>
+      <c r="K81" s="4"/>
       <c r="L81" s="3">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4" t="str">
+      <c r="N81" s="4"/>
+      <c r="O81" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Valeria_Rotunno.JPG</v>
       </c>
-      <c r="O81" s="4" t="str">
+      <c r="P81" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Rotunno</v>
       </c>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4" t="s">
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="R81" s="4" t="s">
+      <c r="S81" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S81" s="4"/>
-      <c r="T81" s="3" t="s">
+      <c r="T81" s="4"/>
+      <c r="U81" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4" t="str">
+      <c r="V81" s="4"/>
+      <c r="W81" s="4" t="str">
         <f t="shared" si="22"/>
         <v>ADMIN</v>
       </c>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4" t="str">
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 25620, 0 , 'MVD/Valeria_Rotunno.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 4264, 0 , 'MVD/Valeria_Rotunno.JPG', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Valeria' AND [P].[LastName] = 'Rotunno' AND [PR].[Code] = 'ADMIN'</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>46</v>
       </c>
@@ -6984,65 +7252,68 @@
       <c r="C82" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="4">
+      <c r="D82" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="4">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="F82" s="4" t="str">
+      <c r="G82" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Victoria</v>
       </c>
-      <c r="G82" s="4" t="str">
+      <c r="H82" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Andrada</v>
       </c>
-      <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="3">
-        <v>1</v>
-      </c>
+      <c r="K82" s="4"/>
       <c r="L82" s="3">
+        <v>1</v>
+      </c>
+      <c r="M82" s="3">
         <v>0</v>
       </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4" t="str">
+      <c r="N82" s="4"/>
+      <c r="O82" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Victoria_Andrada.JPG</v>
       </c>
-      <c r="O82" s="4" t="str">
+      <c r="P82" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Andrada</v>
       </c>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4" t="s">
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R82" s="4" t="s">
+      <c r="S82" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="S82" s="4"/>
-      <c r="T82" s="5" t="s">
+      <c r="T82" s="4"/>
+      <c r="U82" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4" t="str">
+      <c r="V82" s="4"/>
+      <c r="W82" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4" t="str">
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 39321, 0 , 'MVD/Victoria_Andrada.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 82715, 0 , 'MVD/Victoria_Andrada.JPG', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Victoria' AND [P].[LastName] = 'Andrada' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>50</v>
       </c>
@@ -7052,65 +7323,68 @@
       <c r="C83" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="4">
+      <c r="D83" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="4">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="F83" s="4" t="str">
+      <c r="G83" s="4" t="str">
         <f t="shared" si="25"/>
         <v>William</v>
       </c>
-      <c r="G83" s="4" t="str">
+      <c r="H83" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Claro</v>
       </c>
-      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="3">
-        <v>1</v>
-      </c>
+      <c r="K83" s="4"/>
       <c r="L83" s="3">
         <v>1</v>
       </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4" t="str">
+      <c r="M83" s="3">
+        <v>1</v>
+      </c>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4" t="str">
         <f t="shared" si="27"/>
         <v>William_Claro.JPG</v>
       </c>
-      <c r="O83" s="4" t="str">
+      <c r="P83" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Claro</v>
       </c>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4" t="s">
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="R83" s="4" t="s">
+      <c r="S83" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S83" s="4"/>
-      <c r="T83" s="3" t="s">
+      <c r="T83" s="4"/>
+      <c r="U83" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4" t="str">
+      <c r="V83" s="4"/>
+      <c r="W83" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4" t="str">
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 8917, 1 , 'MVD/William_Claro.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 10899, 1 , 'MVD/William_Claro.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'William' AND [P].[LastName] = 'Claro' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>40</v>
       </c>
@@ -7120,65 +7394,68 @@
       <c r="C84" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="4">
+      <c r="D84" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="4">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="F84" s="4" t="str">
+      <c r="G84" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Yago</v>
       </c>
-      <c r="G84" s="4" t="str">
+      <c r="H84" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Auza</v>
       </c>
-      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="3">
-        <v>1</v>
-      </c>
+      <c r="K84" s="4"/>
       <c r="L84" s="3">
+        <v>1</v>
+      </c>
+      <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4" t="str">
+      <c r="N84" s="4"/>
+      <c r="O84" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Yago_Auza.jpg</v>
       </c>
-      <c r="O84" s="4" t="str">
+      <c r="P84" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Auza</v>
       </c>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4" t="s">
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="R84" s="4" t="s">
+      <c r="S84" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="S84" s="4"/>
-      <c r="T84" s="3" t="s">
+      <c r="T84" s="4"/>
+      <c r="U84" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4" t="str">
+      <c r="V84" s="4"/>
+      <c r="W84" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4" t="str">
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 48062, 0 , 'MVD/Yago_Auza.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 51094, 0 , 'MVD/Yago_Auza.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yago' AND [P].[LastName] = 'Auza' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>39</v>
       </c>
@@ -7188,65 +7465,68 @@
       <c r="C85" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="4">
+      <c r="D85" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="4">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="F85" s="4" t="str">
+      <c r="G85" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Yanara</v>
       </c>
-      <c r="G85" s="4" t="str">
+      <c r="H85" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Valdes</v>
       </c>
-      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="3">
-        <v>1</v>
-      </c>
+      <c r="K85" s="4"/>
       <c r="L85" s="3">
+        <v>1</v>
+      </c>
+      <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4" t="str">
+      <c r="N85" s="4"/>
+      <c r="O85" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Yanara_Valdes.jpg</v>
       </c>
-      <c r="O85" s="4" t="str">
+      <c r="P85" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Valdes</v>
       </c>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4" t="s">
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="R85" s="4" t="s">
+      <c r="S85" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="S85" s="4"/>
-      <c r="T85" s="5" t="s">
+      <c r="T85" s="4"/>
+      <c r="U85" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4" t="str">
+      <c r="V85" s="4"/>
+      <c r="W85" s="4" t="str">
         <f t="shared" si="22"/>
         <v>DEV</v>
       </c>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4" t="str">
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 75444, 0 , 'MVD/Yanara_Valdes.jpg', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 86941, 0 , 'MVD/Yanara_Valdes.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yanara' AND [P].[LastName] = 'Valdes' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>66</v>
       </c>
@@ -7256,65 +7536,68 @@
       <c r="C86" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="4">
+      <c r="D86" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="4">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="F86" s="4" t="str">
+      <c r="G86" s="4" t="str">
         <f t="shared" si="25"/>
         <v>Yony</v>
       </c>
-      <c r="G86" s="4" t="str">
+      <c r="H86" s="4" t="str">
         <f t="shared" si="26"/>
         <v>Gómez</v>
       </c>
-      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="3">
-        <v>1</v>
-      </c>
+      <c r="K86" s="4"/>
       <c r="L86" s="3">
+        <v>1</v>
+      </c>
+      <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4" t="str">
+      <c r="N86" s="4"/>
+      <c r="O86" s="4" t="str">
         <f t="shared" si="27"/>
         <v>Yony_Gomez.JPG</v>
       </c>
-      <c r="O86" s="4" t="str">
+      <c r="P86" s="4" t="str">
         <f t="shared" si="28"/>
         <v>Gómez</v>
       </c>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4" t="s">
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="R86" s="4" t="s">
+      <c r="S86" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S86" s="4"/>
-      <c r="T86" s="3" t="s">
+      <c r="T86" s="4"/>
+      <c r="U86" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4" t="str">
+      <c r="V86" s="4"/>
+      <c r="W86" s="4" t="str">
         <f t="shared" si="22"/>
         <v>UX</v>
       </c>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4" t="str">
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 83704, 0 , 'MVD/Yony_Gomez.JPG', 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
-      </c>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 48926, 0 , 'MVD/Yony_Gomez.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+      </c>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yony' AND [P].[LastName] = 'Gómez' AND [PR].[Code] = 'UX'</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>317</v>
       </c>
@@ -7322,66 +7605,69 @@
         <v>322</v>
       </c>
       <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="4">
-        <f t="shared" ref="E87:E91" si="29">FIND(" ",A87)</f>
+      <c r="D87" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="4">
+        <f t="shared" ref="F87:F91" si="29">FIND(" ",A87)</f>
         <v>7</v>
       </c>
-      <c r="F87" s="4" t="str">
-        <f t="shared" ref="F87:F91" si="30">LEFT(A87, E87-1)</f>
+      <c r="G87" s="4" t="str">
+        <f t="shared" ref="G87:G91" si="30">LEFT(A87, F87-1)</f>
         <v>Adrián</v>
       </c>
-      <c r="G87" s="4" t="str">
-        <f t="shared" ref="G87:G91" si="31">RIGHT(A87,LEN(A87) - E87)</f>
+      <c r="H87" s="4" t="str">
+        <f t="shared" ref="H87:H91" si="31">RIGHT(A87,LEN(A87) - F87)</f>
         <v>Costa</v>
       </c>
-      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="3">
-        <v>1</v>
-      </c>
+      <c r="K87" s="4"/>
       <c r="L87" s="3">
+        <v>1</v>
+      </c>
+      <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4" t="str">
-        <f t="shared" ref="N87:N91" si="32">IF(C87="", F87, C87)</f>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4" t="str">
+        <f t="shared" ref="O87:O91" si="32">IF(C87="", G87, C87)</f>
         <v>Adrián</v>
       </c>
-      <c r="O87" s="4" t="str">
-        <f t="shared" ref="O87:O91" si="33">IF(J87="", G87, J87)</f>
+      <c r="P87" s="4" t="str">
+        <f t="shared" ref="P87:P91" si="33">IF(K87="", H87, K87)</f>
         <v>Costa</v>
       </c>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4" t="str">
-        <f t="shared" ref="Q87:Q91" si="34">IF(F87="", I87, F87)</f>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4" t="str">
+        <f t="shared" ref="R87:R91" si="34">IF(G87="", J87, G87)</f>
         <v>Adrián</v>
       </c>
-      <c r="R87" s="4" t="s">
+      <c r="S87" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="S87" s="4"/>
-      <c r="T87" s="5" t="s">
+      <c r="T87" s="4"/>
+      <c r="U87" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4" t="str">
-        <f t="shared" ref="V87:V91" si="35">IF(T87="", "TST", T87)</f>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4" t="str">
+        <f t="shared" ref="W87:W91" si="35">IF(U87="", "TST", U87)</f>
         <v>PM</v>
       </c>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4" t="str">
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 49726, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4" t="str">
-        <f t="shared" ref="Z87:Z91" si="36">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", Q87, "' AND [P].[LastName] = '", R87, "' AND [PR].[Code] = '", V87, "'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 64124, 0 , NULL, 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4" t="str">
+        <f t="shared" ref="AA87:AA91" si="36">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", R87, "' AND [P].[LastName] = '", S87, "' AND [PR].[Code] = '", W87, "'")</f>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Costa' AND [PR].[Code] = 'PM'</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>318</v>
       </c>
@@ -7389,66 +7675,69 @@
         <v>322</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="4">
+      <c r="D88" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="4">
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
-      <c r="F88" s="4" t="str">
+      <c r="G88" s="4" t="str">
         <f t="shared" si="30"/>
         <v>Agustín</v>
       </c>
-      <c r="G88" s="4" t="str">
+      <c r="H88" s="4" t="str">
         <f t="shared" si="31"/>
         <v>Narvaez</v>
       </c>
-      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="3">
-        <v>1</v>
-      </c>
+      <c r="K88" s="4"/>
       <c r="L88" s="3">
         <v>1</v>
       </c>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4" t="str">
+      <c r="M88" s="3">
+        <v>1</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Agustín</v>
       </c>
-      <c r="O88" s="4" t="str">
+      <c r="P88" s="4" t="str">
         <f t="shared" si="33"/>
         <v>Narvaez</v>
       </c>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4" t="str">
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4" t="str">
         <f t="shared" si="34"/>
         <v>Agustín</v>
       </c>
-      <c r="R88" s="4" t="s">
+      <c r="S88" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="S88" s="4"/>
-      <c r="T88" s="5" t="s">
+      <c r="T88" s="4"/>
+      <c r="U88" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4" t="str">
+      <c r="V88" s="4"/>
+      <c r="W88" s="4" t="str">
         <f t="shared" si="35"/>
         <v>DEV</v>
       </c>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4" t="str">
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 50347, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 30043, 1 , NULL, 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4" t="str">
         <f t="shared" si="36"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Agustín' AND [P].[LastName] = 'Narvaez' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>319</v>
       </c>
@@ -7456,66 +7745,69 @@
         <v>322</v>
       </c>
       <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="4">
+      <c r="D89" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="4">
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="F89" s="4" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="30"/>
         <v>Andrea</v>
       </c>
-      <c r="G89" s="4" t="str">
+      <c r="H89" s="4" t="str">
         <f t="shared" si="31"/>
         <v>Sabella</v>
       </c>
-      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
+      <c r="K89" s="4"/>
       <c r="L89" s="3">
         <v>1</v>
       </c>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4" t="str">
+      <c r="M89" s="3">
+        <v>1</v>
+      </c>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Andrea</v>
       </c>
-      <c r="O89" s="4" t="str">
+      <c r="P89" s="4" t="str">
         <f t="shared" si="33"/>
         <v>Sabella</v>
       </c>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4" t="str">
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4" t="str">
         <f t="shared" si="34"/>
         <v>Andrea</v>
       </c>
-      <c r="R89" s="4" t="s">
+      <c r="S89" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="S89" s="4"/>
-      <c r="T89" s="5" t="s">
+      <c r="T89" s="4"/>
+      <c r="U89" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4" t="str">
+      <c r="V89" s="4"/>
+      <c r="W89" s="4" t="str">
         <f t="shared" si="35"/>
         <v>TST</v>
       </c>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4" t="str">
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 24736, 1 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 86576, 1 , NULL, 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4" t="str">
         <f t="shared" si="36"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrea' AND [P].[LastName] = 'Sabella' AND [PR].[Code] = 'TST'</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>320</v>
       </c>
@@ -7523,66 +7815,69 @@
         <v>322</v>
       </c>
       <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="4">
+      <c r="D90" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="4">
         <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="F90" s="4" t="str">
+      <c r="G90" s="4" t="str">
         <f t="shared" si="30"/>
         <v>Ezequiel</v>
       </c>
-      <c r="G90" s="4" t="str">
+      <c r="H90" s="4" t="str">
         <f t="shared" si="31"/>
         <v>Konjuh</v>
       </c>
-      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="3">
-        <v>1</v>
-      </c>
+      <c r="K90" s="4"/>
       <c r="L90" s="3">
+        <v>1</v>
+      </c>
+      <c r="M90" s="3">
         <v>0</v>
       </c>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4" t="str">
+      <c r="N90" s="4"/>
+      <c r="O90" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Ezequiel</v>
       </c>
-      <c r="O90" s="4" t="str">
+      <c r="P90" s="4" t="str">
         <f t="shared" si="33"/>
         <v>Konjuh</v>
       </c>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4" t="str">
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4" t="str">
         <f t="shared" si="34"/>
         <v>Ezequiel</v>
       </c>
-      <c r="R90" s="4" t="s">
+      <c r="S90" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="S90" s="4"/>
-      <c r="T90" s="5" t="s">
+      <c r="T90" s="4"/>
+      <c r="U90" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4" t="str">
+      <c r="V90" s="4"/>
+      <c r="W90" s="4" t="str">
         <f t="shared" si="35"/>
         <v>DEV</v>
       </c>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4" t="str">
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 19458, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 68067, 0 , NULL, 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4" t="str">
         <f t="shared" si="36"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ezequiel' AND [P].[LastName] = 'Konjuh' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>321</v>
       </c>
@@ -7590,68 +7885,71 @@
         <v>322</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="4">
+      <c r="D91" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="4">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="F91" s="4" t="str">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="30"/>
         <v>Luis</v>
       </c>
-      <c r="G91" s="4" t="str">
+      <c r="H91" s="4" t="str">
         <f t="shared" si="31"/>
         <v>Fregeiro</v>
       </c>
-      <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="3">
-        <v>1</v>
-      </c>
+      <c r="K91" s="4"/>
       <c r="L91" s="3">
+        <v>1</v>
+      </c>
+      <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4" t="str">
+      <c r="N91" s="4"/>
+      <c r="O91" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Luis</v>
       </c>
-      <c r="O91" s="4" t="str">
+      <c r="P91" s="4" t="str">
         <f t="shared" si="33"/>
         <v>Fregeiro</v>
       </c>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4" t="str">
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4" t="str">
         <f t="shared" si="34"/>
         <v>Luis</v>
       </c>
-      <c r="R91" s="4" t="s">
+      <c r="S91" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="S91" s="4"/>
-      <c r="T91" s="5" t="s">
+      <c r="T91" s="4"/>
+      <c r="U91" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4" t="str">
+      <c r="V91" s="4"/>
+      <c r="W91" s="4" t="str">
         <f t="shared" si="35"/>
         <v>DEV</v>
       </c>
-      <c r="W91" s="4"/>
-      <c r="X91" s="4" t="str">
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 603, 0 , NULL, 1 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
-      </c>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4" t="str">
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 44167, 0 , NULL, 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+      </c>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4" t="str">
         <f t="shared" si="36"/>
         <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Luis' AND [P].[LastName] = 'Fregeiro' AND [PR].[Code] = 'DEV'</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z91" xr:uid="{9AC713E9-6939-4F73-A522-F640B7028191}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z86">
+  <autoFilter ref="A1:AA91" xr:uid="{9AC713E9-6939-4F73-A522-F640B7028191}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AA86">
     <sortCondition ref="A3:A86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7669,12 +7967,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -7883,6 +8175,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -7892,23 +8190,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7925,4 +8206,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDBF94A-AF87-4E21-9BDC-166E6C25A290}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396E94D-C91B-4BBA-89F6-DE841A22452A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -1485,39 +1485,39 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="10"/>
+    <col min="1" max="1" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
     <col min="6" max="6" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1"/>
-    <col min="15" max="15" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" style="1"/>
-    <col min="18" max="18" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.453125" style="1"/>
-    <col min="21" max="21" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.453125" style="1"/>
-    <col min="23" max="23" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" style="1"/>
-    <col min="25" max="25" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.453125" style="1"/>
-    <col min="27" max="27" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.453125" style="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1"/>
+    <col min="27" max="27" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>328</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>323</v>
       </c>
@@ -1616,16 +1616,13 @@
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, '", R2, "', '", S2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", L2, ", [dbo].[GradeFromStr]('", D2,"') FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 71548, 0 , 'MVD/Adrian_Belen.JPG', 0, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R2, "', '", S2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", L2, ", [dbo].[GradeFromStr]('", D2,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B2,"' AND [CR].[Code] = '", W2,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Belen', NULL, NULL, 94190, 0 , 'MVD/Adrian_Belen.JPG', 0, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="4" t="str">
-        <f t="shared" ref="AA2" si="6">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", R2, "' AND [P].[LastName] = '", S2, "' AND [PR].[Code] = '", W2, "'")</f>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Belen' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1640,15 +1637,15 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F34" si="7">FIND(" ",A3)</f>
+        <f t="shared" ref="F3:F34" si="6">FIND(" ",A3)</f>
         <v>7</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3" si="8">LEFT(A3, F3-1)</f>
+        <f t="shared" ref="G3" si="7">LEFT(A3, F3-1)</f>
         <v>Adrián</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3" si="9">RIGHT(A3,LEN(A3) - F3)</f>
+        <f t="shared" ref="H3" si="8">RIGHT(A3,LEN(A3) - F3)</f>
         <v>Lopez</v>
       </c>
       <c r="I3" s="4"/>
@@ -1662,11 +1659,11 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3" si="10">IF(C3="", G3, C3)</f>
+        <f t="shared" ref="O3" si="9">IF(C3="", G3, C3)</f>
         <v>Adrian_Lopez.JPG</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3" si="11">IF(K3="", H3, K3)</f>
+        <f t="shared" ref="P3" si="10">IF(K3="", H3, K3)</f>
         <v>Lopez</v>
       </c>
       <c r="Q3" s="4"/>
@@ -1682,21 +1679,18 @@
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4" t="str">
-        <f t="shared" ref="W3:W34" si="12">IF(U3="", "TST", U3)</f>
+        <f t="shared" ref="W3:W34" si="11">IF(U3="", "TST", U3)</f>
         <v>DEV</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4" t="str">
-        <f t="shared" ref="Y3:Y66" ca="1" si="13">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, '", R3, "', '", S3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", L3, ", [dbo].[GradeFromStr]('", D3,"') FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B3,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 87969, 0 , 'MVD/Adrian_Lopez.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ref="Y3:Y66" ca="1" si="12">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R3, "', '", S3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", L3, ", [dbo].[GradeFromStr]('", D3,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B3,"' AND [CR].[Code] = '", W3,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Lopez', NULL, NULL, 51551, 0 , 'MVD/Adrian_Lopez.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="4" t="str">
-        <f t="shared" ref="AA3:AA66" si="14">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", R3, "' AND [P].[LastName] = '", S3, "' AND [PR].[Code] = '", W3, "'")</f>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Lopez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1711,15 +1705,15 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G67" si="15">LEFT(A4, F4-1)</f>
+        <f t="shared" ref="G4:G67" si="13">LEFT(A4, F4-1)</f>
         <v>Alberto</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H67" si="16">RIGHT(A4,LEN(A4) - F4)</f>
+        <f t="shared" ref="H4:H67" si="14">RIGHT(A4,LEN(A4) - F4)</f>
         <v>Da Cunha</v>
       </c>
       <c r="I4" s="4"/>
@@ -1733,11 +1727,11 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="str">
-        <f t="shared" ref="O4:O67" si="17">IF(C4="", G4, C4)</f>
+        <f t="shared" ref="O4:O67" si="15">IF(C4="", G4, C4)</f>
         <v>Alberto_Dacunha.JPG</v>
       </c>
       <c r="P4" s="4" t="str">
-        <f t="shared" ref="P4:P67" si="18">IF(K4="", H4, K4)</f>
+        <f t="shared" ref="P4:P67" si="16">IF(K4="", H4, K4)</f>
         <v>Da Cunha</v>
       </c>
       <c r="Q4" s="4"/>
@@ -1753,21 +1747,18 @@
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 49723, 1 , 'MVD/Alberto_Dacunha.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 3561, 1 , 'MVD/Alberto_Dacunha.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alberto' AND [P].[LastName] = 'Da Cunha' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -1782,15 +1773,15 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Alberto</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Hernández</v>
       </c>
       <c r="I5" s="4"/>
@@ -1804,11 +1795,11 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Alberto_Hernandez.jpg</v>
       </c>
       <c r="P5" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Hernández</v>
       </c>
       <c r="Q5" s="4"/>
@@ -1822,21 +1813,18 @@
       <c r="U5" s="3"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>TST</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 62289, 0 , 'MVD/Alberto_Hernandez.jpg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alberto', 'Hernández', NULL, NULL, 56754, 0 , 'MVD/Alberto_Hernandez.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alberto' AND [P].[LastName] = 'Hernández' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1851,15 +1839,15 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Alejandro</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Capece</v>
       </c>
       <c r="I6" s="4"/>
@@ -1873,11 +1861,11 @@
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Alejandro Capece.JPG</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Capece</v>
       </c>
       <c r="Q6" s="4"/>
@@ -1893,21 +1881,18 @@
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 24890, 0 , 'MVD/Alejandro Capece.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alejandro', 'Capece', NULL, NULL, 53563, 0 , 'MVD/Alejandro Capece.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alejandro' AND [P].[LastName] = 'Capece' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1922,15 +1907,15 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Alejandro</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Latchinian</v>
       </c>
       <c r="I7" s="4"/>
@@ -1944,11 +1929,11 @@
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Alejandro_Latchinian.JPG</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Latchinian</v>
       </c>
       <c r="Q7" s="4"/>
@@ -1964,21 +1949,18 @@
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 19450, 0 , 'MVD/Alejandro_Latchinian.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 94402, 0 , 'MVD/Alejandro_Latchinian.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alejandro' AND [P].[LastName] = 'Latchinian' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1993,15 +1975,15 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Alfonso</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Rodriguez</v>
       </c>
       <c r="I8" s="4"/>
@@ -2015,11 +1997,11 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Alfonso_Rodriguez.jpg</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Rodriguez</v>
       </c>
       <c r="Q8" s="4"/>
@@ -2035,21 +2017,18 @@
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 19819, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 31213, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alfonso' AND [P].[LastName] = 'Rodriguez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -2064,15 +2043,15 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Alvaro</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Restuccia</v>
       </c>
       <c r="I9" s="4"/>
@@ -2086,11 +2065,11 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Alvaro_Restuccia.jpeg</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Restuccia</v>
       </c>
       <c r="Q9" s="4"/>
@@ -2106,21 +2085,18 @@
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>PM</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 74146, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 35981, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Alvaro' AND [P].[LastName] = 'Restuccia' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -2135,15 +2111,15 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Andrés</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Bores</v>
       </c>
       <c r="I10" s="4"/>
@@ -2157,11 +2133,11 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Andres_Bores.JPG</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Bores</v>
       </c>
       <c r="Q10" s="4"/>
@@ -2177,21 +2153,18 @@
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 19581, 0 , 'MVD/Andres_Bores.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Bores', NULL, NULL, 78401, 0 , 'MVD/Andres_Bores.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Bores' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>73</v>
       </c>
@@ -2206,15 +2179,15 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Andrés</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Maedo</v>
       </c>
       <c r="I11" s="4"/>
@@ -2228,11 +2201,11 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Andres_Maedo.JPG</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Maedo</v>
       </c>
       <c r="Q11" s="4"/>
@@ -2248,21 +2221,18 @@
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>TST</v>
       </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 10509, 1 , 'MVD/Andres_Maedo.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Maedo', NULL, NULL, 76455, 1 , 'MVD/Andres_Maedo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Maedo' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
@@ -2277,15 +2247,15 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Andrés</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Nieves</v>
       </c>
       <c r="I12" s="4"/>
@@ -2299,11 +2269,11 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Andres_Nieves.JPG</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Nieves</v>
       </c>
       <c r="Q12" s="4"/>
@@ -2319,21 +2289,18 @@
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 31005, 0 , 'MVD/Andres_Nieves.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Nieves', NULL, NULL, 94605, 0 , 'MVD/Andres_Nieves.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrés' AND [P].[LastName] = 'Nieves' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2348,15 +2315,15 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Aniela</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Amy</v>
       </c>
       <c r="I13" s="4"/>
@@ -2370,11 +2337,11 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Aniela_Amy.JPG</v>
       </c>
       <c r="P13" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Amy</v>
       </c>
       <c r="Q13" s="4"/>
@@ -2390,21 +2357,18 @@
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 78364, 0 , 'MVD/Aniela_Amy.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Aniela', 'Amy', NULL, NULL, 45259, 0 , 'MVD/Aniela_Amy.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Aniela' AND [P].[LastName] = 'Amy' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2419,15 +2383,15 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Ariel</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Sisro</v>
       </c>
       <c r="I14" s="4"/>
@@ -2441,11 +2405,11 @@
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Ariel_Sisro.JPG</v>
       </c>
       <c r="P14" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Sisro</v>
       </c>
       <c r="Q14" s="4"/>
@@ -2461,21 +2425,18 @@
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 28424, 0 , 'MVD/Ariel_Sisro.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ariel', 'Sisro', NULL, NULL, 12803, 0 , 'MVD/Ariel_Sisro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ariel' AND [P].[LastName] = 'Sisro' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -2490,15 +2451,15 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Beerbal</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Abdulkhader</v>
       </c>
       <c r="I15" s="4"/>
@@ -2512,11 +2473,11 @@
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Beerbal_Abdulkhader.JPG</v>
       </c>
       <c r="P15" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Abdulkhader</v>
       </c>
       <c r="Q15" s="4"/>
@@ -2532,21 +2493,18 @@
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>TST</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 24953, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 97204, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Beerbal' AND [P].[LastName] = 'Abdulkhader' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -2561,15 +2519,15 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Bruno</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Candia</v>
       </c>
       <c r="I16" s="4"/>
@@ -2583,11 +2541,11 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Bruno_Candia.JPG</v>
       </c>
       <c r="P16" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Candia</v>
       </c>
       <c r="Q16" s="4"/>
@@ -2603,21 +2561,18 @@
       </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 3429, 1 , 'MVD/Bruno_Candia.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Bruno', 'Candia', NULL, NULL, 76177, 1 , 'MVD/Bruno_Candia.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Bruno' AND [P].[LastName] = 'Candia' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2632,15 +2587,15 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Camila</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Roji</v>
       </c>
       <c r="I17" s="4"/>
@@ -2654,11 +2609,11 @@
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Camila_Roji.jpg</v>
       </c>
       <c r="P17" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Roji</v>
       </c>
       <c r="Q17" s="4"/>
@@ -2674,21 +2629,18 @@
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 543, 0 , 'MVD/Camila_Roji.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camila', 'Roji', NULL, NULL, 24493, 0 , 'MVD/Camila_Roji.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camila' AND [P].[LastName] = 'Roji' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
@@ -2703,15 +2655,15 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Camila</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Sorio</v>
       </c>
       <c r="I18" s="4"/>
@@ -2725,11 +2677,11 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Camila_Sorio.jpg</v>
       </c>
       <c r="P18" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Sorio</v>
       </c>
       <c r="Q18" s="4"/>
@@ -2745,21 +2697,18 @@
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ADMIN</v>
       </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 71157, 0 , 'MVD/Camila_Sorio.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camila', 'Sorio', NULL, NULL, 98108, 0 , 'MVD/Camila_Sorio.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z18" s="4"/>
-      <c r="AA18" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camila' AND [P].[LastName] = 'Sorio' AND [PR].[Code] = 'ADMIN'</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -2774,15 +2723,15 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Camilo</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Gomez</v>
       </c>
       <c r="I19" s="4"/>
@@ -2796,11 +2745,11 @@
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Camilo_Gomez.jpeg</v>
       </c>
       <c r="P19" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Gomez</v>
       </c>
       <c r="Q19" s="4"/>
@@ -2816,21 +2765,18 @@
       </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 33111, 1 , 'MVD/Camilo_Gomez.jpeg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camilo', 'Gomez', NULL, NULL, 56758, 1 , 'MVD/Camilo_Gomez.jpeg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Camilo' AND [P].[LastName] = 'Gomez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
@@ -2845,15 +2791,15 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Damián</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Pereira</v>
       </c>
       <c r="I20" s="4"/>
@@ -2867,11 +2813,11 @@
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Damian_Pereira.JPG</v>
       </c>
       <c r="P20" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Pereira</v>
       </c>
       <c r="Q20" s="4"/>
@@ -2887,21 +2833,18 @@
       </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>TST</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 52846, 1 , 'MVD/Damian_Pereira.JPG', 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Damián', 'Pereira', NULL, NULL, 2319, 1 , 'MVD/Damian_Pereira.JPG', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z20" s="4"/>
-      <c r="AA20" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Damián' AND [P].[LastName] = 'Pereira' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -2916,15 +2859,15 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Daniel</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Cabrera</v>
       </c>
       <c r="I21" s="4"/>
@@ -2938,11 +2881,11 @@
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Daniel_Cabrera.JPG</v>
       </c>
       <c r="P21" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Cabrera</v>
       </c>
       <c r="Q21" s="4"/>
@@ -2958,21 +2901,18 @@
       </c>
       <c r="V21" s="4"/>
       <c r="W21" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>PM</v>
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 94483, 0 , 'MVD/Daniel_Cabrera.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 80766, 0 , 'MVD/Daniel_Cabrera.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Daniel' AND [P].[LastName] = 'Cabrera' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -2987,15 +2927,15 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Delia</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Alvarez</v>
       </c>
       <c r="I22" s="4"/>
@@ -3009,11 +2949,11 @@
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Delia_Alvarez.jpg</v>
       </c>
       <c r="P22" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Alvarez</v>
       </c>
       <c r="Q22" s="4"/>
@@ -3029,21 +2969,18 @@
       </c>
       <c r="V22" s="4"/>
       <c r="W22" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 51761, 0 , 'MVD/Delia_Alvarez.jpg', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Delia', 'Alvarez', NULL, NULL, 1053, 0 , 'MVD/Delia_Alvarez.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Delia' AND [P].[LastName] = 'Alvarez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
@@ -3058,15 +2995,15 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Eduardo</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Ducer</v>
       </c>
       <c r="I23" s="4"/>
@@ -3080,11 +3017,11 @@
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Eduardo_Ducer.JPG</v>
       </c>
       <c r="P23" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Ducer</v>
       </c>
       <c r="Q23" s="4"/>
@@ -3100,21 +3037,18 @@
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 80042, 0 , 'MVD/Eduardo_Ducer.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 48456, 0 , 'MVD/Eduardo_Ducer.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z23" s="4"/>
-      <c r="AA23" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Eduardo' AND [P].[LastName] = 'Ducer' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
@@ -3129,15 +3063,15 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Eugenia</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Pais</v>
       </c>
       <c r="I24" s="4"/>
@@ -3151,11 +3085,11 @@
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Maria_Pais.jpg</v>
       </c>
       <c r="P24" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Pais</v>
       </c>
       <c r="Q24" s="4"/>
@@ -3171,21 +3105,18 @@
       </c>
       <c r="V24" s="4"/>
       <c r="W24" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 13160, 1 , 'MVD/Maria_Pais.jpg', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Eugenia', 'Pais', NULL, NULL, 98650, 1 , 'MVD/Maria_Pais.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Eugenia' AND [P].[LastName] = 'Pais' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -3200,15 +3131,15 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Federico</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Canet</v>
       </c>
       <c r="I25" s="4"/>
@@ -3222,11 +3153,11 @@
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Federico_Canet.JPG</v>
       </c>
       <c r="P25" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Canet</v>
       </c>
       <c r="Q25" s="4"/>
@@ -3242,21 +3173,18 @@
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 69093, 1 , 'MVD/Federico_Canet.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'Canet', NULL, NULL, 65231, 1 , 'MVD/Federico_Canet.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z25" s="4"/>
-      <c r="AA25" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'Canet' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
@@ -3271,15 +3199,15 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Federico</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>García</v>
       </c>
       <c r="I26" s="4"/>
@@ -3293,11 +3221,11 @@
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Federico_Garcia.JPG</v>
       </c>
       <c r="P26" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>García</v>
       </c>
       <c r="Q26" s="4"/>
@@ -3313,21 +3241,18 @@
       </c>
       <c r="V26" s="4"/>
       <c r="W26" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 21080, 0 , 'MVD/Federico_Garcia.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'García', NULL, NULL, 65828, 0 , 'MVD/Federico_Garcia.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'García' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -3342,15 +3267,15 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Federico</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Trujillo</v>
       </c>
       <c r="I27" s="4"/>
@@ -3364,11 +3289,11 @@
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Federico_Trujillo.JPG</v>
       </c>
       <c r="P27" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Trujillo</v>
       </c>
       <c r="Q27" s="4"/>
@@ -3384,21 +3309,18 @@
       </c>
       <c r="V27" s="4"/>
       <c r="W27" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 81091, 1 , 'MVD/Federico_Trujillo.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'Trujillo', NULL, NULL, 3914, 1 , 'MVD/Federico_Trujillo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Federico' AND [P].[LastName] = 'Trujillo' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>332</v>
       </c>
@@ -3413,15 +3335,15 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Fernando</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Olmos</v>
       </c>
       <c r="I28" s="4"/>
@@ -3435,11 +3357,11 @@
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Fernando_Olmos.JPG</v>
       </c>
       <c r="P28" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Olmos</v>
       </c>
       <c r="Q28" s="4"/>
@@ -3455,21 +3377,18 @@
       </c>
       <c r="V28" s="4"/>
       <c r="W28" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Fernando', 'Olmos', NULL, NULL, 8655, 1 , 'MVD/Fernando_Olmos.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Olmos', NULL, NULL, 45551, 1 , 'MVD/Fernando_Olmos.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Olmos' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA28" s="4"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
@@ -3484,15 +3403,15 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Fernando</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Cañas</v>
       </c>
       <c r="I29" s="4"/>
@@ -3506,11 +3425,11 @@
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Fernando_Canas.JPG</v>
       </c>
       <c r="P29" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Cañas</v>
       </c>
       <c r="Q29" s="4"/>
@@ -3526,21 +3445,18 @@
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ADMIN</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 84854, 0 , 'MVD/Fernando_Canas.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Cañas', NULL, NULL, 16913, 0 , 'MVD/Fernando_Canas.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Cañas' AND [PR].[Code] = 'ADMIN'</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA29" s="4"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
@@ -3555,15 +3471,15 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Fernando</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Stromillo</v>
       </c>
       <c r="I30" s="4"/>
@@ -3577,11 +3493,11 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Fernando_Stromillo.jpg</v>
       </c>
       <c r="P30" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Stromillo</v>
       </c>
       <c r="Q30" s="4"/>
@@ -3597,21 +3513,18 @@
       </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 87871, 0 , 'MVD/Fernando_Stromillo.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 23387, 0 , 'MVD/Fernando_Stromillo.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Fernando' AND [P].[LastName] = 'Stromillo' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA30" s="4"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
@@ -3626,15 +3539,15 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G31" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Gastón</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Aroztegui</v>
       </c>
       <c r="I31" s="4"/>
@@ -3648,11 +3561,11 @@
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Gaston_Aroztegui.JPG</v>
       </c>
       <c r="P31" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Aroztegui</v>
       </c>
       <c r="Q31" s="4"/>
@@ -3668,21 +3581,18 @@
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>TST</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 90764, 0 , 'MVD/Gaston_Aroztegui.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 81563, 0 , 'MVD/Gaston_Aroztegui.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z31" s="4"/>
-      <c r="AA31" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Gastón' AND [P].[LastName] = 'Aroztegui' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA31" s="4"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -3697,15 +3607,15 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G32" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Gerardo</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Barbitta</v>
       </c>
       <c r="I32" s="4"/>
@@ -3719,11 +3629,11 @@
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Gerardo_Barbitta.jpg</v>
       </c>
       <c r="P32" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Barbitta</v>
       </c>
       <c r="Q32" s="4"/>
@@ -3739,21 +3649,18 @@
       </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 43613, 0 , 'MVD/Gerardo_Barbitta.jpg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 87764, 0 , 'MVD/Gerardo_Barbitta.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Gerardo' AND [P].[LastName] = 'Barbitta' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -3768,15 +3675,15 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Giovanina</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Chirione</v>
       </c>
       <c r="I33" s="4"/>
@@ -3790,11 +3697,11 @@
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Giovanina_Chirione.JPG</v>
       </c>
       <c r="P33" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Chirione</v>
       </c>
       <c r="Q33" s="4"/>
@@ -3810,21 +3717,18 @@
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DEV</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 67402, 0 , 'MVD/Giovanina_Chirione.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 80862, 0 , 'MVD/Giovanina_Chirione.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Giovanina' AND [P].[LastName] = 'Chirione' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA33" s="4"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
@@ -3839,15 +3743,15 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Hernán</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Rumbo</v>
       </c>
       <c r="I34" s="4"/>
@@ -3861,11 +3765,11 @@
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Hernan_Rumbo.JPG</v>
       </c>
       <c r="P34" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Rumbo</v>
       </c>
       <c r="Q34" s="4"/>
@@ -3881,21 +3785,18 @@
       </c>
       <c r="V34" s="4"/>
       <c r="W34" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>TST</v>
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 49566, 0 , 'MVD/Hernan_Rumbo.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 40721, 0 , 'MVD/Hernan_Rumbo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Hernán' AND [P].[LastName] = 'Rumbo' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA34" s="4"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -3910,15 +3811,15 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="4">
-        <f t="shared" ref="F35:F66" si="19">FIND(" ",A35)</f>
+        <f t="shared" ref="F35:F66" si="17">FIND(" ",A35)</f>
         <v>8</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Horacio</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Blanco</v>
       </c>
       <c r="I35" s="4"/>
@@ -3932,11 +3833,11 @@
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Horacio_Blanco.JPG</v>
       </c>
       <c r="P35" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Blanco</v>
       </c>
       <c r="Q35" s="4"/>
@@ -3952,21 +3853,18 @@
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4" t="str">
-        <f t="shared" ref="W35:W66" si="20">IF(U35="", "TST", U35)</f>
+        <f t="shared" ref="W35:W66" si="18">IF(U35="", "TST", U35)</f>
         <v>DEV</v>
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 5971, 0 , 'MVD/Horacio_Blanco.JPG', 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Horacio', 'Blanco', NULL, NULL, 8746, 0 , 'MVD/Horacio_Blanco.JPG', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Horacio' AND [P].[LastName] = 'Blanco' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA35" s="4"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
@@ -3981,15 +3879,15 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Hugo</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Ocampo</v>
       </c>
       <c r="I36" s="4"/>
@@ -4003,11 +3901,11 @@
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Hugo_Ocampo.JPG</v>
       </c>
       <c r="P36" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Ocampo</v>
       </c>
       <c r="Q36" s="4"/>
@@ -4023,21 +3921,18 @@
       </c>
       <c r="V36" s="4"/>
       <c r="W36" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 2059, 0 , 'MVD/Hugo_Ocampo.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 38294, 0 , 'MVD/Hugo_Ocampo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Hugo' AND [P].[LastName] = 'Ocampo' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
@@ -4052,15 +3947,15 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Ignacio</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Assandri</v>
       </c>
       <c r="I37" s="4"/>
@@ -4074,11 +3969,11 @@
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Ignacio_Assandri.JPG</v>
       </c>
       <c r="P37" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Assandri</v>
       </c>
       <c r="Q37" s="4"/>
@@ -4094,21 +3989,18 @@
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 72580, 1 , 'MVD/Ignacio_Assandri.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 41562, 1 , 'MVD/Ignacio_Assandri.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Assandri' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA37" s="4"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -4123,15 +4015,15 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Ignacio</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Loureiro</v>
       </c>
       <c r="I38" s="4"/>
@@ -4145,11 +4037,11 @@
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Ignacio_Loureiro.JPG</v>
       </c>
       <c r="P38" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Loureiro</v>
       </c>
       <c r="Q38" s="4"/>
@@ -4165,21 +4057,18 @@
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>TST</v>
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 72259, 0 , 'MVD/Ignacio_Loureiro.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 94487, 0 , 'MVD/Ignacio_Loureiro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z38" s="4"/>
-      <c r="AA38" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Loureiro' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA38" s="4"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
@@ -4194,15 +4083,15 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Ignacio</v>
       </c>
       <c r="H39" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Secco</v>
       </c>
       <c r="I39" s="4"/>
@@ -4216,11 +4105,11 @@
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Ignacio_Secco.jpeg</v>
       </c>
       <c r="P39" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Secco</v>
       </c>
       <c r="Q39" s="4"/>
@@ -4236,21 +4125,18 @@
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>TST</v>
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 39204, 0 , 'MVD/Ignacio_Secco.jpeg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Secco', NULL, NULL, 54849, 0 , 'MVD/Ignacio_Secco.jpeg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z39" s="4"/>
-      <c r="AA39" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ignacio' AND [P].[LastName] = 'Secco' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA39" s="4"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
@@ -4265,15 +4151,15 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Javier</v>
       </c>
       <c r="H40" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Barrios</v>
       </c>
       <c r="I40" s="4"/>
@@ -4287,11 +4173,11 @@
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Javier_Barrios.JPG</v>
       </c>
       <c r="P40" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Barrios</v>
       </c>
       <c r="Q40" s="4"/>
@@ -4307,21 +4193,18 @@
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X40" s="4"/>
       <c r="Y40" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 7938, 0 , 'MVD/Javier_Barrios.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Javier', 'Barrios', NULL, NULL, 24374, 0 , 'MVD/Javier_Barrios.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z40" s="4"/>
-      <c r="AA40" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Javier' AND [P].[LastName] = 'Barrios' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>27</v>
       </c>
@@ -4336,15 +4219,15 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Javier</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Calero</v>
       </c>
       <c r="I41" s="4"/>
@@ -4358,11 +4241,11 @@
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Javier_Calero.JPG</v>
       </c>
       <c r="P41" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Calero</v>
       </c>
       <c r="Q41" s="4"/>
@@ -4378,21 +4261,18 @@
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X41" s="4"/>
       <c r="Y41" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 35010, 0 , 'MVD/Javier_Calero.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Javier', 'Calero', NULL, NULL, 20777, 0 , 'MVD/Javier_Calero.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z41" s="4"/>
-      <c r="AA41" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Javier' AND [P].[LastName] = 'Calero' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA41" s="4"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -4407,15 +4287,15 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Jimena</v>
       </c>
       <c r="H42" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Irigaray</v>
       </c>
       <c r="I42" s="4"/>
@@ -4429,11 +4309,11 @@
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Jimena_Irigaray.JPG</v>
       </c>
       <c r="P42" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Irigaray</v>
       </c>
       <c r="Q42" s="4"/>
@@ -4449,21 +4329,18 @@
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>ADMIN</v>
       </c>
       <c r="X42" s="4"/>
       <c r="Y42" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 9494, 0 , 'MVD/Jimena_Irigaray.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 56981, 0 , 'MVD/Jimena_Irigaray.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z42" s="4"/>
-      <c r="AA42" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Jimena' AND [P].[LastName] = 'Irigaray' AND [PR].[Code] = 'ADMIN'</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA42" s="4"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -4476,15 +4353,15 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Jorge</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Jova</v>
       </c>
       <c r="I43" s="4"/>
@@ -4498,11 +4375,11 @@
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Jorge</v>
       </c>
       <c r="P43" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Jova</v>
       </c>
       <c r="Q43" s="4"/>
@@ -4518,21 +4395,18 @@
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 76049, 1 , NULL, 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Jorge', 'Jova', NULL, NULL, 46860, 1 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z43" s="4"/>
-      <c r="AA43" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Jorge' AND [P].[LastName] = 'Jova' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>22</v>
       </c>
@@ -4547,15 +4421,15 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Juan</v>
       </c>
       <c r="H44" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Aguerre</v>
       </c>
       <c r="I44" s="4"/>
@@ -4569,11 +4443,11 @@
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Juan_Aguerre.JPG</v>
       </c>
       <c r="P44" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Aguerre</v>
       </c>
       <c r="Q44" s="4"/>
@@ -4589,21 +4463,18 @@
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>TST</v>
       </c>
       <c r="X44" s="4"/>
       <c r="Y44" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 63712, 0 , 'MVD/Juan_Aguerre.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan', 'Aguerre', NULL, NULL, 87505, 0 , 'MVD/Juan_Aguerre.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z44" s="4"/>
-      <c r="AA44" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan' AND [P].[LastName] = 'Aguerre' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA44" s="4"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -4618,15 +4489,15 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Juan</v>
       </c>
       <c r="H45" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Estrada</v>
       </c>
       <c r="I45" s="4"/>
@@ -4640,11 +4511,11 @@
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Juan_Estrada.JPG</v>
       </c>
       <c r="P45" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Estrada</v>
       </c>
       <c r="Q45" s="4"/>
@@ -4660,21 +4531,18 @@
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>PM</v>
       </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 16777, 0 , 'MVD/Juan_Estrada.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan', 'Estrada', NULL, NULL, 52723, 0 , 'MVD/Juan_Estrada.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z45" s="4"/>
-      <c r="AA45" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan' AND [P].[LastName] = 'Estrada' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA45" s="4"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
@@ -4687,15 +4555,15 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Juan</v>
       </c>
       <c r="H46" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Manuel Fagundez</v>
       </c>
       <c r="I46" s="4"/>
@@ -4711,11 +4579,11 @@
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Juan</v>
       </c>
       <c r="P46" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Fagundez</v>
       </c>
       <c r="Q46" s="4"/>
@@ -4731,21 +4599,18 @@
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>OPS</v>
       </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 16744, 0 , NULL, 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 29103, 0 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'OPS'</v>
       </c>
       <c r="Z46" s="4"/>
-      <c r="AA46" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Juan Manuel' AND [P].[LastName] = 'Fagundez' AND [PR].[Code] = 'OPS'</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA46" s="4"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -4760,15 +4625,15 @@
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Leonardo</v>
       </c>
       <c r="H47" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Mendizabal</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -4786,11 +4651,11 @@
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Leonardo_Mendizabal.jpg</v>
       </c>
       <c r="P47" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Mendizabal</v>
       </c>
       <c r="Q47" s="4"/>
@@ -4806,21 +4671,18 @@
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 51876, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 26596, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z47" s="4"/>
-      <c r="AA47" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Leonardo' AND [P].[LastName] = 'Mendizabal' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA47" s="4"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -4835,15 +4697,15 @@
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Luciano</v>
       </c>
       <c r="H48" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Deluca</v>
       </c>
       <c r="I48" s="4"/>
@@ -4857,11 +4719,11 @@
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Luciano_Deluca.JPG</v>
       </c>
       <c r="P48" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Deluca</v>
       </c>
       <c r="Q48" s="4"/>
@@ -4877,21 +4739,18 @@
       </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>PM</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 8098, 0 , 'MVD/Luciano_Deluca.JPG', 1, [dbo].[GradeFromStr]('SC') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Luciano', 'Deluca', NULL, NULL, 67732, 0 , 'MVD/Luciano_Deluca.JPG', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z48" s="4"/>
-      <c r="AA48" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Luciano' AND [P].[LastName] = 'Deluca' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA48" s="4"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
@@ -4906,15 +4765,15 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Malvina</v>
       </c>
       <c r="H49" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Jaume</v>
       </c>
       <c r="I49" s="4"/>
@@ -4928,11 +4787,11 @@
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Malvina_Jaume.JPG</v>
       </c>
       <c r="P49" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Jaume</v>
       </c>
       <c r="Q49" s="4"/>
@@ -4948,21 +4807,18 @@
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>TST</v>
       </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 34423, 0 , 'MVD/Malvina_Jaume.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Malvina', 'Jaume', NULL, NULL, 21320, 0 , 'MVD/Malvina_Jaume.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z49" s="4"/>
-      <c r="AA49" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Malvina' AND [P].[LastName] = 'Jaume' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA49" s="4"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>37</v>
       </c>
@@ -4977,15 +4833,15 @@
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Marcelo</v>
       </c>
       <c r="H50" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Zepedeo</v>
       </c>
       <c r="I50" s="4"/>
@@ -4999,11 +4855,11 @@
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Marcelo_Zepedeo.JPG</v>
       </c>
       <c r="P50" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Zepedeo</v>
       </c>
       <c r="Q50" s="4"/>
@@ -5019,21 +4875,18 @@
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X50" s="4"/>
       <c r="Y50" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 9472, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 92294, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z50" s="4"/>
-      <c r="AA50" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marcelo' AND [P].[LastName] = 'Zepedeo' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA50" s="4"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -5048,15 +4901,15 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Marcos</v>
       </c>
       <c r="H51" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Guimaraes</v>
       </c>
       <c r="I51" s="4"/>
@@ -5070,11 +4923,11 @@
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Marcos_Guimaraes.JPG</v>
       </c>
       <c r="P51" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Guimaraes</v>
       </c>
       <c r="Q51" s="4"/>
@@ -5090,21 +4943,18 @@
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 29563, 0 , 'MVD/Marcos_Guimaraes.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 36611, 0 , 'MVD/Marcos_Guimaraes.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z51" s="4"/>
-      <c r="AA51" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marcos' AND [P].[LastName] = 'Guimaraes' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA51" s="4"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>85</v>
       </c>
@@ -5119,15 +4969,15 @@
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G52" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>María</v>
       </c>
       <c r="H52" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Julia Etcheverry</v>
       </c>
       <c r="I52" s="4"/>
@@ -5143,11 +4993,11 @@
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Maria_Etcheverry.jpg</v>
       </c>
       <c r="P52" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Etcheverry</v>
       </c>
       <c r="Q52" s="4"/>
@@ -5163,21 +5013,18 @@
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>ADMIN</v>
       </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 55612, 0 , 'MVD/Maria_Etcheverry.jpg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 92552, 0 , 'MVD/Maria_Etcheverry.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z52" s="4"/>
-      <c r="AA52" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'María Julia' AND [P].[LastName] = 'Etcheverry' AND [PR].[Code] = 'ADMIN'</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA52" s="4"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>82</v>
       </c>
@@ -5192,15 +5039,15 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G53" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>María</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Noel Mosqueira</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -5220,11 +5067,11 @@
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Maria_Mosqueira.JPG</v>
       </c>
       <c r="P53" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Mosqueira</v>
       </c>
       <c r="Q53" s="4"/>
@@ -5240,21 +5087,18 @@
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>ADMIN</v>
       </c>
       <c r="X53" s="4"/>
       <c r="Y53" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 74625, 0 , 'MVD/Maria_Mosqueira.JPG', 1, [dbo].[GradeFromStr]('TL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 1741, 0 , 'MVD/Maria_Mosqueira.JPG', 1, [dbo].[GradeFromStr]('TL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z53" s="4"/>
-      <c r="AA53" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'María Noel' AND [P].[LastName] = 'Mosqueira' AND [PR].[Code] = 'ADMIN'</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA53" s="4"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>77</v>
       </c>
@@ -5269,15 +5113,15 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="G54" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Marlon</v>
       </c>
       <c r="H54" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>González</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -5295,11 +5139,11 @@
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Marlon_Gonzalez.jpg</v>
       </c>
       <c r="P54" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>González</v>
       </c>
       <c r="Q54" s="4"/>
@@ -5315,21 +5159,18 @@
       </c>
       <c r="V54" s="4"/>
       <c r="W54" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X54" s="4"/>
       <c r="Y54" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 17979, 0 , 'MVD/Marlon_Gonzalez.jpg', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marlon', 'González', NULL, NULL, 40032, 0 , 'MVD/Marlon_Gonzalez.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z54" s="4"/>
-      <c r="AA54" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Marlon' AND [P].[LastName] = 'González' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA54" s="4"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -5344,15 +5185,15 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="G55" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Martín</v>
       </c>
       <c r="H55" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Acosta</v>
       </c>
       <c r="I55" s="4"/>
@@ -5366,11 +5207,11 @@
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Martin_Acosta.jpg</v>
       </c>
       <c r="P55" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Acosta</v>
       </c>
       <c r="Q55" s="4"/>
@@ -5386,21 +5227,18 @@
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>PM</v>
       </c>
       <c r="X55" s="4"/>
       <c r="Y55" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 96407, 0 , 'MVD/Martin_Acosta.jpg', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Martín', 'Acosta', NULL, NULL, 69496, 0 , 'MVD/Martin_Acosta.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z55" s="4"/>
-      <c r="AA55" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Martín' AND [P].[LastName] = 'Acosta' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA55" s="4"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>23</v>
       </c>
@@ -5415,15 +5253,15 @@
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="G56" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Martin</v>
       </c>
       <c r="H56" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Caetano</v>
       </c>
       <c r="I56" s="4"/>
@@ -5437,11 +5275,11 @@
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Martin_Caetano.JPG</v>
       </c>
       <c r="P56" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Caetano</v>
       </c>
       <c r="Q56" s="4"/>
@@ -5457,21 +5295,18 @@
       </c>
       <c r="V56" s="4"/>
       <c r="W56" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X56" s="4"/>
       <c r="Y56" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 83517, 0 , 'MVD/Martin_Caetano.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Martin', 'Caetano', NULL, NULL, 66494, 0 , 'MVD/Martin_Caetano.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z56" s="4"/>
-      <c r="AA56" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Martin' AND [P].[LastName] = 'Caetano' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA56" s="4"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>88</v>
       </c>
@@ -5486,15 +5321,15 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G57" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Mathías</v>
       </c>
       <c r="H57" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Rodríguez</v>
       </c>
       <c r="I57" s="4"/>
@@ -5508,11 +5343,11 @@
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Mathias_Rodriguez.JPG</v>
       </c>
       <c r="P57" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Rodríguez</v>
       </c>
       <c r="Q57" s="4"/>
@@ -5528,21 +5363,18 @@
       </c>
       <c r="V57" s="4"/>
       <c r="W57" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X57" s="4"/>
       <c r="Y57" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 47924, 1 , 'MVD/Mathias_Rodriguez.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 84554, 1 , 'MVD/Mathias_Rodriguez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z57" s="4"/>
-      <c r="AA57" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Mathías' AND [P].[LastName] = 'Rodríguez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA57" s="4"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>34</v>
       </c>
@@ -5557,15 +5389,15 @@
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Mauricio</v>
       </c>
       <c r="H58" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Mora</v>
       </c>
       <c r="I58" s="4"/>
@@ -5579,11 +5411,11 @@
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Mauricio_Mora.JPG</v>
       </c>
       <c r="P58" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Mora</v>
       </c>
       <c r="Q58" s="4"/>
@@ -5599,21 +5431,18 @@
       </c>
       <c r="V58" s="4"/>
       <c r="W58" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X58" s="4"/>
       <c r="Y58" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 95184, 0 , 'MVD/Mauricio_Mora.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Mauricio', 'Mora', NULL, NULL, 10465, 0 , 'MVD/Mauricio_Mora.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z58" s="4"/>
-      <c r="AA58" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Mauricio' AND [P].[LastName] = 'Mora' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA58" s="4"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>68</v>
       </c>
@@ -5628,15 +5457,15 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Nicolás</v>
       </c>
       <c r="H59" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Gómez</v>
       </c>
       <c r="I59" s="4"/>
@@ -5650,11 +5479,11 @@
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Nicolas_Gomez.jpg</v>
       </c>
       <c r="P59" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Gómez</v>
       </c>
       <c r="Q59" s="4"/>
@@ -5670,21 +5499,18 @@
       </c>
       <c r="V59" s="4"/>
       <c r="W59" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>TST</v>
       </c>
       <c r="X59" s="4"/>
       <c r="Y59" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 87246, 1 , 'MVD/Nicolas_Gomez.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 82734, 1 , 'MVD/Nicolas_Gomez.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z59" s="4"/>
-      <c r="AA59" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolás' AND [P].[LastName] = 'Gómez' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA59" s="4"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>67</v>
       </c>
@@ -5699,15 +5525,15 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Nicolás</v>
       </c>
       <c r="H60" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Lasarte</v>
       </c>
       <c r="I60" s="4"/>
@@ -5721,11 +5547,11 @@
       </c>
       <c r="N60" s="4"/>
       <c r="O60" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Nicolas_Lasarte.JPG</v>
       </c>
       <c r="P60" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Lasarte</v>
       </c>
       <c r="Q60" s="4"/>
@@ -5741,21 +5567,18 @@
       </c>
       <c r="V60" s="4"/>
       <c r="W60" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X60" s="4"/>
       <c r="Y60" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 55683, 1 , 'MVD/Nicolas_Lasarte.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 28568, 1 , 'MVD/Nicolas_Lasarte.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z60" s="4"/>
-      <c r="AA60" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolás' AND [P].[LastName] = 'Lasarte' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA60" s="4"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>42</v>
       </c>
@@ -5770,15 +5593,15 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Nicolas</v>
       </c>
       <c r="H61" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Mañay</v>
       </c>
       <c r="I61" s="4"/>
@@ -5792,11 +5615,11 @@
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Nicolas_Manay.jpg</v>
       </c>
       <c r="P61" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Mañay</v>
       </c>
       <c r="Q61" s="4"/>
@@ -5810,21 +5633,18 @@
       <c r="U61" s="3"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>TST</v>
       </c>
       <c r="X61" s="4"/>
       <c r="Y61" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 52658, 0 , 'MVD/Nicolas_Manay.jpg', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 23903, 0 , 'MVD/Nicolas_Manay.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z61" s="4"/>
-      <c r="AA61" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Nicolas' AND [P].[LastName] = 'Mañay' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA61" s="4"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>41</v>
       </c>
@@ -5839,15 +5659,15 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Octavio</v>
       </c>
       <c r="H62" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Garbarino</v>
       </c>
       <c r="I62" s="4"/>
@@ -5861,11 +5681,11 @@
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Octavio_Garbarino.jpg</v>
       </c>
       <c r="P62" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Garbarino</v>
       </c>
       <c r="Q62" s="4"/>
@@ -5881,21 +5701,18 @@
       </c>
       <c r="V62" s="4"/>
       <c r="W62" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X62" s="4"/>
       <c r="Y62" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 65204, 1 , 'MVD/Octavio_Garbarino.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 22735, 1 , 'MVD/Octavio_Garbarino.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z62" s="4"/>
-      <c r="AA62" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Octavio' AND [P].[LastName] = 'Garbarino' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA62" s="4"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>35</v>
       </c>
@@ -5910,15 +5727,15 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Pablo</v>
       </c>
       <c r="H63" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Cawen</v>
       </c>
       <c r="I63" s="4"/>
@@ -5932,11 +5749,11 @@
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Pablo_Cawen.JPG</v>
       </c>
       <c r="P63" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Cawen</v>
       </c>
       <c r="Q63" s="4"/>
@@ -5952,21 +5769,18 @@
       </c>
       <c r="V63" s="4"/>
       <c r="W63" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X63" s="4"/>
       <c r="Y63" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 13493, 0 , 'MVD/Pablo_Cawen.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Cawen', NULL, NULL, 83870, 0 , 'MVD/Pablo_Cawen.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z63" s="4"/>
-      <c r="AA63" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Cawen' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA63" s="4"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>9</v>
       </c>
@@ -5981,15 +5795,15 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Pablo</v>
       </c>
       <c r="H64" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Da Silva</v>
       </c>
       <c r="I64" s="4"/>
@@ -6003,11 +5817,11 @@
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Pablo_DaSilva.JPG</v>
       </c>
       <c r="P64" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Da Silva</v>
       </c>
       <c r="Q64" s="4"/>
@@ -6023,21 +5837,18 @@
       </c>
       <c r="V64" s="4"/>
       <c r="W64" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>TST</v>
       </c>
       <c r="X64" s="4"/>
       <c r="Y64" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 61913, 0 , 'MVD/Pablo_DaSilva.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 31829, 0 , 'MVD/Pablo_DaSilva.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z64" s="4"/>
-      <c r="AA64" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Da Silva' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA64" s="4"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>71</v>
       </c>
@@ -6052,15 +5863,15 @@
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Pablo</v>
       </c>
       <c r="H65" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>García</v>
       </c>
       <c r="I65" s="4"/>
@@ -6074,11 +5885,11 @@
       </c>
       <c r="N65" s="4"/>
       <c r="O65" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Pablo_Garcia.JPG</v>
       </c>
       <c r="P65" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>García</v>
       </c>
       <c r="Q65" s="4"/>
@@ -6094,21 +5905,18 @@
       </c>
       <c r="V65" s="4"/>
       <c r="W65" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>DEV</v>
       </c>
       <c r="X65" s="4"/>
       <c r="Y65" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 20851, 0 , 'MVD/Pablo_Garcia.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'García', NULL, NULL, 25030, 0 , 'MVD/Pablo_Garcia.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z65" s="4"/>
-      <c r="AA65" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'García' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA65" s="4"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -6121,15 +5929,15 @@
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G66" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Pablo</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Gus</v>
       </c>
       <c r="I66" s="4"/>
@@ -6143,11 +5951,11 @@
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
       <c r="P66" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Gus</v>
       </c>
       <c r="Q66" s="4"/>
@@ -6163,21 +5971,18 @@
       </c>
       <c r="V66" s="4"/>
       <c r="W66" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>OPS</v>
       </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 94261, 0 , NULL, 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Gus', NULL, NULL, 53047, 0 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'OPS'</v>
       </c>
       <c r="Z66" s="4"/>
-      <c r="AA66" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Gus' AND [PR].[Code] = 'OPS'</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA66" s="4"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>20</v>
       </c>
@@ -6192,15 +5997,15 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="4">
-        <f t="shared" ref="F67:F86" si="21">FIND(" ",A67)</f>
+        <f t="shared" ref="F67:F86" si="19">FIND(" ",A67)</f>
         <v>6</v>
       </c>
       <c r="G67" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>Pablo</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>Queirolo</v>
       </c>
       <c r="I67" s="4"/>
@@ -6214,11 +6019,11 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>Pablo_Queirolo.jpg</v>
       </c>
       <c r="P67" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>Queirolo</v>
       </c>
       <c r="Q67" s="4"/>
@@ -6234,21 +6039,18 @@
       </c>
       <c r="V67" s="4"/>
       <c r="W67" s="4" t="str">
-        <f t="shared" ref="W67:W86" si="22">IF(U67="", "TST", U67)</f>
+        <f t="shared" ref="W67:W86" si="20">IF(U67="", "TST", U67)</f>
         <v>DEV</v>
       </c>
       <c r="X67" s="4"/>
       <c r="Y67" s="4" t="str">
-        <f t="shared" ref="Y67:Y91" ca="1" si="23">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, '", R67, "', '", S67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", L67, ", [dbo].[GradeFromStr]('", D67,"') FROM [dbo].[DeliveryUnit] WHERE [Code] = '", B67,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 45259, 0 , 'MVD/Pablo_Queirolo.jpg', 1, [dbo].[GradeFromStr]('SC') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ref="Y67:Y91" ca="1" si="21">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R67, "', '", S67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", L67, ", [dbo].[GradeFromStr]('", D67,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B67,"' AND [CR].[Code] = '", W67,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 8229, 0 , 'MVD/Pablo_Queirolo.jpg', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z67" s="4"/>
-      <c r="AA67" s="4" t="str">
-        <f t="shared" ref="AA67:AA86" si="24">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", R67, "' AND [P].[LastName] = '", S67, "' AND [PR].[Code] = '", W67, "'")</f>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Queirolo' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA67" s="4"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>52</v>
       </c>
@@ -6263,15 +6065,15 @@
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f t="shared" ref="G68:G86" si="25">LEFT(A68, F68-1)</f>
+        <f t="shared" ref="G68:G86" si="22">LEFT(A68, F68-1)</f>
         <v>Pablo</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" ref="H68:H86" si="26">RIGHT(A68,LEN(A68) - F68)</f>
+        <f t="shared" ref="H68:H86" si="23">RIGHT(A68,LEN(A68) - F68)</f>
         <v>Uriarte</v>
       </c>
       <c r="I68" s="4"/>
@@ -6285,11 +6087,11 @@
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4" t="str">
-        <f t="shared" ref="O68:O86" si="27">IF(C68="", G68, C68)</f>
+        <f t="shared" ref="O68:O86" si="24">IF(C68="", G68, C68)</f>
         <v>Pablo_Uriarte.jpg</v>
       </c>
       <c r="P68" s="4" t="str">
-        <f t="shared" ref="P68:P86" si="28">IF(K68="", H68, K68)</f>
+        <f t="shared" ref="P68:P86" si="25">IF(K68="", H68, K68)</f>
         <v>Uriarte</v>
       </c>
       <c r="Q68" s="4"/>
@@ -6305,21 +6107,18 @@
       </c>
       <c r="V68" s="4"/>
       <c r="W68" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X68" s="4"/>
       <c r="Y68" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 80883, 0 , 'MVD/Pablo_Uriarte.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 889, 0 , 'MVD/Pablo_Uriarte.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z68" s="4"/>
-      <c r="AA68" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pablo' AND [P].[LastName] = 'Uriarte' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA68" s="4"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>0</v>
       </c>
@@ -6334,15 +6133,15 @@
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="G69" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Pedro</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Minetti</v>
       </c>
       <c r="I69" s="4"/>
@@ -6356,11 +6155,11 @@
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Pedro_Minetti.jpg</v>
       </c>
       <c r="P69" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Minetti</v>
       </c>
       <c r="Q69" s="4"/>
@@ -6376,21 +6175,18 @@
       </c>
       <c r="V69" s="4"/>
       <c r="W69" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>ADMIN</v>
       </c>
       <c r="X69" s="4"/>
       <c r="Y69" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 59765, 0 , 'MVD/Pedro_Minetti.jpg', 1, [dbo].[GradeFromStr]('SM') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pedro', 'Minetti', NULL, NULL, 57411, 0 , 'MVD/Pedro_Minetti.jpg', 1, [dbo].[GradeFromStr]('SM'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z69" s="4"/>
-      <c r="AA69" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pedro' AND [P].[LastName] = 'Minetti' AND [PR].[Code] = 'ADMIN'</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA69" s="4"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>28</v>
       </c>
@@ -6405,15 +6201,15 @@
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="G70" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Pedro</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Tournier</v>
       </c>
       <c r="I70" s="4"/>
@@ -6427,11 +6223,11 @@
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Pedro_Tournier.JPG</v>
       </c>
       <c r="P70" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Tournier</v>
       </c>
       <c r="Q70" s="4"/>
@@ -6447,21 +6243,18 @@
       </c>
       <c r="V70" s="4"/>
       <c r="W70" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X70" s="4"/>
       <c r="Y70" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 51598, 1 , 'MVD/Pedro_Tournier.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pedro', 'Tournier', NULL, NULL, 76886, 1 , 'MVD/Pedro_Tournier.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z70" s="4"/>
-      <c r="AA70" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Pedro' AND [P].[LastName] = 'Tournier' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA70" s="4"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
@@ -6476,15 +6269,15 @@
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Raidel</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Gonzalez</v>
       </c>
       <c r="I71" s="4"/>
@@ -6498,11 +6291,11 @@
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Raidel_Gonzalez.jpeg</v>
       </c>
       <c r="P71" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Gonzalez</v>
       </c>
       <c r="Q71" s="4"/>
@@ -6518,21 +6311,18 @@
       </c>
       <c r="V71" s="4"/>
       <c r="W71" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X71" s="4"/>
       <c r="Y71" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 79674, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 99831, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z71" s="4"/>
-      <c r="AA71" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Raidel' AND [P].[LastName] = 'Gonzalez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA71" s="4"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>74</v>
       </c>
@@ -6547,15 +6337,15 @@
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Raúl</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Fossemale</v>
       </c>
       <c r="I72" s="4"/>
@@ -6569,11 +6359,11 @@
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Raul_Fossemale.JPG</v>
       </c>
       <c r="P72" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Fossemale</v>
       </c>
       <c r="Q72" s="4"/>
@@ -6589,21 +6379,18 @@
       </c>
       <c r="V72" s="4"/>
       <c r="W72" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X72" s="4"/>
       <c r="Y72" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 23331, 0 , 'MVD/Raul_Fossemale.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 25582, 0 , 'MVD/Raul_Fossemale.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z72" s="4"/>
-      <c r="AA72" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Raúl' AND [P].[LastName] = 'Fossemale' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA72" s="4"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
@@ -6618,15 +6405,15 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Roberto</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Assandri</v>
       </c>
       <c r="I73" s="4"/>
@@ -6640,11 +6427,11 @@
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Roberto_Assandri.JPG</v>
       </c>
       <c r="P73" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Assandri</v>
       </c>
       <c r="Q73" s="4"/>
@@ -6660,21 +6447,18 @@
       </c>
       <c r="V73" s="4"/>
       <c r="W73" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X73" s="4"/>
       <c r="Y73" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 13530, 0 , 'MVD/Roberto_Assandri.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Roberto', 'Assandri', NULL, NULL, 59691, 0 , 'MVD/Roberto_Assandri.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z73" s="4"/>
-      <c r="AA73" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Roberto' AND [P].[LastName] = 'Assandri' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA73" s="4"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>51</v>
       </c>
@@ -6689,15 +6473,15 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Rodrigo</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Alvarez</v>
       </c>
       <c r="I74" s="4"/>
@@ -6711,11 +6495,11 @@
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Rodrigo_Alvarez.JPG</v>
       </c>
       <c r="P74" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Alvarez</v>
       </c>
       <c r="Q74" s="4"/>
@@ -6731,21 +6515,18 @@
       </c>
       <c r="V74" s="4"/>
       <c r="W74" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X74" s="4"/>
       <c r="Y74" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 93282, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 57632, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z74" s="4"/>
-      <c r="AA74" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Rodrigo' AND [P].[LastName] = 'Alvarez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA74" s="4"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
@@ -6760,15 +6541,15 @@
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Rodrigo</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Valdez</v>
       </c>
       <c r="I75" s="4"/>
@@ -6782,11 +6563,11 @@
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Rodrigo_Valdez.JPG</v>
       </c>
       <c r="P75" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Valdez</v>
       </c>
       <c r="Q75" s="4"/>
@@ -6802,21 +6583,18 @@
       </c>
       <c r="V75" s="4"/>
       <c r="W75" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X75" s="4"/>
       <c r="Y75" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 2994, 0 , 'MVD/Rodrigo_Valdez.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 20886, 0 , 'MVD/Rodrigo_Valdez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z75" s="4"/>
-      <c r="AA75" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Rodrigo' AND [P].[LastName] = 'Valdez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA75" s="4"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
@@ -6831,15 +6609,15 @@
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="G76" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Ruben</v>
       </c>
       <c r="H76" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Bracco</v>
       </c>
       <c r="I76" s="4"/>
@@ -6853,11 +6631,11 @@
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Ruben_Bracco.JPG</v>
       </c>
       <c r="P76" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Bracco</v>
       </c>
       <c r="Q76" s="4"/>
@@ -6873,21 +6651,18 @@
       </c>
       <c r="V76" s="4"/>
       <c r="W76" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>PM</v>
       </c>
       <c r="X76" s="4"/>
       <c r="Y76" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 32547, 0 , 'MVD/Ruben_Bracco.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ruben', 'Bracco', NULL, NULL, 71124, 0 , 'MVD/Ruben_Bracco.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z76" s="4"/>
-      <c r="AA76" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ruben' AND [P].[LastName] = 'Bracco' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA76" s="4"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -6902,15 +6677,15 @@
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="G77" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Santiago</v>
       </c>
       <c r="H77" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Ferreiro</v>
       </c>
       <c r="I77" s="4"/>
@@ -6924,11 +6699,11 @@
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Santiago_Ferreiro.jpg</v>
       </c>
       <c r="P77" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Ferreiro</v>
       </c>
       <c r="Q77" s="4"/>
@@ -6944,21 +6719,18 @@
       </c>
       <c r="V77" s="4"/>
       <c r="W77" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>PM</v>
       </c>
       <c r="X77" s="4"/>
       <c r="Y77" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 99107, 0 , 'MVD/Santiago_Ferreiro.jpg', 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 93016, 0 , 'MVD/Santiago_Ferreiro.jpg', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z77" s="4"/>
-      <c r="AA77" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Santiago' AND [P].[LastName] = 'Ferreiro' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA77" s="4"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -6973,15 +6745,15 @@
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="G78" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Sebastian</v>
       </c>
       <c r="H78" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Queirolo</v>
       </c>
       <c r="I78" s="4"/>
@@ -6995,11 +6767,11 @@
       </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Sebastian_Queirolo.JPG</v>
       </c>
       <c r="P78" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Queirolo</v>
       </c>
       <c r="Q78" s="4"/>
@@ -7015,21 +6787,18 @@
       </c>
       <c r="V78" s="4"/>
       <c r="W78" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>PM</v>
       </c>
       <c r="X78" s="4"/>
       <c r="Y78" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 25302, 0 , 'MVD/Sebastian_Queirolo.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 56513, 0 , 'MVD/Sebastian_Queirolo.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z78" s="4"/>
-      <c r="AA78" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Sebastian' AND [P].[LastName] = 'Queirolo' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA78" s="4"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
@@ -7044,15 +6813,15 @@
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="G79" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Silvia</v>
       </c>
       <c r="H79" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Derkoyorikian</v>
       </c>
       <c r="I79" s="4"/>
@@ -7066,11 +6835,11 @@
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Silvia_Derkoyorikian.JPG</v>
       </c>
       <c r="P79" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Derkoyorikian</v>
       </c>
       <c r="Q79" s="4"/>
@@ -7086,21 +6855,18 @@
       </c>
       <c r="V79" s="4"/>
       <c r="W79" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DBA</v>
       </c>
       <c r="X79" s="4"/>
       <c r="Y79" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 44500, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 61249, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DBA'</v>
       </c>
       <c r="Z79" s="4"/>
-      <c r="AA79" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Silvia' AND [P].[LastName] = 'Derkoyorikian' AND [PR].[Code] = 'DBA'</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA79" s="4"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>63</v>
       </c>
@@ -7115,15 +6881,15 @@
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Valentín</v>
       </c>
       <c r="H80" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Gadola</v>
       </c>
       <c r="I80" s="4"/>
@@ -7137,11 +6903,11 @@
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Valentin_Gadola.jpg</v>
       </c>
       <c r="P80" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Gadola</v>
       </c>
       <c r="Q80" s="4"/>
@@ -7157,21 +6923,18 @@
       </c>
       <c r="V80" s="4"/>
       <c r="W80" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>PM</v>
       </c>
       <c r="X80" s="4"/>
       <c r="Y80" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 88656, 0 , 'MVD/Valentin_Gadola.jpg', 1, [dbo].[GradeFromStr]('SC') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Valentín', 'Gadola', NULL, NULL, 95734, 0 , 'MVD/Valentin_Gadola.jpg', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z80" s="4"/>
-      <c r="AA80" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Valentín' AND [P].[LastName] = 'Gadola' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA80" s="4"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>49</v>
       </c>
@@ -7186,15 +6949,15 @@
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="G81" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Valeria</v>
       </c>
       <c r="H81" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Rotunno</v>
       </c>
       <c r="I81" s="4"/>
@@ -7208,11 +6971,11 @@
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Valeria_Rotunno.JPG</v>
       </c>
       <c r="P81" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Rotunno</v>
       </c>
       <c r="Q81" s="4"/>
@@ -7228,21 +6991,18 @@
       </c>
       <c r="V81" s="4"/>
       <c r="W81" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>ADMIN</v>
       </c>
       <c r="X81" s="4"/>
       <c r="Y81" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 4264, 0 , 'MVD/Valeria_Rotunno.JPG', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 23258, 0 , 'MVD/Valeria_Rotunno.JPG', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z81" s="4"/>
-      <c r="AA81" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Valeria' AND [P].[LastName] = 'Rotunno' AND [PR].[Code] = 'ADMIN'</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA81" s="4"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>46</v>
       </c>
@@ -7257,15 +7017,15 @@
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="G82" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Victoria</v>
       </c>
       <c r="H82" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Andrada</v>
       </c>
       <c r="I82" s="4"/>
@@ -7279,11 +7039,11 @@
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Victoria_Andrada.JPG</v>
       </c>
       <c r="P82" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Andrada</v>
       </c>
       <c r="Q82" s="4"/>
@@ -7299,21 +7059,18 @@
       </c>
       <c r="V82" s="4"/>
       <c r="W82" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X82" s="4"/>
       <c r="Y82" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 82715, 0 , 'MVD/Victoria_Andrada.JPG', 1, [dbo].[GradeFromStr]('ST') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Victoria', 'Andrada', NULL, NULL, 63736, 0 , 'MVD/Victoria_Andrada.JPG', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z82" s="4"/>
-      <c r="AA82" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Victoria' AND [P].[LastName] = 'Andrada' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA82" s="4"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>50</v>
       </c>
@@ -7328,15 +7085,15 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="G83" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>William</v>
       </c>
       <c r="H83" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Claro</v>
       </c>
       <c r="I83" s="4"/>
@@ -7350,11 +7107,11 @@
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>William_Claro.JPG</v>
       </c>
       <c r="P83" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Claro</v>
       </c>
       <c r="Q83" s="4"/>
@@ -7370,21 +7127,18 @@
       </c>
       <c r="V83" s="4"/>
       <c r="W83" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X83" s="4"/>
       <c r="Y83" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 10899, 1 , 'MVD/William_Claro.JPG', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'William', 'Claro', NULL, NULL, 25135, 1 , 'MVD/William_Claro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z83" s="4"/>
-      <c r="AA83" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'William' AND [P].[LastName] = 'Claro' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA83" s="4"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>40</v>
       </c>
@@ -7399,15 +7153,15 @@
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="G84" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Yago</v>
       </c>
       <c r="H84" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Auza</v>
       </c>
       <c r="I84" s="4"/>
@@ -7421,11 +7175,11 @@
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Yago_Auza.jpg</v>
       </c>
       <c r="P84" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Auza</v>
       </c>
       <c r="Q84" s="4"/>
@@ -7441,21 +7195,18 @@
       </c>
       <c r="V84" s="4"/>
       <c r="W84" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X84" s="4"/>
       <c r="Y84" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 51094, 0 , 'MVD/Yago_Auza.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yago', 'Auza', NULL, NULL, 83689, 0 , 'MVD/Yago_Auza.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z84" s="4"/>
-      <c r="AA84" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yago' AND [P].[LastName] = 'Auza' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA84" s="4"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>39</v>
       </c>
@@ -7470,15 +7221,15 @@
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="G85" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Yanara</v>
       </c>
       <c r="H85" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Valdes</v>
       </c>
       <c r="I85" s="4"/>
@@ -7492,11 +7243,11 @@
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Yanara_Valdes.jpg</v>
       </c>
       <c r="P85" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Valdes</v>
       </c>
       <c r="Q85" s="4"/>
@@ -7512,21 +7263,18 @@
       </c>
       <c r="V85" s="4"/>
       <c r="W85" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>DEV</v>
       </c>
       <c r="X85" s="4"/>
       <c r="Y85" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 86941, 0 , 'MVD/Yanara_Valdes.jpg', 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yanara', 'Valdes', NULL, NULL, 93918, 0 , 'MVD/Yanara_Valdes.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z85" s="4"/>
-      <c r="AA85" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yanara' AND [P].[LastName] = 'Valdes' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA85" s="4"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>66</v>
       </c>
@@ -7541,15 +7289,15 @@
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="G86" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Yony</v>
       </c>
       <c r="H86" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Gómez</v>
       </c>
       <c r="I86" s="4"/>
@@ -7563,11 +7311,11 @@
       </c>
       <c r="N86" s="4"/>
       <c r="O86" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Yony_Gomez.JPG</v>
       </c>
       <c r="P86" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Gómez</v>
       </c>
       <c r="Q86" s="4"/>
@@ -7583,21 +7331,18 @@
       </c>
       <c r="V86" s="4"/>
       <c r="W86" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>UX</v>
       </c>
       <c r="X86" s="4"/>
       <c r="Y86" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 48926, 0 , 'MVD/Yony_Gomez.JPG', 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yony', 'Gómez', NULL, NULL, 78932, 0 , 'MVD/Yony_Gomez.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'UX'</v>
       </c>
       <c r="Z86" s="4"/>
-      <c r="AA86" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Yony' AND [P].[LastName] = 'Gómez' AND [PR].[Code] = 'UX'</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA86" s="4"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>317</v>
       </c>
@@ -7610,15 +7355,15 @@
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="4">
-        <f t="shared" ref="F87:F91" si="29">FIND(" ",A87)</f>
+        <f t="shared" ref="F87:F91" si="26">FIND(" ",A87)</f>
         <v>7</v>
       </c>
       <c r="G87" s="4" t="str">
-        <f t="shared" ref="G87:G91" si="30">LEFT(A87, F87-1)</f>
+        <f t="shared" ref="G87:G91" si="27">LEFT(A87, F87-1)</f>
         <v>Adrián</v>
       </c>
       <c r="H87" s="4" t="str">
-        <f t="shared" ref="H87:H91" si="31">RIGHT(A87,LEN(A87) - F87)</f>
+        <f t="shared" ref="H87:H91" si="28">RIGHT(A87,LEN(A87) - F87)</f>
         <v>Costa</v>
       </c>
       <c r="I87" s="4"/>
@@ -7632,16 +7377,16 @@
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4" t="str">
-        <f t="shared" ref="O87:O91" si="32">IF(C87="", G87, C87)</f>
+        <f t="shared" ref="O87:O91" si="29">IF(C87="", G87, C87)</f>
         <v>Adrián</v>
       </c>
       <c r="P87" s="4" t="str">
-        <f t="shared" ref="P87:P91" si="33">IF(K87="", H87, K87)</f>
+        <f t="shared" ref="P87:P91" si="30">IF(K87="", H87, K87)</f>
         <v>Costa</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="R87" s="4" t="str">
-        <f t="shared" ref="R87:R91" si="34">IF(G87="", J87, G87)</f>
+        <f t="shared" ref="R87:R91" si="31">IF(G87="", J87, G87)</f>
         <v>Adrián</v>
       </c>
       <c r="S87" s="4" t="s">
@@ -7653,21 +7398,18 @@
       </c>
       <c r="V87" s="4"/>
       <c r="W87" s="4" t="str">
-        <f t="shared" ref="W87:W91" si="35">IF(U87="", "TST", U87)</f>
+        <f t="shared" ref="W87:W91" si="32">IF(U87="", "TST", U87)</f>
         <v>PM</v>
       </c>
       <c r="X87" s="4"/>
       <c r="Y87" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Adrián', 'Costa', NULL, NULL, 64124, 0 , NULL, 1, [dbo].[GradeFromStr]('CL') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Costa', NULL, NULL, 26318, 0 , NULL, 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z87" s="4"/>
-      <c r="AA87" s="4" t="str">
-        <f t="shared" ref="AA87:AA91" si="36">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", R87, "' AND [P].[LastName] = '", S87, "' AND [PR].[Code] = '", W87, "'")</f>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Adrián' AND [P].[LastName] = 'Costa' AND [PR].[Code] = 'PM'</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA87" s="4"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>318</v>
       </c>
@@ -7680,15 +7422,15 @@
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="G88" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>Agustín</v>
       </c>
       <c r="H88" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>Narvaez</v>
       </c>
       <c r="I88" s="4"/>
@@ -7702,16 +7444,16 @@
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>Agustín</v>
       </c>
       <c r="P88" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>Narvaez</v>
       </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>Agustín</v>
       </c>
       <c r="S88" s="4" t="s">
@@ -7723,21 +7465,18 @@
       </c>
       <c r="V88" s="4"/>
       <c r="W88" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>DEV</v>
       </c>
       <c r="X88" s="4"/>
       <c r="Y88" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 30043, 1 , NULL, 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 21329, 1 , NULL, 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z88" s="4"/>
-      <c r="AA88" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Agustín' AND [P].[LastName] = 'Narvaez' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA88" s="4"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>319</v>
       </c>
@@ -7750,15 +7489,15 @@
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="G89" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>Andrea</v>
       </c>
       <c r="H89" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>Sabella</v>
       </c>
       <c r="I89" s="4"/>
@@ -7772,16 +7511,16 @@
       </c>
       <c r="N89" s="4"/>
       <c r="O89" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>Andrea</v>
       </c>
       <c r="P89" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>Sabella</v>
       </c>
       <c r="Q89" s="4"/>
       <c r="R89" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>Andrea</v>
       </c>
       <c r="S89" s="4" t="s">
@@ -7793,21 +7532,18 @@
       </c>
       <c r="V89" s="4"/>
       <c r="W89" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>TST</v>
       </c>
       <c r="X89" s="4"/>
       <c r="Y89" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Andrea', 'Sabella', NULL, NULL, 86576, 1 , NULL, 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrea', 'Sabella', NULL, NULL, 50305, 1 , NULL, 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z89" s="4"/>
-      <c r="AA89" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Andrea' AND [P].[LastName] = 'Sabella' AND [PR].[Code] = 'TST'</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA89" s="4"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>320</v>
       </c>
@@ -7820,15 +7556,15 @@
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="G90" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>Ezequiel</v>
       </c>
       <c r="H90" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>Konjuh</v>
       </c>
       <c r="I90" s="4"/>
@@ -7842,16 +7578,16 @@
       </c>
       <c r="N90" s="4"/>
       <c r="O90" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>Ezequiel</v>
       </c>
       <c r="P90" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>Konjuh</v>
       </c>
       <c r="Q90" s="4"/>
       <c r="R90" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>Ezequiel</v>
       </c>
       <c r="S90" s="4" t="s">
@@ -7863,21 +7599,18 @@
       </c>
       <c r="V90" s="4"/>
       <c r="W90" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>DEV</v>
       </c>
       <c r="X90" s="4"/>
       <c r="Y90" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 68067, 0 , NULL, 1, [dbo].[GradeFromStr]('EN') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 62021, 0 , NULL, 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z90" s="4"/>
-      <c r="AA90" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Ezequiel' AND [P].[LastName] = 'Konjuh' AND [PR].[Code] = 'DEV'</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA90" s="4"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>321</v>
       </c>
@@ -7890,15 +7623,15 @@
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="G91" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>Luis</v>
       </c>
       <c r="H91" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>Fregeiro</v>
       </c>
       <c r="I91" s="4"/>
@@ -7912,16 +7645,16 @@
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>Luis</v>
       </c>
       <c r="P91" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>Fregeiro</v>
       </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>Luis</v>
       </c>
       <c r="S91" s="4" t="s">
@@ -7933,19 +7666,16 @@
       </c>
       <c r="V91" s="4"/>
       <c r="W91" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>DEV</v>
       </c>
       <c r="X91" s="4"/>
       <c r="Y91" s="4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade]) SELECT [Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 44167, 0 , NULL, 1, [dbo].[GradeFromStr]('SE') FROM [dbo].[DeliveryUnit] WHERE [Code] = 'ROS'</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 92889, 0 , NULL, 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z91" s="4"/>
-      <c r="AA91" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = 'Luis' AND [P].[LastName] = 'Fregeiro' AND [PR].[Code] = 'DEV'</v>
-      </c>
+      <c r="AA91" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA91" xr:uid="{9AC713E9-6939-4F73-A522-F640B7028191}"/>
@@ -7967,6 +7697,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -8175,12 +7911,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -8190,6 +7920,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8206,21 +7953,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/database/Empleados.xlsx
+++ b/database/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396E94D-C91B-4BBA-89F6-DE841A22452A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23561C83-DE4B-4978-AD12-6619A222386D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AA$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Z$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1478,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6A38B-9221-46B4-8760-38B60FB5A75C}">
-  <dimension ref="A1:AA91"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1511,13 +1511,11 @@
     <col min="22" max="22" width="11.42578125" style="1"/>
     <col min="23" max="23" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" style="1"/>
-    <col min="25" max="25" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="1"/>
-    <col min="27" max="27" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>328</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>323</v>
       </c>
@@ -1616,13 +1614,12 @@
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R2, "', '", S2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", L2, ", [dbo].[GradeFromStr]('", D2,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B2,"' AND [CR].[Code] = '", W2,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Belen', NULL, NULL, 94190, 0 , 'MVD/Adrian_Belen.JPG', 0, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f>CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R2, "', '", S2, "', ", M2, " , ", IF(C2="", "NULL", CONCATENATE("'", B2,"/", C2, "'")),", ", L2, ", [dbo].[GradeFromStr]('", D2,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B2,"' AND [CR].[Code] = '", W2,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Belen', 0 , 'MVD/Adrian_Belen.JPG', 0, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1684,13 +1681,12 @@
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4" t="str">
-        <f t="shared" ref="Y3:Y66" ca="1" si="12">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R3, "', '", S3, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", L3, ", [dbo].[GradeFromStr]('", D3,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B3,"' AND [CR].[Code] = '", W3,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Lopez', NULL, NULL, 51551, 0 , 'MVD/Adrian_Lopez.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" ref="Y3:Y66" si="12">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R3, "', '", S3, "', ", M3, " , ", IF(C3="", "NULL", CONCATENATE("'", B3,"/", C3, "'")),", ", L3, ", [dbo].[GradeFromStr]('", D3,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B3,"' AND [CR].[Code] = '", W3,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Lopez', 0 , 'MVD/Adrian_Lopez.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1752,13 +1748,12 @@
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 3561, 1 , 'MVD/Alberto_Dacunha.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alberto', 'Da Cunha', 1 , 'MVD/Alberto_Dacunha.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -1818,13 +1813,12 @@
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alberto', 'Hernández', NULL, NULL, 56754, 0 , 'MVD/Alberto_Hernandez.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alberto', 'Hernández', 0 , 'MVD/Alberto_Hernandez.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1886,13 +1880,12 @@
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alejandro', 'Capece', NULL, NULL, 53563, 0 , 'MVD/Alejandro Capece.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alejandro', 'Capece', 0 , 'MVD/Alejandro Capece.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1954,13 +1947,12 @@
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 94402, 0 , 'MVD/Alejandro_Latchinian.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alejandro', 'Latchinian', 0 , 'MVD/Alejandro_Latchinian.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -2022,13 +2014,12 @@
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 31213, 1 , 'MVD/Alfonso_Rodriguez.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alfonso', 'Rodriguez', 1 , 'MVD/Alfonso_Rodriguez.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -2090,13 +2081,12 @@
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 35981, 1 , 'MVD/Alvaro_Restuccia.jpeg', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Alvaro', 'Restuccia', 1 , 'MVD/Alvaro_Restuccia.jpeg', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -2158,13 +2148,12 @@
       </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Bores', NULL, NULL, 78401, 0 , 'MVD/Andres_Bores.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Bores', 0 , 'MVD/Andres_Bores.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>73</v>
       </c>
@@ -2226,13 +2215,12 @@
       </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Maedo', NULL, NULL, 76455, 1 , 'MVD/Andres_Maedo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Maedo', 1 , 'MVD/Andres_Maedo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
@@ -2294,13 +2282,12 @@
       </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Nieves', NULL, NULL, 94605, 0 , 'MVD/Andres_Nieves.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrés', 'Nieves', 0 , 'MVD/Andres_Nieves.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2362,13 +2349,12 @@
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Aniela', 'Amy', NULL, NULL, 45259, 0 , 'MVD/Aniela_Amy.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Aniela', 'Amy', 0 , 'MVD/Aniela_Amy.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2430,13 +2416,12 @@
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ariel', 'Sisro', NULL, NULL, 12803, 0 , 'MVD/Ariel_Sisro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ariel', 'Sisro', 0 , 'MVD/Ariel_Sisro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -2498,13 +2483,12 @@
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 97204, 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Beerbal', 'Abdulkhader', 1 , 'MVD/Beerbal_Abdulkhader.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -2566,13 +2550,12 @@
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Bruno', 'Candia', NULL, NULL, 76177, 1 , 'MVD/Bruno_Candia.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Bruno', 'Candia', 1 , 'MVD/Bruno_Candia.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2634,13 +2617,12 @@
       </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camila', 'Roji', NULL, NULL, 24493, 0 , 'MVD/Camila_Roji.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camila', 'Roji', 0 , 'MVD/Camila_Roji.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
@@ -2702,13 +2684,12 @@
       </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camila', 'Sorio', NULL, NULL, 98108, 0 , 'MVD/Camila_Sorio.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camila', 'Sorio', 0 , 'MVD/Camila_Sorio.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -2770,13 +2751,12 @@
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camilo', 'Gomez', NULL, NULL, 56758, 1 , 'MVD/Camilo_Gomez.jpeg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Camilo', 'Gomez', 1 , 'MVD/Camilo_Gomez.jpeg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
@@ -2838,13 +2818,12 @@
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Damián', 'Pereira', NULL, NULL, 2319, 1 , 'MVD/Damian_Pereira.JPG', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Damián', 'Pereira', 1 , 'MVD/Damian_Pereira.JPG', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -2906,13 +2885,12 @@
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 80766, 0 , 'MVD/Daniel_Cabrera.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Daniel', 'Cabrera', 0 , 'MVD/Daniel_Cabrera.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -2974,13 +2952,12 @@
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Delia', 'Alvarez', NULL, NULL, 1053, 0 , 'MVD/Delia_Alvarez.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Delia', 'Alvarez', 0 , 'MVD/Delia_Alvarez.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
@@ -3042,13 +3019,12 @@
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 48456, 0 , 'MVD/Eduardo_Ducer.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Eduardo', 'Ducer', 0 , 'MVD/Eduardo_Ducer.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
@@ -3110,13 +3086,12 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Eugenia', 'Pais', NULL, NULL, 98650, 1 , 'MVD/Maria_Pais.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Eugenia', 'Pais', 1 , 'MVD/Maria_Pais.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -3178,13 +3153,12 @@
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'Canet', NULL, NULL, 65231, 1 , 'MVD/Federico_Canet.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'Canet', 1 , 'MVD/Federico_Canet.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
@@ -3246,13 +3220,12 @@
       </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'García', NULL, NULL, 65828, 0 , 'MVD/Federico_Garcia.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'García', 0 , 'MVD/Federico_Garcia.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -3314,13 +3287,12 @@
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'Trujillo', NULL, NULL, 3914, 1 , 'MVD/Federico_Trujillo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Federico', 'Trujillo', 1 , 'MVD/Federico_Trujillo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>332</v>
       </c>
@@ -3382,13 +3354,12 @@
       </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Olmos', NULL, NULL, 45551, 1 , 'MVD/Fernando_Olmos.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Olmos', 1 , 'MVD/Fernando_Olmos.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
@@ -3450,13 +3421,12 @@
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Cañas', NULL, NULL, 16913, 0 , 'MVD/Fernando_Canas.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Cañas', 0 , 'MVD/Fernando_Canas.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
@@ -3518,13 +3488,12 @@
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 23387, 0 , 'MVD/Fernando_Stromillo.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Fernando', 'Stromillo', 0 , 'MVD/Fernando_Stromillo.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
@@ -3586,13 +3555,12 @@
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 81563, 0 , 'MVD/Gaston_Aroztegui.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Gastón', 'Aroztegui', 0 , 'MVD/Gaston_Aroztegui.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -3654,13 +3622,12 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 87764, 0 , 'MVD/Gerardo_Barbitta.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Gerardo', 'Barbitta', 0 , 'MVD/Gerardo_Barbitta.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -3722,13 +3689,12 @@
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 80862, 0 , 'MVD/Giovanina_Chirione.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Giovanina', 'Chirione', 0 , 'MVD/Giovanina_Chirione.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
@@ -3790,13 +3756,12 @@
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 40721, 0 , 'MVD/Hernan_Rumbo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Hernán', 'Rumbo', 0 , 'MVD/Hernan_Rumbo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -3858,13 +3823,12 @@
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Horacio', 'Blanco', NULL, NULL, 8746, 0 , 'MVD/Horacio_Blanco.JPG', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Horacio', 'Blanco', 0 , 'MVD/Horacio_Blanco.JPG', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
@@ -3926,13 +3890,12 @@
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 38294, 0 , 'MVD/Hugo_Ocampo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Hugo', 'Ocampo', 0 , 'MVD/Hugo_Ocampo.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
@@ -3994,13 +3957,12 @@
       </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 41562, 1 , 'MVD/Ignacio_Assandri.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Assandri', 1 , 'MVD/Ignacio_Assandri.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -4062,13 +4024,12 @@
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 94487, 0 , 'MVD/Ignacio_Loureiro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Loureiro', 0 , 'MVD/Ignacio_Loureiro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
@@ -4130,13 +4091,12 @@
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Secco', NULL, NULL, 54849, 0 , 'MVD/Ignacio_Secco.jpeg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ignacio', 'Secco', 0 , 'MVD/Ignacio_Secco.jpeg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
@@ -4198,13 +4158,12 @@
       </c>
       <c r="X40" s="4"/>
       <c r="Y40" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Javier', 'Barrios', NULL, NULL, 24374, 0 , 'MVD/Javier_Barrios.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Javier', 'Barrios', 0 , 'MVD/Javier_Barrios.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>27</v>
       </c>
@@ -4266,13 +4225,12 @@
       </c>
       <c r="X41" s="4"/>
       <c r="Y41" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Javier', 'Calero', NULL, NULL, 20777, 0 , 'MVD/Javier_Calero.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Javier', 'Calero', 0 , 'MVD/Javier_Calero.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -4334,13 +4292,12 @@
       </c>
       <c r="X42" s="4"/>
       <c r="Y42" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 56981, 0 , 'MVD/Jimena_Irigaray.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Jimena', 'Irigaray', 0 , 'MVD/Jimena_Irigaray.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -4400,13 +4357,12 @@
       </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Jorge', 'Jova', NULL, NULL, 46860, 1 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Jorge', 'Jova', 1 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>22</v>
       </c>
@@ -4468,13 +4424,12 @@
       </c>
       <c r="X44" s="4"/>
       <c r="Y44" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan', 'Aguerre', NULL, NULL, 87505, 0 , 'MVD/Juan_Aguerre.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan', 'Aguerre', 0 , 'MVD/Juan_Aguerre.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -4536,13 +4491,12 @@
       </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan', 'Estrada', NULL, NULL, 52723, 0 , 'MVD/Juan_Estrada.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan', 'Estrada', 0 , 'MVD/Juan_Estrada.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
@@ -4604,13 +4558,12 @@
       </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 29103, 0 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'OPS'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Juan Manuel', 'Fagundez', 0 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'OPS'</v>
       </c>
       <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -4676,13 +4629,12 @@
       </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 26596, 0 , 'MVD/Leonardo_Mendizabal.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Leonardo', 'Mendizabal', 0 , 'MVD/Leonardo_Mendizabal.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -4744,13 +4696,12 @@
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Luciano', 'Deluca', NULL, NULL, 67732, 0 , 'MVD/Luciano_Deluca.JPG', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Luciano', 'Deluca', 0 , 'MVD/Luciano_Deluca.JPG', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
@@ -4812,13 +4763,12 @@
       </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Malvina', 'Jaume', NULL, NULL, 21320, 0 , 'MVD/Malvina_Jaume.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Malvina', 'Jaume', 0 , 'MVD/Malvina_Jaume.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>37</v>
       </c>
@@ -4880,13 +4830,12 @@
       </c>
       <c r="X50" s="4"/>
       <c r="Y50" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 92294, 0 , 'MVD/Marcelo_Zepedeo.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marcelo', 'Zepedeo', 0 , 'MVD/Marcelo_Zepedeo.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -4948,13 +4897,12 @@
       </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 36611, 0 , 'MVD/Marcos_Guimaraes.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marcos', 'Guimaraes', 0 , 'MVD/Marcos_Guimaraes.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>85</v>
       </c>
@@ -5018,13 +4966,12 @@
       </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 92552, 0 , 'MVD/Maria_Etcheverry.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'María Julia', 'Etcheverry', 0 , 'MVD/Maria_Etcheverry.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>82</v>
       </c>
@@ -5092,13 +5039,12 @@
       </c>
       <c r="X53" s="4"/>
       <c r="Y53" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 1741, 0 , 'MVD/Maria_Mosqueira.JPG', 1, [dbo].[GradeFromStr]('TL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'María Noel', 'Mosqueira', 0 , 'MVD/Maria_Mosqueira.JPG', 1, [dbo].[GradeFromStr]('TL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>77</v>
       </c>
@@ -5164,13 +5110,12 @@
       </c>
       <c r="X54" s="4"/>
       <c r="Y54" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marlon', 'González', NULL, NULL, 40032, 0 , 'MVD/Marlon_Gonzalez.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Marlon', 'González', 0 , 'MVD/Marlon_Gonzalez.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -5232,13 +5177,12 @@
       </c>
       <c r="X55" s="4"/>
       <c r="Y55" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Martín', 'Acosta', NULL, NULL, 69496, 0 , 'MVD/Martin_Acosta.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Martín', 'Acosta', 0 , 'MVD/Martin_Acosta.jpg', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>23</v>
       </c>
@@ -5300,13 +5244,12 @@
       </c>
       <c r="X56" s="4"/>
       <c r="Y56" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Martin', 'Caetano', NULL, NULL, 66494, 0 , 'MVD/Martin_Caetano.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Martin', 'Caetano', 0 , 'MVD/Martin_Caetano.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>88</v>
       </c>
@@ -5368,13 +5311,12 @@
       </c>
       <c r="X57" s="4"/>
       <c r="Y57" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 84554, 1 , 'MVD/Mathias_Rodriguez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Mathías', 'Rodríguez', 1 , 'MVD/Mathias_Rodriguez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>34</v>
       </c>
@@ -5436,13 +5378,12 @@
       </c>
       <c r="X58" s="4"/>
       <c r="Y58" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Mauricio', 'Mora', NULL, NULL, 10465, 0 , 'MVD/Mauricio_Mora.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Mauricio', 'Mora', 0 , 'MVD/Mauricio_Mora.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>68</v>
       </c>
@@ -5504,13 +5445,12 @@
       </c>
       <c r="X59" s="4"/>
       <c r="Y59" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 82734, 1 , 'MVD/Nicolas_Gomez.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolás', 'Gómez', 1 , 'MVD/Nicolas_Gomez.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>67</v>
       </c>
@@ -5572,13 +5512,12 @@
       </c>
       <c r="X60" s="4"/>
       <c r="Y60" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 28568, 1 , 'MVD/Nicolas_Lasarte.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolás', 'Lasarte', 1 , 'MVD/Nicolas_Lasarte.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>42</v>
       </c>
@@ -5638,13 +5577,12 @@
       </c>
       <c r="X61" s="4"/>
       <c r="Y61" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 23903, 0 , 'MVD/Nicolas_Manay.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Nicolas', 'Mañay', 0 , 'MVD/Nicolas_Manay.jpg', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>41</v>
       </c>
@@ -5706,13 +5644,12 @@
       </c>
       <c r="X62" s="4"/>
       <c r="Y62" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 22735, 1 , 'MVD/Octavio_Garbarino.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Octavio', 'Garbarino', 1 , 'MVD/Octavio_Garbarino.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>35</v>
       </c>
@@ -5774,13 +5711,12 @@
       </c>
       <c r="X63" s="4"/>
       <c r="Y63" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Cawen', NULL, NULL, 83870, 0 , 'MVD/Pablo_Cawen.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Cawen', 0 , 'MVD/Pablo_Cawen.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>9</v>
       </c>
@@ -5842,13 +5778,12 @@
       </c>
       <c r="X64" s="4"/>
       <c r="Y64" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 31829, 0 , 'MVD/Pablo_DaSilva.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Da Silva', 0 , 'MVD/Pablo_DaSilva.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>71</v>
       </c>
@@ -5910,13 +5845,12 @@
       </c>
       <c r="X65" s="4"/>
       <c r="Y65" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'García', NULL, NULL, 25030, 0 , 'MVD/Pablo_Garcia.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'García', 0 , 'MVD/Pablo_Garcia.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -5976,13 +5910,12 @@
       </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Gus', NULL, NULL, 53047, 0 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'OPS'</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Gus', 0 , NULL, 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'OPS'</v>
       </c>
       <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>20</v>
       </c>
@@ -6044,13 +5977,12 @@
       </c>
       <c r="X67" s="4"/>
       <c r="Y67" s="4" t="str">
-        <f t="shared" ref="Y67:Y91" ca="1" si="21">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R67, "', '", S67, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", ", M67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", L67, ", [dbo].[GradeFromStr]('", D67,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B67,"' AND [CR].[Code] = '", W67,"'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 8229, 0 , 'MVD/Pablo_Queirolo.jpg', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" ref="Y67:Y91" si="21">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, '", R67, "', '", S67, "', ", M67, " , ", IF(C67="", "NULL", CONCATENATE("'", B67,"/", C67, "'")),", ", L67, ", [dbo].[GradeFromStr]('", D67,"'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = '", B67,"' AND [CR].[Code] = '", W67,"'")</f>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Queirolo', 0 , 'MVD/Pablo_Queirolo.jpg', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>52</v>
       </c>
@@ -6112,13 +6044,12 @@
       </c>
       <c r="X68" s="4"/>
       <c r="Y68" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 889, 0 , 'MVD/Pablo_Uriarte.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pablo', 'Uriarte', 0 , 'MVD/Pablo_Uriarte.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>0</v>
       </c>
@@ -6180,13 +6111,12 @@
       </c>
       <c r="X69" s="4"/>
       <c r="Y69" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pedro', 'Minetti', NULL, NULL, 57411, 0 , 'MVD/Pedro_Minetti.jpg', 1, [dbo].[GradeFromStr]('SM'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pedro', 'Minetti', 0 , 'MVD/Pedro_Minetti.jpg', 1, [dbo].[GradeFromStr]('SM'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>28</v>
       </c>
@@ -6248,13 +6178,12 @@
       </c>
       <c r="X70" s="4"/>
       <c r="Y70" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pedro', 'Tournier', NULL, NULL, 76886, 1 , 'MVD/Pedro_Tournier.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Pedro', 'Tournier', 1 , 'MVD/Pedro_Tournier.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
@@ -6316,13 +6245,12 @@
       </c>
       <c r="X71" s="4"/>
       <c r="Y71" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 99831, 0 , 'MVD/Raidel_Gonzalez.jpeg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Raidel', 'Gonzalez', 0 , 'MVD/Raidel_Gonzalez.jpeg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>74</v>
       </c>
@@ -6384,13 +6312,12 @@
       </c>
       <c r="X72" s="4"/>
       <c r="Y72" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 25582, 0 , 'MVD/Raul_Fossemale.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Raúl', 'Fossemale', 0 , 'MVD/Raul_Fossemale.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
@@ -6452,13 +6379,12 @@
       </c>
       <c r="X73" s="4"/>
       <c r="Y73" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Roberto', 'Assandri', NULL, NULL, 59691, 0 , 'MVD/Roberto_Assandri.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Roberto', 'Assandri', 0 , 'MVD/Roberto_Assandri.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>51</v>
       </c>
@@ -6520,13 +6446,12 @@
       </c>
       <c r="X74" s="4"/>
       <c r="Y74" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 57632, 0 , 'MVD/Rodrigo_Alvarez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Rodrigo', 'Alvarez', 0 , 'MVD/Rodrigo_Alvarez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
@@ -6588,13 +6513,12 @@
       </c>
       <c r="X75" s="4"/>
       <c r="Y75" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 20886, 0 , 'MVD/Rodrigo_Valdez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Rodrigo', 'Valdez', 0 , 'MVD/Rodrigo_Valdez.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
@@ -6656,13 +6580,12 @@
       </c>
       <c r="X76" s="4"/>
       <c r="Y76" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ruben', 'Bracco', NULL, NULL, 71124, 0 , 'MVD/Ruben_Bracco.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ruben', 'Bracco', 0 , 'MVD/Ruben_Bracco.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -6724,13 +6647,12 @@
       </c>
       <c r="X77" s="4"/>
       <c r="Y77" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 93016, 0 , 'MVD/Santiago_Ferreiro.jpg', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Santiago', 'Ferreiro', 0 , 'MVD/Santiago_Ferreiro.jpg', 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -6792,13 +6714,12 @@
       </c>
       <c r="X78" s="4"/>
       <c r="Y78" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 56513, 0 , 'MVD/Sebastian_Queirolo.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Sebastian', 'Queirolo', 0 , 'MVD/Sebastian_Queirolo.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
@@ -6860,13 +6781,12 @@
       </c>
       <c r="X79" s="4"/>
       <c r="Y79" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 61249, 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DBA'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Silvia', 'Derkoyorikian', 0 , 'MVD/Silvia_Derkoyorikian.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DBA'</v>
       </c>
       <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>63</v>
       </c>
@@ -6928,13 +6848,12 @@
       </c>
       <c r="X80" s="4"/>
       <c r="Y80" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Valentín', 'Gadola', NULL, NULL, 95734, 0 , 'MVD/Valentin_Gadola.jpg', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Valentín', 'Gadola', 0 , 'MVD/Valentin_Gadola.jpg', 1, [dbo].[GradeFromStr]('SC'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>49</v>
       </c>
@@ -6996,13 +6915,12 @@
       </c>
       <c r="X81" s="4"/>
       <c r="Y81" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 23258, 0 , 'MVD/Valeria_Rotunno.JPG', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Valeria', 'Rotunno', 0 , 'MVD/Valeria_Rotunno.JPG', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'ADMIN'</v>
       </c>
       <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>46</v>
       </c>
@@ -7064,13 +6982,12 @@
       </c>
       <c r="X82" s="4"/>
       <c r="Y82" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Victoria', 'Andrada', NULL, NULL, 63736, 0 , 'MVD/Victoria_Andrada.JPG', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Victoria', 'Andrada', 0 , 'MVD/Victoria_Andrada.JPG', 1, [dbo].[GradeFromStr]('ST'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>50</v>
       </c>
@@ -7132,13 +7049,12 @@
       </c>
       <c r="X83" s="4"/>
       <c r="Y83" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'William', 'Claro', NULL, NULL, 25135, 1 , 'MVD/William_Claro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'William', 'Claro', 1 , 'MVD/William_Claro.JPG', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>40</v>
       </c>
@@ -7200,13 +7116,12 @@
       </c>
       <c r="X84" s="4"/>
       <c r="Y84" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yago', 'Auza', NULL, NULL, 83689, 0 , 'MVD/Yago_Auza.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yago', 'Auza', 0 , 'MVD/Yago_Auza.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>39</v>
       </c>
@@ -7268,13 +7183,12 @@
       </c>
       <c r="X85" s="4"/>
       <c r="Y85" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yanara', 'Valdes', NULL, NULL, 93918, 0 , 'MVD/Yanara_Valdes.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yanara', 'Valdes', 0 , 'MVD/Yanara_Valdes.jpg', 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>66</v>
       </c>
@@ -7336,13 +7250,12 @@
       </c>
       <c r="X86" s="4"/>
       <c r="Y86" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yony', 'Gómez', NULL, NULL, 78932, 0 , 'MVD/Yony_Gomez.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'UX'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Yony', 'Gómez', 0 , 'MVD/Yony_Gomez.JPG', 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'MVD' AND [CR].[Code] = 'UX'</v>
       </c>
       <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>317</v>
       </c>
@@ -7403,13 +7316,12 @@
       </c>
       <c r="X87" s="4"/>
       <c r="Y87" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Costa', NULL, NULL, 26318, 0 , NULL, 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'PM'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Adrián', 'Costa', 0 , NULL, 1, [dbo].[GradeFromStr]('CL'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'PM'</v>
       </c>
       <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>318</v>
       </c>
@@ -7470,13 +7382,12 @@
       </c>
       <c r="X88" s="4"/>
       <c r="Y88" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Agustín', 'Narvaez', NULL, NULL, 21329, 1 , NULL, 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Agustín', 'Narvaez', 1 , NULL, 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z88" s="4"/>
-      <c r="AA88" s="4"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>319</v>
       </c>
@@ -7537,13 +7448,12 @@
       </c>
       <c r="X89" s="4"/>
       <c r="Y89" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrea', 'Sabella', NULL, NULL, 50305, 1 , NULL, 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'TST'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Andrea', 'Sabella', 1 , NULL, 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'TST'</v>
       </c>
       <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>320</v>
       </c>
@@ -7604,13 +7514,12 @@
       </c>
       <c r="X90" s="4"/>
       <c r="Y90" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ezequiel', 'Konjuh', NULL, NULL, 62021, 0 , NULL, 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Ezequiel', 'Konjuh', 0 , NULL, 1, [dbo].[GradeFromStr]('EN'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>321</v>
       </c>
@@ -7671,15 +7580,14 @@
       </c>
       <c r="X91" s="4"/>
       <c r="Y91" s="4" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Luis', 'Fregeiro', NULL, NULL, 92889, 0 , NULL, 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
+        <f t="shared" si="21"/>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [InBench], [Picture], [IsActive], [Grade], [CandidateRoleId]) SELECT [DU].[Id], 1, 'Luis', 'Fregeiro', 0 , NULL, 1, [dbo].[GradeFromStr]('SE'), [CR].[Id] FROM [dbo].[DeliveryUnit] AS [DU] CROSS JOIN [dbo].[CandidateRole] AS [CR] WHERE [DU].[Code] = 'ROS' AND [CR].[Code] = 'DEV'</v>
       </c>
       <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA91" xr:uid="{9AC713E9-6939-4F73-A522-F640B7028191}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AA86">
+  <autoFilter ref="A1:Z91" xr:uid="{9AC713E9-6939-4F73-A522-F640B7028191}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z86">
     <sortCondition ref="A3:A86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7697,12 +7605,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -7911,6 +7813,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -7920,23 +7828,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7953,4 +7844,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>